--- a/results/12-2020/no-addons/fim_noaddons.xlsx
+++ b/results/12-2020/no-addons/fim_noaddons.xlsx
@@ -69293,7 +69293,7 @@
         <v>1078.1</v>
       </c>
       <c r="AU203">
-        <v>2928.856000000001</v>
+        <v>3763.789333333334</v>
       </c>
       <c r="AV203">
         <v>1600.1</v>
@@ -69320,7 +69320,7 @@
         <v>156.16</v>
       </c>
       <c r="BD203">
-        <v>1874.544</v>
+        <v>1039.610666666667</v>
       </c>
       <c r="BE203">
         <v>1084.6</v>
@@ -69329,7 +69329,7 @@
         <v>0</v>
       </c>
       <c r="BG203">
-        <v>1205.744</v>
+        <v>370.810666666667</v>
       </c>
       <c r="BH203">
         <v>496.4</v>
@@ -69395,7 +69395,7 @@
         <v>107.9147075988478</v>
       </c>
       <c r="CC203">
-        <v>1353.184173064724</v>
+        <v>2188.117506398058</v>
       </c>
       <c r="CD203">
         <v>-273.0144895855487</v>
@@ -69410,7 +69410,7 @@
         <v>-44.62477118562603</v>
       </c>
       <c r="CH203">
-        <v>1019.617534687517</v>
+        <v>184.6842013541838</v>
       </c>
       <c r="CI203">
         <v>-83.6558947536505</v>
@@ -69431,10 +69431,10 @@
         <v>543.7115980182668</v>
       </c>
       <c r="CO203">
-        <v>311.0220599376152</v>
+        <v>498.8820599376152</v>
       </c>
       <c r="CP203">
-        <v>232.7120380806516</v>
+        <v>44.85203808065168</v>
       </c>
       <c r="CQ203">
         <v>3.69227319563193</v>
@@ -69467,16 +69467,16 @@
         <v>647.4750795843984</v>
       </c>
       <c r="DA203">
-        <v>231.7699161304129</v>
+        <v>43.90991613041292</v>
       </c>
       <c r="DB203">
-        <v>415.7212790105835</v>
+        <v>603.5812790105836</v>
       </c>
       <c r="DC203">
-        <v>4.29977906749494</v>
+        <v>0.8146136538564901</v>
       </c>
       <c r="DD203">
-        <v>7.71243172214003</v>
+        <v>11.19759713577848</v>
       </c>
       <c r="DE203">
         <v>0.2644008217736566</v>
@@ -69637,7 +69637,7 @@
         <v>15.6</v>
       </c>
       <c r="AU204">
-        <v>1915.067</v>
+        <v>2653.267</v>
       </c>
       <c r="AV204">
         <v>1687.4</v>
@@ -69664,7 +69664,7 @@
         <v>197.628</v>
       </c>
       <c r="BD204">
-        <v>1565.633</v>
+        <v>827.433</v>
       </c>
       <c r="BE204">
         <v>775.2</v>
@@ -69673,7 +69673,7 @@
         <v>0</v>
       </c>
       <c r="BG204">
-        <v>881.9330000000001</v>
+        <v>143.7329999999999</v>
       </c>
       <c r="BH204">
         <v>506.6</v>
@@ -69739,7 +69739,7 @@
         <v>-24.47185498384533</v>
       </c>
       <c r="CC204">
-        <v>-1049.949670506281</v>
+        <v>-1156.991379929589</v>
       </c>
       <c r="CD204">
         <v>123.4559522245695</v>
@@ -69754,7 +69754,7 @@
         <v>39.53999455819593</v>
       </c>
       <c r="CH204">
-        <v>-338.6975330009139</v>
+        <v>-231.6558235776068</v>
       </c>
       <c r="CI204">
         <v>69.5259728142737</v>
@@ -69775,10 +69775,10 @@
         <v>232.9124791195927</v>
       </c>
       <c r="CO204">
-        <v>76.32904353470437</v>
+        <v>240.1046589144602</v>
       </c>
       <c r="CP204">
-        <v>156.5831577920962</v>
+        <v>-7.192457587659628</v>
       </c>
       <c r="CQ204">
         <v>1.317180636246343</v>
@@ -69811,16 +69811,16 @@
         <v>315.2344524610139</v>
       </c>
       <c r="DA204">
-        <v>155.175771692959</v>
+        <v>-8.59984368679681</v>
       </c>
       <c r="DB204">
-        <v>160.0520422402407</v>
+        <v>323.8276576199965</v>
       </c>
       <c r="DC204">
-        <v>3.179815097114442</v>
+        <v>-0.1762254022632427</v>
       </c>
       <c r="DD204">
-        <v>3.279738162002054</v>
+        <v>6.635778661379737</v>
       </c>
       <c r="DE204">
         <v>0.3326846610724514</v>
@@ -69846,19 +69846,19 @@
         <v>44196</v>
       </c>
       <c r="B205">
-        <v>5.043766401677331</v>
+        <v>3.680259274294004</v>
       </c>
       <c r="C205">
-        <v>5.61208875668615</v>
+        <v>5.271211974840319</v>
       </c>
       <c r="D205">
-        <v>0.994923096262912</v>
+        <v>0.08878512403546765</v>
       </c>
       <c r="E205">
         <v>-0.2555024292683293</v>
       </c>
       <c r="F205">
-        <v>4.304345734682749</v>
+        <v>3.846976579526866</v>
       </c>
       <c r="G205">
         <v>0.8694391055571175</v>
@@ -69903,7 +69903,7 @@
         <v>0.003650663071831373</v>
       </c>
       <c r="V205">
-        <v>2383.382031783617</v>
+        <v>2335.424</v>
       </c>
       <c r="W205">
         <v>0.003458823943076839</v>
@@ -69936,13 +69936,13 @@
         <v>1539.70148227699</v>
       </c>
       <c r="AH205">
-        <v>4084.931064114416</v>
+        <v>3977.346150498898</v>
       </c>
       <c r="AI205">
-        <v>4084.931064114416</v>
+        <v>3977.346150498898</v>
       </c>
       <c r="AJ205">
-        <v>2545.229581837426</v>
+        <v>2437.644668221908</v>
       </c>
       <c r="AK205">
         <v>2211.584932832352</v>
@@ -69975,7 +69975,7 @@
         <v>0</v>
       </c>
       <c r="AU205">
-        <v>1653.243063736659</v>
+        <v>2317.934366628473</v>
       </c>
       <c r="AV205">
         <v>1694.740626374956</v>
@@ -70002,13 +70002,13 @@
         <v>205.169857046954</v>
       </c>
       <c r="BD205">
-        <v>1601.777799007332</v>
+        <v>829.5015824999999</v>
       </c>
       <c r="BF205">
         <v>0</v>
       </c>
       <c r="BG205">
-        <v>891.9865181007675</v>
+        <v>119.7103015934359</v>
       </c>
       <c r="BH205">
         <v>516.8443064573955</v>
@@ -70032,7 +70032,7 @@
         <v>0.01963638082735376</v>
       </c>
       <c r="BO205">
-        <v>0.7197842861672289</v>
+        <v>-0.1863536860602154</v>
       </c>
       <c r="BP205">
         <v>-0.2763816252299753</v>
@@ -70047,10 +70047,10 @@
         <v>-0.2751388100956831</v>
       </c>
       <c r="BT205">
-        <v>0.7197842861672289</v>
+        <v>-0.1863536860602154</v>
       </c>
       <c r="BU205">
-        <v>0.7394206669945826</v>
+        <v>-0.1667173052328617</v>
       </c>
       <c r="BV205">
         <v>-2.022206185362165</v>
@@ -70059,7 +70059,7 @@
         <v>5.759027912986994</v>
       </c>
       <c r="BX205">
-        <v>-265.5913332936757</v>
+        <v>-373.1762469091932</v>
       </c>
       <c r="BY205">
         <v>41.84658179178496</v>
@@ -70074,7 +70074,7 @@
         <v>-0.8062829003131355</v>
       </c>
       <c r="CC205">
-        <v>-271.2869246356597</v>
+        <v>-348.4433155406923</v>
       </c>
       <c r="CD205">
         <v>13.15196637382815</v>
@@ -70089,7 +70089,7 @@
         <v>6.565310813300243</v>
       </c>
       <c r="CH205">
-        <v>5.695591341983572</v>
+        <v>-24.73293136850134</v>
       </c>
       <c r="CI205">
         <v>28.59412128441636</v>
@@ -70107,13 +70107,13 @@
         <v>-1.675570692150947</v>
       </c>
       <c r="CN205">
-        <v>174.3506910989119</v>
+        <v>150.1440855354204</v>
       </c>
       <c r="CO205">
-        <v>16.34692641974282</v>
+        <v>162.7623538458663</v>
       </c>
       <c r="CP205">
-        <v>158.0034868863769</v>
+        <v>-12.61854610323807</v>
       </c>
       <c r="CQ205">
         <v>-0.1327106898178783</v>
@@ -70143,25 +70143,25 @@
         <v>-0.002041336376714476</v>
       </c>
       <c r="CZ205">
-        <v>227.8107262673855</v>
+        <v>203.604120703894</v>
       </c>
       <c r="DA205">
-        <v>147.7110385770437</v>
+        <v>-22.91099441257131</v>
       </c>
       <c r="DB205">
-        <v>80.08972602150747</v>
+        <v>226.505153447631</v>
       </c>
       <c r="DC205">
-        <v>2.790910635693281</v>
+        <v>-0.4328893669446595</v>
       </c>
       <c r="DD205">
-        <v>1.513246879288578</v>
+        <v>4.279677726770635</v>
       </c>
       <c r="DE205">
         <v>0.3599231171523215</v>
       </c>
       <c r="DF205">
-        <v>3.294250739931166</v>
+        <v>2.836881584775283</v>
       </c>
       <c r="DG205">
         <v>-0.2167597398293385</v>
@@ -70181,19 +70181,19 @@
         <v>44286</v>
       </c>
       <c r="B206">
-        <v>3.719591208077784</v>
+        <v>2.347689841918489</v>
       </c>
       <c r="C206">
-        <v>6.527678674108373</v>
+        <v>5.843826550722718</v>
       </c>
       <c r="D206">
-        <v>0.7295149363834014</v>
+        <v>0.1440987094069509</v>
       </c>
       <c r="E206">
         <v>-0.412383690555891</v>
       </c>
       <c r="F206">
-        <v>3.402459962250274</v>
+        <v>2.615974823067429</v>
       </c>
       <c r="G206">
         <v>0.9724062954493573</v>
@@ -70238,7 +70238,7 @@
         <v>0.003938982612060604</v>
       </c>
       <c r="V206">
-        <v>2421.146140886116</v>
+        <v>2341.26256</v>
       </c>
       <c r="W206">
         <v>0.0031885362715387</v>
@@ -70271,13 +70271,13 @@
         <v>1553.002964553979</v>
       </c>
       <c r="AH206">
-        <v>3891.954303416992</v>
+        <v>3702.613611385422</v>
       </c>
       <c r="AI206">
-        <v>3891.954303416992</v>
+        <v>3702.613611385422</v>
       </c>
       <c r="AJ206">
-        <v>2338.951338863013</v>
+        <v>2149.610646831443</v>
       </c>
       <c r="AK206">
         <v>2227.497377316697</v>
@@ -70310,7 +70310,7 @@
         <v>0</v>
       </c>
       <c r="AU206">
-        <v>1447.67632169522</v>
+        <v>2053.917872188321</v>
       </c>
       <c r="AV206">
         <v>1702.081252749912</v>
@@ -70337,13 +70337,13 @@
         <v>212.711714093908</v>
       </c>
       <c r="BD206">
-        <v>1627.157578980921</v>
+        <v>831.5753364562498</v>
       </c>
       <c r="BF206">
         <v>0</v>
       </c>
       <c r="BG206">
-        <v>891.2750171677932</v>
+        <v>95.69277464312188</v>
       </c>
       <c r="BH206">
         <v>525.4161245667848</v>
@@ -70367,7 +70367,7 @@
         <v>-0.09195123678860347</v>
       </c>
       <c r="BO206">
-        <v>0.4090824826161138</v>
+        <v>-0.1763337443603366</v>
       </c>
       <c r="BP206">
         <v>-0.3169002560049148</v>
@@ -70382,10 +70382,10 @@
         <v>-0.3204324537672876</v>
       </c>
       <c r="BT206">
-        <v>0.4090824826161138</v>
+        <v>-0.1763337443603366</v>
       </c>
       <c r="BU206">
-        <v>0.3171312458275103</v>
+        <v>-0.2682849811489401</v>
       </c>
       <c r="BV206">
         <v>-2.644753748029189</v>
@@ -70394,7 +70394,7 @@
         <v>4.739658744472536</v>
       </c>
       <c r="BX206">
-        <v>-220.431510202036</v>
+        <v>-301.5890408046394</v>
       </c>
       <c r="BY206">
         <v>32.01203402653118</v>
@@ -70409,7 +70409,7 @@
         <v>-1.661309545506356</v>
       </c>
       <c r="CC206">
-        <v>-214.7599366515637</v>
+        <v>-276.9058403526333</v>
       </c>
       <c r="CD206">
         <v>10.96526462273096</v>
@@ -70424,7 +70424,7 @@
         <v>6.400968289978863</v>
       </c>
       <c r="CH206">
-        <v>-5.671573550472203</v>
+        <v>-24.68320045200583</v>
       </c>
       <c r="CI206">
         <v>21.04676940380114</v>
@@ -70442,13 +70442,13 @@
         <v>1.773338057066026</v>
       </c>
       <c r="CN206">
-        <v>112.0799014613924</v>
+        <v>69.61285151231517</v>
       </c>
       <c r="CO206">
-        <v>-41.13278071397556</v>
+        <v>91.29981837940727</v>
       </c>
       <c r="CP206">
-        <v>153.2124043825757</v>
+        <v>-21.6872446598843</v>
       </c>
       <c r="CQ206">
         <v>-1.732601942595012</v>
@@ -70478,25 +70478,25 @@
         <v>-0.002038844309449581</v>
       </c>
       <c r="CZ206">
-        <v>183.719221086294</v>
+        <v>141.2521711372168</v>
       </c>
       <c r="DA206">
-        <v>148.8321636037306</v>
+        <v>-26.0674854387294</v>
       </c>
       <c r="DB206">
-        <v>34.88653995830595</v>
+        <v>167.3191390516888</v>
       </c>
       <c r="DC206">
-        <v>2.756355457869696</v>
+        <v>-0.482766990831944</v>
       </c>
       <c r="DD206">
-        <v>0.6460949198877031</v>
+        <v>3.098732229406499</v>
       </c>
       <c r="DE206">
         <v>0.3702639521582779</v>
       </c>
       <c r="DF206">
-        <v>2.075707566364123</v>
+        <v>1.289222427181278</v>
       </c>
       <c r="DG206">
         <v>0.01616974752556244</v>
@@ -70516,19 +70516,19 @@
         <v>44377</v>
       </c>
       <c r="B207">
-        <v>-7.290228013671845</v>
+        <v>-8.976776321850711</v>
       </c>
       <c r="C207">
-        <v>1.673782165688193</v>
+        <v>0.5682929652578221</v>
       </c>
       <c r="D207">
-        <v>0.6443569486380742</v>
+        <v>0.02453766901004156</v>
       </c>
       <c r="E207">
         <v>-0.4411647229762398</v>
       </c>
       <c r="F207">
-        <v>-7.49342023933368</v>
+        <v>-8.560149267884512</v>
       </c>
       <c r="G207">
         <v>0.8191215075199744</v>
@@ -70573,7 +70573,7 @@
         <v>0.00541033706720695</v>
       </c>
       <c r="V207">
-        <v>2461.77438185875</v>
+        <v>2347.1157164</v>
       </c>
       <c r="W207">
         <v>0.005802914123625325</v>
@@ -70606,13 +70606,13 @@
         <v>1566.304446830969</v>
       </c>
       <c r="AH207">
-        <v>3741.40441189355</v>
+        <v>3479.229843411781</v>
       </c>
       <c r="AI207">
-        <v>3741.40441189355</v>
+        <v>3479.229843411781</v>
       </c>
       <c r="AJ207">
-        <v>2175.099965062581</v>
+        <v>1912.925396580813</v>
       </c>
       <c r="AK207">
         <v>2243.192877611105</v>
@@ -70645,7 +70645,7 @@
         <v>0</v>
       </c>
       <c r="AU207">
-        <v>1282.61157787471</v>
+        <v>1841.244964503114</v>
       </c>
       <c r="AV207">
         <v>1709.421879124869</v>
@@ -70672,13 +70672,13 @@
         <v>220.2535711408621</v>
       </c>
       <c r="BD207">
-        <v>1654.462229907564</v>
+        <v>833.6542747973904</v>
       </c>
       <c r="BF207">
         <v>0</v>
       </c>
       <c r="BG207">
-        <v>892.4883871878716</v>
+        <v>71.68043207769836</v>
       </c>
       <c r="BH207">
         <v>533.7709984862367</v>
@@ -70702,7 +70702,7 @@
         <v>-0.1215992089556472</v>
       </c>
       <c r="BO207">
-        <v>0.3247914346174817</v>
+        <v>-0.295027845010551</v>
       </c>
       <c r="BP207">
         <v>-0.3129925573242024</v>
@@ -70717,10 +70717,10 @@
         <v>-0.3195655140205925</v>
       </c>
       <c r="BT207">
-        <v>0.3247914346174817</v>
+        <v>-0.295027845010551</v>
       </c>
       <c r="BU207">
-        <v>0.2031922256618345</v>
+        <v>-0.4166270539661982</v>
       </c>
       <c r="BV207">
         <v>-4.196041936903384</v>
@@ -70729,7 +70729,7 @@
         <v>2.354415594652892</v>
       </c>
       <c r="BX207">
-        <v>-180.338564654332</v>
+        <v>-251.8377848104619</v>
       </c>
       <c r="BY207">
         <v>23.03315837185528</v>
@@ -70744,7 +70744,7 @@
         <v>-3.688043594442661</v>
       </c>
       <c r="CC207">
-        <v>-175.2693664707895</v>
+        <v>-227.150907032328</v>
       </c>
       <c r="CD207">
         <v>5.852241901436628</v>
@@ -70759,7 +70759,7 @@
         <v>6.042459189095553</v>
       </c>
       <c r="CH207">
-        <v>-5.069198183543108</v>
+        <v>-24.68687777813443</v>
       </c>
       <c r="CI207">
         <v>17.18091647041911</v>
@@ -70777,13 +70777,13 @@
         <v>13.17346489137838</v>
       </c>
       <c r="CN207">
-        <v>-462.3541598300865</v>
+        <v>-520.9085343142929</v>
       </c>
       <c r="CO207">
-        <v>-385.0348271094662</v>
+        <v>-452.1355746424295</v>
       </c>
       <c r="CP207">
-        <v>-77.34211051341278</v>
+        <v>-68.7957374646559</v>
       </c>
       <c r="CQ207">
         <v>-1.415580879945855</v>
@@ -70813,25 +70813,25 @@
         <v>-0.001878722684611048</v>
       </c>
       <c r="CZ207">
-        <v>-411.325203606351</v>
+        <v>-469.8795780905574</v>
       </c>
       <c r="DA207">
-        <v>-68.40264198621597</v>
+        <v>-59.85626893745908</v>
       </c>
       <c r="DB207">
-        <v>-342.9455435053198</v>
+        <v>-410.0462910382832</v>
       </c>
       <c r="DC207">
-        <v>-1.246142316078324</v>
+        <v>-1.090446617845011</v>
       </c>
       <c r="DD207">
-        <v>-6.247696601522751</v>
+        <v>-7.470121328306897</v>
       </c>
       <c r="DE207">
         <v>0.1144490035486514</v>
       </c>
       <c r="DF207">
-        <v>-8.423053070014683</v>
+        <v>-9.489782098565513</v>
       </c>
       <c r="DG207">
         <v>0.02185101994777275</v>
@@ -70851,19 +70851,19 @@
         <v>44469</v>
       </c>
       <c r="B208">
-        <v>-2.397601169835892</v>
+        <v>-3.978309616519428</v>
       </c>
       <c r="C208">
-        <v>-0.2311178934381568</v>
+        <v>-1.731784205539412</v>
       </c>
       <c r="D208">
-        <v>0.4457314728486525</v>
+        <v>0.1125882280211566</v>
       </c>
       <c r="E208">
         <v>-0.3880361512990903</v>
       </c>
       <c r="F208">
-        <v>-2.455296491385455</v>
+        <v>-3.702861693241494</v>
       </c>
       <c r="G208">
         <v>0.7861742687924276</v>
@@ -70908,7 +70908,7 @@
         <v>0.004676012656119388</v>
       </c>
       <c r="V208">
-        <v>2493.173753472064</v>
+        <v>2358.851294981999</v>
       </c>
       <c r="W208">
         <v>0.005585189534516033</v>
@@ -70941,13 +70941,13 @@
         <v>1579.605929107958</v>
       </c>
       <c r="AH208">
-        <v>3635.323360858083</v>
+        <v>3322.170295467558</v>
       </c>
       <c r="AI208">
-        <v>3635.323360858083</v>
+        <v>3322.170295467558</v>
       </c>
       <c r="AJ208">
-        <v>2055.717431750125</v>
+        <v>1742.5643663596</v>
       </c>
       <c r="AK208">
         <v>2259.463532269534</v>
@@ -70980,7 +70980,7 @@
         <v>0</v>
       </c>
       <c r="AU208">
-        <v>1168.218036502012</v>
+        <v>1692.806943814478</v>
       </c>
       <c r="AV208">
         <v>1716.762505499825</v>
@@ -71007,13 +71007,13 @@
         <v>227.795428187816</v>
       </c>
       <c r="BD208">
-        <v>1675.564518874369</v>
+        <v>837.8225461713772</v>
       </c>
       <c r="BF208">
         <v>0</v>
       </c>
       <c r="BG208">
-        <v>887.4993952481127</v>
+        <v>49.75742254512136</v>
       </c>
       <c r="BH208">
         <v>542.7010267697088</v>
@@ -71037,7 +71037,7 @@
         <v>-0.08714026301273878</v>
       </c>
       <c r="BO208">
-        <v>0.1448355845623009</v>
+        <v>-0.1883076602651949</v>
       </c>
       <c r="BP208">
         <v>-0.295344870827867</v>
@@ -71052,10 +71052,10 @@
         <v>-0.3008958882863516</v>
       </c>
       <c r="BT208">
-        <v>0.1448355845623009</v>
+        <v>-0.1883076602651949</v>
       </c>
       <c r="BU208">
-        <v>0.0576953215495622</v>
+        <v>-0.2754479232779337</v>
       </c>
       <c r="BV208">
         <v>-4.685736490809632</v>
@@ -71064,7 +71064,7 @@
         <v>1.224212646239494</v>
       </c>
       <c r="BX208">
-        <v>-136.1540293042121</v>
+        <v>-185.1109824701243</v>
       </c>
       <c r="BY208">
         <v>21.20865143156971</v>
@@ -71079,7 +71079,7 @@
         <v>-4.619339980277118</v>
       </c>
       <c r="CC208">
-        <v>-124.2833465691619</v>
+        <v>-162.6352681889896</v>
       </c>
       <c r="CD208">
         <v>3.425421371580796</v>
@@ -71094,7 +71094,7 @@
         <v>5.843552626516612</v>
       </c>
       <c r="CH208">
-        <v>-11.87068273505042</v>
+        <v>-22.47571428113501</v>
       </c>
       <c r="CI208">
         <v>17.78323005998732</v>
@@ -71112,13 +71112,13 @@
         <v>5.591765456750536</v>
       </c>
       <c r="CN208">
-        <v>-180.5659734272076</v>
+        <v>-250.1356623737442</v>
       </c>
       <c r="CO208">
-        <v>-176.7599042236143</v>
+        <v>-228.4054495007947</v>
       </c>
       <c r="CP208">
-        <v>-3.806069203593486</v>
+        <v>-21.73021287294974</v>
       </c>
       <c r="CQ208">
         <v>-1.438567267780156</v>
@@ -71148,25 +71148,25 @@
         <v>-0.001758030165696628</v>
       </c>
       <c r="CZ208">
-        <v>-136.9180648218494</v>
+        <v>-206.4877537683861</v>
       </c>
       <c r="DA208">
-        <v>-5.520685791729796</v>
+        <v>-23.44482946108605</v>
       </c>
       <c r="DB208">
-        <v>-131.397583122512</v>
+        <v>-183.0431283996924</v>
       </c>
       <c r="DC208">
-        <v>-0.09900023398747743</v>
+        <v>-0.4204266806709119</v>
       </c>
       <c r="DD208">
-        <v>-2.356299917304619</v>
+        <v>-3.282438672477224</v>
       </c>
       <c r="DE208">
         <v>0.05679963365448165</v>
       </c>
       <c r="DF208">
-        <v>-3.238016850415439</v>
+        <v>-4.48558205227148</v>
       </c>
       <c r="DG208">
         <v>-0.03445629621073282</v>
@@ -71186,19 +71186,19 @@
         <v>44561</v>
       </c>
       <c r="B209">
-        <v>-1.216208207223485</v>
+        <v>-2.102616373543336</v>
       </c>
       <c r="C209">
-        <v>-1.796111545663361</v>
+        <v>-3.177503117498747</v>
       </c>
       <c r="D209">
-        <v>-0.131837248348437</v>
+        <v>-0.2552882542189747</v>
       </c>
       <c r="E209">
         <v>0.1339023301591873</v>
       </c>
       <c r="F209">
-        <v>-1.218273289034235</v>
+        <v>-1.981230449483548</v>
       </c>
       <c r="G209">
         <v>0.7579976658312043</v>
@@ -71243,7 +71243,7 @@
         <v>0.004663517061526345</v>
       </c>
       <c r="V209">
-        <v>2519.163098219571</v>
+        <v>2376.542679694364</v>
       </c>
       <c r="W209">
         <v>0.005492326385298174</v>
@@ -71276,13 +71276,13 @@
         <v>1611.727987420069</v>
       </c>
       <c r="AH209">
-        <v>3720.635694323456</v>
+        <v>3414.460892969204</v>
       </c>
       <c r="AI209">
-        <v>3720.635694323456</v>
+        <v>3414.460892969204</v>
       </c>
       <c r="AJ209">
-        <v>2108.907706903387</v>
+        <v>1802.732905549135</v>
       </c>
       <c r="AK209">
         <v>2286.970123544343</v>
@@ -71315,7 +71315,7 @@
         <v>0</v>
       </c>
       <c r="AU209">
-        <v>1196.097752157208</v>
+        <v>1738.8476760207</v>
       </c>
       <c r="AV209">
         <v>1738.287995910195</v>
@@ -71342,13 +71342,13 @@
         <v>225.5280283306597</v>
       </c>
       <c r="BD209">
-        <v>1693.030940485406</v>
+        <v>844.1062152676626</v>
       </c>
       <c r="BF209">
         <v>0</v>
       </c>
       <c r="BG209">
-        <v>912.8099547461795</v>
+        <v>63.88522952843584</v>
       </c>
       <c r="BH209">
         <v>548.6821276341473</v>
@@ -71372,7 +71372,7 @@
         <v>-0.03119087694738151</v>
       </c>
       <c r="BO209">
-        <v>0.03325595875813183</v>
+        <v>-0.09019504711240592</v>
       </c>
       <c r="BP209">
         <v>0.1677451095129313</v>
@@ -71387,10 +71387,10 @@
         <v>0.1650932071065688</v>
       </c>
       <c r="BT209">
-        <v>0.03325595875813183</v>
+        <v>-0.09019504711240592</v>
       </c>
       <c r="BU209">
-        <v>0.002065081810750324</v>
+        <v>-0.1213859240597874</v>
       </c>
       <c r="BV209">
         <v>-4.212263970519189</v>
@@ -71399,7 +71399,7 @@
         <v>20.12016612092134</v>
       </c>
       <c r="BX209">
-        <v>37.57087379703444</v>
+        <v>46.9284840113005</v>
       </c>
       <c r="BY209">
         <v>29.71260993456235</v>
@@ -71414,7 +71414,7 @@
         <v>24.11836232441692</v>
       </c>
       <c r="CC209">
-        <v>19.00356074115484</v>
+        <v>33.17873538424692</v>
       </c>
       <c r="CD209">
         <v>22.8507732035805</v>
@@ -71429,7 +71429,7 @@
         <v>-3.998196203495638</v>
       </c>
       <c r="CH209">
-        <v>18.5673130558805</v>
+        <v>13.74974862705392</v>
       </c>
       <c r="CI209">
         <v>6.861836730982077</v>
@@ -71447,13 +71447,13 @@
         <v>3.214976377971463</v>
       </c>
       <c r="CN209">
-        <v>-112.3544768317978</v>
+        <v>-155.6120979166332</v>
       </c>
       <c r="CO209">
-        <v>-111.4445450138311</v>
+        <v>-142.5404880426834</v>
       </c>
       <c r="CP209">
-        <v>-0.9099318179666768</v>
+        <v>-13.07160987394981</v>
       </c>
       <c r="CQ209">
         <v>-2.175707245121323</v>
@@ -71483,25 +71483,25 @@
         <v>-0.001653516147618861</v>
       </c>
       <c r="CZ209">
-        <v>-69.07282223261883</v>
+        <v>-112.3304433174542</v>
       </c>
       <c r="DA209">
-        <v>-5.685407859843344</v>
+        <v>-17.84708591582647</v>
       </c>
       <c r="DB209">
-        <v>-63.39961846516754</v>
+        <v>-94.49556149401985</v>
       </c>
       <c r="DC209">
-        <v>-0.1002764952847335</v>
+        <v>-0.3147783361902764</v>
       </c>
       <c r="DD209">
-        <v>-1.118212043674111</v>
+        <v>-1.666667363217883</v>
       </c>
       <c r="DE209">
         <v>0.1128563522268825</v>
       </c>
       <c r="DF209">
-        <v>-1.98165434107535</v>
+        <v>-2.744611501524663</v>
       </c>
       <c r="DG209">
         <v>-0.06909888579533253</v>
@@ -71521,19 +71521,19 @@
         <v>44651</v>
       </c>
       <c r="B210">
-        <v>-0.2523076386576123</v>
+        <v>-0.731437487636884</v>
       </c>
       <c r="C210">
-        <v>-2.789086257347209</v>
+        <v>-3.94728494988759</v>
       </c>
       <c r="D210">
-        <v>-0.1470880820957318</v>
+        <v>-0.2052199120795587</v>
       </c>
       <c r="E210">
         <v>0.1484237608649566</v>
       </c>
       <c r="F210">
-        <v>-0.253643317426837</v>
+        <v>-0.6746413364222819</v>
       </c>
       <c r="G210">
         <v>0.7515398029101799</v>
@@ -71578,7 +71578,7 @@
         <v>0.005207433285125074</v>
       </c>
       <c r="V210">
-        <v>2547.804416920905</v>
+        <v>2400.308106491308</v>
       </c>
       <c r="W210">
         <v>0.006507269187908227</v>
@@ -71611,13 +71611,13 @@
         <v>1643.850045732179</v>
       </c>
       <c r="AH210">
-        <v>3785.17380547081</v>
+        <v>3480.314439027214</v>
       </c>
       <c r="AI210">
-        <v>3785.17380547081</v>
+        <v>3480.314439027214</v>
       </c>
       <c r="AJ210">
-        <v>2141.323759738631</v>
+        <v>1836.464393295034</v>
       </c>
       <c r="AK210">
         <v>2313.969670840344</v>
@@ -71650,7 +71650,7 @@
         <v>0</v>
       </c>
       <c r="AU210">
-        <v>1201.420957574891</v>
+        <v>1756.293963726893</v>
       </c>
       <c r="AV210">
         <v>1759.813486320566</v>
@@ -71677,13 +71677,13 @@
         <v>223.2606284735034</v>
       </c>
       <c r="BD210">
-        <v>1712.279650015938</v>
+        <v>852.5472774203392</v>
       </c>
       <c r="BF210">
         <v>0</v>
       </c>
       <c r="BG210">
-        <v>939.90280216374</v>
+        <v>80.17042956814157</v>
       </c>
       <c r="BH210">
         <v>554.1561845197784</v>
@@ -71707,7 +71707,7 @@
         <v>-0.02265522315017931</v>
       </c>
       <c r="BO210">
-        <v>0.02399090191940403</v>
+        <v>-0.03414092806442279</v>
       </c>
       <c r="BP210">
         <v>0.1739281042521934</v>
@@ -71722,10 +71722,10 @@
         <v>0.1710789840151359</v>
       </c>
       <c r="BT210">
-        <v>0.02399090191940403</v>
+        <v>-0.03414092806442279</v>
       </c>
       <c r="BU210">
-        <v>0.001335678769224719</v>
+        <v>-0.0567961512146021</v>
       </c>
       <c r="BV210">
         <v>-4.868051365520614</v>
@@ -71734,7 +71734,7 @@
         <v>18.81722232708216</v>
       </c>
       <c r="BX210">
-        <v>15.00699164941261</v>
+        <v>18.84990361982136</v>
       </c>
       <c r="BY210">
         <v>23.71565082192228</v>
@@ -71749,7 +71749,7 @@
         <v>22.94635905943505</v>
       </c>
       <c r="CC210">
-        <v>-4.55059744404366</v>
+        <v>3.092077000057543</v>
       </c>
       <c r="CD210">
         <v>20.22615792439774</v>
@@ -71764,7 +71764,7 @@
         <v>-4.12913673235289</v>
       </c>
       <c r="CH210">
-        <v>19.55758909345593</v>
+        <v>15.75782661976386</v>
       </c>
       <c r="CI210">
         <v>3.489492897524542</v>
@@ -71782,13 +71782,13 @@
         <v>0.8457027479468181</v>
       </c>
       <c r="CN210">
-        <v>-59.38081391522185</v>
+        <v>-83.5133354211295</v>
       </c>
       <c r="CO210">
-        <v>-64.14744369213905</v>
+        <v>-79.54095663832794</v>
       </c>
       <c r="CP210">
-        <v>4.766629776917154</v>
+        <v>-3.972378782801624</v>
       </c>
       <c r="CQ210">
         <v>-4.134535913751328</v>
@@ -71818,25 +71818,25 @@
         <v>-0.001615734722370344</v>
       </c>
       <c r="CZ210">
-        <v>-14.5393862594378</v>
+        <v>-38.67190776534544</v>
       </c>
       <c r="DA210">
-        <v>-0.6312390973937604</v>
+        <v>-9.370247657112538</v>
       </c>
       <c r="DB210">
-        <v>-13.90825850917095</v>
+        <v>-29.30177145535984</v>
       </c>
       <c r="DC210">
-        <v>-0.01101212774016134</v>
+        <v>-0.16346637048165</v>
       </c>
       <c r="DD210">
-        <v>-0.2426331321658252</v>
+        <v>-0.5111769084197818</v>
       </c>
       <c r="DE210">
         <v>0.1668831302760743</v>
       </c>
       <c r="DF210">
-        <v>-1.03591350860397</v>
+        <v>-1.456911527599415</v>
       </c>
       <c r="DG210">
         <v>-0.06402470397013232</v>
@@ -71856,19 +71856,19 @@
         <v>44742</v>
       </c>
       <c r="B211">
-        <v>-0.06953452836362482</v>
+        <v>-0.1989929386189175</v>
       </c>
       <c r="C211">
-        <v>-0.9839128860201543</v>
+        <v>-1.752839104079642</v>
       </c>
       <c r="D211">
-        <v>-0.2027821377446551</v>
+        <v>-0.2006453597222053</v>
       </c>
       <c r="E211">
         <v>0.1433373557277565</v>
       </c>
       <c r="F211">
-        <v>-0.0100897463467262</v>
+        <v>-0.1416849346244687</v>
       </c>
       <c r="G211">
         <v>0.6314276844675466</v>
@@ -71913,7 +71913,7 @@
         <v>0.005185091302505995</v>
       </c>
       <c r="V211">
-        <v>2574.642393333636</v>
+        <v>2425.59239123368</v>
       </c>
       <c r="W211">
         <v>0.007003781629901784</v>
@@ -71946,13 +71946,13 @@
         <v>1675.97210404429</v>
       </c>
       <c r="AH211">
-        <v>3834.153890447484</v>
+        <v>3528.521225407126</v>
       </c>
       <c r="AI211">
-        <v>3834.153890447484</v>
+        <v>3528.521225407126</v>
       </c>
       <c r="AJ211">
-        <v>2158.181786403195</v>
+        <v>1852.549121362836</v>
       </c>
       <c r="AK211">
         <v>2340.913720785433</v>
@@ -71985,7 +71985,7 @@
         <v>0</v>
       </c>
       <c r="AU211">
-        <v>1192.398092607149</v>
+        <v>1755.554020091888</v>
       </c>
       <c r="AV211">
         <v>1781.338976730937</v>
@@ -72012,13 +72012,13 @@
         <v>220.993228616347</v>
       </c>
       <c r="BD211">
-        <v>1730.316403761213</v>
+        <v>861.5278112361167</v>
       </c>
       <c r="BF211">
         <v>0</v>
       </c>
       <c r="BG211">
-        <v>965.7836937960445</v>
+        <v>96.99510127094811</v>
       </c>
       <c r="BH211">
         <v>559.5747440544956</v>
@@ -72042,7 +72042,7 @@
         <v>-0.02253475716463125</v>
       </c>
       <c r="BO211">
-        <v>-0.03691002485226737</v>
+        <v>-0.03477324682981756</v>
       </c>
       <c r="BP211">
         <v>0.1694003314511681</v>
@@ -72057,10 +72057,10 @@
         <v>0.1658721128923878</v>
       </c>
       <c r="BT211">
-        <v>-0.03691002485226737</v>
+        <v>-0.03477324682981756</v>
       </c>
       <c r="BU211">
-        <v>-0.05944478201689862</v>
+        <v>-0.0573080039944488</v>
       </c>
       <c r="BV211">
         <v>-5.445871083131351</v>
@@ -72069,7 +72069,7 @@
         <v>17.7283692487581</v>
       </c>
       <c r="BX211">
-        <v>-1.891584020223036</v>
+        <v>0.004491599984021377</v>
       </c>
       <c r="BY211">
         <v>20.1724907439675</v>
@@ -72084,7 +72084,7 @@
         <v>21.95065791993966</v>
       </c>
       <c r="CC211">
-        <v>-19.54260777665809</v>
+        <v>-16.11820108820689</v>
       </c>
       <c r="CD211">
         <v>18.0805892195749</v>
@@ -72099,7 +72099,7 @@
         <v>-4.222288671181389</v>
       </c>
       <c r="CH211">
-        <v>17.6510237564346</v>
+        <v>16.12269268819072</v>
       </c>
       <c r="CI211">
         <v>2.091901524393052</v>
@@ -72117,13 +72117,13 @@
         <v>-1.463865520615494</v>
       </c>
       <c r="CN211">
-        <v>-19.23024327254733</v>
+        <v>-26.84882322877915</v>
       </c>
       <c r="CO211">
-        <v>-29.10892298595949</v>
+        <v>-32.05859780090071</v>
       </c>
       <c r="CP211">
-        <v>9.878679713412138</v>
+        <v>5.209774572121536</v>
       </c>
       <c r="CQ211">
         <v>-5.232849262730014</v>
@@ -72153,25 +72153,25 @@
         <v>-0.001521451124215599</v>
       </c>
       <c r="CZ211">
-        <v>-0.584136398045132</v>
+        <v>-8.202716354276951</v>
       </c>
       <c r="DA211">
-        <v>-2.708874619434594</v>
+        <v>-7.377779760725196</v>
       </c>
       <c r="DB211">
-        <v>2.118626874262513</v>
+        <v>-0.8310479406787019</v>
       </c>
       <c r="DC211">
-        <v>-0.04679019812264429</v>
+        <v>-0.1274358636730186</v>
       </c>
       <c r="DD211">
-        <v>0.03659489091281476</v>
+        <v>-0.01435463181455338</v>
       </c>
       <c r="DE211">
         <v>0.2249840991169195</v>
       </c>
       <c r="DF211">
-        <v>-0.332162620674169</v>
+        <v>-0.4637578089519115</v>
       </c>
       <c r="DG211">
         <v>-0.443952277113755</v>
@@ -72191,19 +72191,19 @@
         <v>44834</v>
       </c>
       <c r="B212">
-        <v>0.4989955097734404</v>
+        <v>0.5533475792865887</v>
       </c>
       <c r="C212">
-        <v>-0.2597637161178211</v>
+        <v>-0.6199248051281374</v>
       </c>
       <c r="D212">
-        <v>-0.2730065554015365</v>
+        <v>-0.2672854350458368</v>
       </c>
       <c r="E212">
         <v>0.1720594666519386</v>
       </c>
       <c r="F212">
-        <v>0.5999425985230383</v>
+        <v>0.6485735476804869</v>
       </c>
       <c r="G212">
         <v>0.5968597306448676</v>
@@ -72248,7 +72248,7 @@
         <v>0.005265472378314096</v>
       </c>
       <c r="V212">
-        <v>2598.828395792541</v>
+        <v>2448.378228867123</v>
       </c>
       <c r="W212">
         <v>0.007232591441219238</v>
@@ -72281,13 +72281,13 @@
         <v>1708.0941623564</v>
       </c>
       <c r="AH212">
-        <v>3861.486981812534</v>
+        <v>3550.658510453061</v>
       </c>
       <c r="AI212">
-        <v>3861.486981812534</v>
+        <v>3550.658510453061</v>
       </c>
       <c r="AJ212">
-        <v>2153.392819456134</v>
+        <v>1842.564348096661</v>
       </c>
       <c r="AK212">
         <v>2368.104986202774</v>
@@ -72320,7 +72320,7 @@
         <v>0</v>
       </c>
       <c r="AU212">
-        <v>1163.510521947278</v>
+        <v>1729.631979650156</v>
       </c>
       <c r="AV212">
         <v>1802.864467141307</v>
@@ -72347,13 +72347,13 @@
         <v>218.7258287591907</v>
       </c>
       <c r="BD212">
-        <v>1746.570869586995</v>
+        <v>869.6209405246435</v>
       </c>
       <c r="BF212">
         <v>0</v>
       </c>
       <c r="BG212">
-        <v>989.8822975088557</v>
+        <v>112.932368446504</v>
       </c>
       <c r="BH212">
         <v>565.2405190614668</v>
@@ -72377,7 +72377,7 @@
         <v>-0.002122272931927648</v>
       </c>
       <c r="BO212">
-        <v>-0.09882481581767029</v>
+        <v>-0.09310369546197061</v>
       </c>
       <c r="BP212">
         <v>0.1768901240570047</v>
@@ -72392,10 +72392,10 @@
         <v>0.1741817395838662</v>
       </c>
       <c r="BT212">
-        <v>-0.09882481581767029</v>
+        <v>-0.09310369546197061</v>
       </c>
       <c r="BU212">
-        <v>-0.100947088749598</v>
+        <v>-0.09522596839389824</v>
       </c>
       <c r="BV212">
         <v>-5.662684549186451</v>
@@ -72404,7 +72404,7 @@
         <v>17.12632873721691</v>
       </c>
       <c r="BX212">
-        <v>-24.09925878560989</v>
+        <v>-26.56042245575782</v>
       </c>
       <c r="BY212">
         <v>19.41382228798011</v>
@@ -72419,7 +72419,7 @@
         <v>21.37106144270433</v>
       </c>
       <c r="CC212">
-        <v>-39.55653066177547</v>
+        <v>-41.62982774671627</v>
       </c>
       <c r="CD212">
         <v>16.97961679072569</v>
@@ -72434,7 +72434,7 @@
         <v>-4.244732705487422</v>
       </c>
       <c r="CH212">
-        <v>15.45727187616592</v>
+        <v>15.06940529095851</v>
       </c>
       <c r="CI212">
         <v>2.434205497254425</v>
@@ -72452,13 +72452,13 @@
         <v>-3.733729720316401</v>
       </c>
       <c r="CN212">
-        <v>5.982080094138178</v>
+        <v>8.825052774453315</v>
       </c>
       <c r="CO212">
-        <v>-10.04538940679753</v>
+        <v>-4.832373701389208</v>
       </c>
       <c r="CP212">
-        <v>16.02746950093582</v>
+        <v>13.65742647584258</v>
       </c>
       <c r="CQ212">
         <v>-7.362995870460061</v>
@@ -72488,25 +72488,25 @@
         <v>-0.001436899628799324</v>
       </c>
       <c r="CZ212">
-        <v>35.07273550915313</v>
+        <v>37.91570818946826</v>
       </c>
       <c r="DA212">
-        <v>5.273249353890029</v>
+        <v>2.903206328796792</v>
       </c>
       <c r="DB212">
-        <v>29.80544888621414</v>
+        <v>35.01846459162248</v>
       </c>
       <c r="DC212">
-        <v>0.09020245709682619</v>
+        <v>0.04966128600069766</v>
       </c>
       <c r="DD212">
-        <v>0.5098421379271731</v>
+        <v>0.5990142581807496</v>
       </c>
       <c r="DE212">
         <v>0.2840091733554377</v>
       </c>
       <c r="DF212">
-        <v>0.1023274809948481</v>
+        <v>0.1509584301522968</v>
       </c>
       <c r="DG212">
         <v>-0.2573048175276944</v>
@@ -72526,19 +72526,19 @@
         <v>44926</v>
       </c>
       <c r="B213">
-        <v>0.1706000086205728</v>
+        <v>0.1847359823484989</v>
       </c>
       <c r="C213">
-        <v>0.08693833784319327</v>
+        <v>-0.04808671615517868</v>
       </c>
       <c r="D213">
-        <v>-0.3169672729970025</v>
+        <v>-0.3076969134591389</v>
       </c>
       <c r="E213">
         <v>0.127103719689951</v>
       </c>
       <c r="F213">
-        <v>0.3604635619276244</v>
+        <v>0.3653291761176868</v>
       </c>
       <c r="G213">
         <v>0.588193073498175</v>
@@ -72583,7 +72583,7 @@
         <v>0.005415567668292987</v>
       </c>
       <c r="V213">
-        <v>2620.150266381312</v>
+        <v>2468.465743622921</v>
       </c>
       <c r="W213">
         <v>0.00740178586374185</v>
@@ -72616,13 +72616,13 @@
         <v>1710.060307471964</v>
       </c>
       <c r="AH213">
-        <v>3884.991679228026</v>
+        <v>3569.424339935817</v>
       </c>
       <c r="AI213">
-        <v>3884.991679228026</v>
+        <v>3569.424339935817</v>
       </c>
       <c r="AJ213">
-        <v>2174.931371756063</v>
+        <v>1859.364032463854</v>
       </c>
       <c r="AK213">
         <v>2396.571737144275</v>
@@ -72655,7 +72655,7 @@
         <v>0</v>
       </c>
       <c r="AU213">
-        <v>1162.952327464749</v>
+        <v>1731.529779708525</v>
       </c>
       <c r="AV213">
         <v>1825.582197049465</v>
@@ -72682,13 +72682,13 @@
         <v>216.4806822071707</v>
       </c>
       <c r="BD213">
-        <v>1760.900464459724</v>
+        <v>876.7556729237396</v>
       </c>
       <c r="BF213">
         <v>0</v>
       </c>
       <c r="BG213">
-        <v>1011.979044291314</v>
+        <v>127.8342527553297</v>
       </c>
       <c r="BH213">
         <v>570.9895400948094</v>
@@ -72712,7 +72712,7 @@
         <v>-0.02973030720604758</v>
       </c>
       <c r="BO213">
-        <v>-0.1601332461010039</v>
+        <v>-0.1508628865631403</v>
       </c>
       <c r="BP213">
         <v>0.1609373204915086</v>
@@ -72727,10 +72727,10 @@
         <v>0.1568340268959986</v>
       </c>
       <c r="BT213">
-        <v>-0.1601332461010039</v>
+        <v>-0.1508628865631403</v>
       </c>
       <c r="BU213">
-        <v>-0.1898635533070515</v>
+        <v>-0.1805931937691879</v>
       </c>
       <c r="BV213">
         <v>-5.468957317697004</v>
@@ -72739,7 +72739,7 @@
         <v>-13.08020453101108</v>
       </c>
       <c r="BX213">
-        <v>2.569632434725918</v>
+        <v>0.5688066797899864</v>
       </c>
       <c r="BY213">
         <v>18.32979161762978</v>
@@ -72754,7 +72754,7 @@
         <v>-8.908334400879085</v>
       </c>
       <c r="CC213">
-        <v>-10.80738713039614</v>
+        <v>-13.33827304535953</v>
       </c>
       <c r="CD213">
         <v>15.48590085504975</v>
@@ -72769,7 +72769,7 @@
         <v>-4.171870130131907</v>
       </c>
       <c r="CH213">
-        <v>13.37701956512251</v>
+        <v>13.90707972514993</v>
       </c>
       <c r="CI213">
         <v>2.843890762579576</v>
@@ -72787,13 +72787,13 @@
         <v>-3.772806353809562</v>
       </c>
       <c r="CN213">
-        <v>-1.893199212381239</v>
+        <v>-1.605874625136551</v>
       </c>
       <c r="CO213">
-        <v>-16.75285267789651</v>
+        <v>-15.29870059805066</v>
       </c>
       <c r="CP213">
-        <v>14.85965346551527</v>
+        <v>13.69282597291418</v>
       </c>
       <c r="CQ213">
         <v>-7.167326391407808</v>
@@ -72823,25 +72823,25 @@
         <v>-0.001375852243344461</v>
       </c>
       <c r="CZ213">
-        <v>21.28611930619927</v>
+        <v>21.57344389344396</v>
       </c>
       <c r="DA213">
-        <v>5.582222529077219</v>
+        <v>4.415395036476136</v>
       </c>
       <c r="DB213">
-        <v>15.70049652672737</v>
+        <v>17.15464860657322</v>
       </c>
       <c r="DC213">
-        <v>0.09453051480914069</v>
+        <v>0.07477121589289476</v>
       </c>
       <c r="DD213">
-        <v>0.2658754665726321</v>
+        <v>0.2905003796789418</v>
       </c>
       <c r="DE213">
         <v>0.154662421324491</v>
       </c>
       <c r="DF213">
-        <v>-0.03205982836593267</v>
+        <v>-0.02719421417587024</v>
       </c>
       <c r="DG213">
         <v>-0.2289591119520965</v>
@@ -72861,19 +72861,19 @@
         <v>45016</v>
       </c>
       <c r="B214">
-        <v>-0.02103222690165307</v>
+        <v>-0.02586288097359801</v>
       </c>
       <c r="C214">
-        <v>0.1447571907821831</v>
+        <v>0.1283069355106428</v>
       </c>
       <c r="D214">
-        <v>-0.3453755133412828</v>
+        <v>-0.3349863823792135</v>
       </c>
       <c r="E214">
         <v>0.1635914796725278</v>
       </c>
       <c r="F214">
-        <v>0.160751806767102</v>
+        <v>0.1455320217330877</v>
       </c>
       <c r="G214">
         <v>0.5825019287096166</v>
@@ -72918,7 +72918,7 @@
         <v>0.005224429633956973</v>
       </c>
       <c r="V214">
-        <v>2640.729584263011</v>
+        <v>2487.853693188218</v>
       </c>
       <c r="W214">
         <v>0.007453234698204803</v>
@@ -72951,13 +72951,13 @@
         <v>1712.026452587527</v>
       </c>
       <c r="AH214">
-        <v>3908.826621077364</v>
+        <v>3588.992964504271</v>
       </c>
       <c r="AI214">
-        <v>3908.826621077364</v>
+        <v>3588.992964504271</v>
       </c>
       <c r="AJ214">
-        <v>2196.800168489837</v>
+        <v>1876.966511916745</v>
       </c>
       <c r="AK214">
         <v>2425.068759368092</v>
@@ -72990,7 +72990,7 @@
         <v>0</v>
       </c>
       <c r="AU214">
-        <v>1163.223418033522</v>
+        <v>1734.478848120219</v>
       </c>
       <c r="AV214">
         <v>1848.299926957623</v>
@@ -73017,13 +73017,13 @@
         <v>214.2355356551508</v>
       </c>
       <c r="BD214">
-        <v>1774.731018714995</v>
+        <v>883.6419320552054</v>
       </c>
       <c r="BF214">
         <v>0</v>
       </c>
       <c r="BG214">
-        <v>1033.576750456315</v>
+        <v>142.4876637965252</v>
       </c>
       <c r="BH214">
         <v>576.7688324104688</v>
@@ -73047,7 +73047,7 @@
         <v>-0.00232548534268778</v>
       </c>
       <c r="BO214">
-        <v>-0.1794585483260672</v>
+        <v>-0.169069417363998</v>
       </c>
       <c r="BP214">
         <v>0.168975983939849</v>
@@ -73062,10 +73062,10 @@
         <v>0.1659169650152156</v>
       </c>
       <c r="BT214">
-        <v>-0.1794585483260672</v>
+        <v>-0.169069417363998</v>
       </c>
       <c r="BU214">
-        <v>-0.181784033668755</v>
+        <v>-0.1713949027066858</v>
       </c>
       <c r="BV214">
         <v>-5.505137792875757</v>
@@ -73074,7 +73074,7 @@
         <v>-13.19143127392567</v>
       </c>
       <c r="BX214">
-        <v>2.590711472545536</v>
+        <v>1.121509609433588</v>
       </c>
       <c r="BY214">
         <v>17.52547691674499</v>
@@ -73089,7 +73089,7 @@
         <v>-9.027450360879811</v>
       </c>
       <c r="CC214">
-        <v>-10.03704807631311</v>
+        <v>-12.39880838067756</v>
       </c>
       <c r="CD214">
         <v>14.87265620030212</v>
@@ -73104,7 +73104,7 @@
         <v>-4.16398091304589</v>
       </c>
       <c r="CH214">
-        <v>12.62775954885831</v>
+        <v>13.52031799011095</v>
       </c>
       <c r="CI214">
         <v>2.65282071644242</v>
@@ -73122,13 +73122,13 @@
         <v>-3.780646294465487</v>
       </c>
       <c r="CN214">
-        <v>-4.686862252176332</v>
+        <v>-5.5947632774738</v>
       </c>
       <c r="CO214">
-        <v>-17.98730407015713</v>
+        <v>-18.78414980871606</v>
       </c>
       <c r="CP214">
-        <v>13.3004418179808</v>
+        <v>13.18938653124228</v>
       </c>
       <c r="CQ214">
         <v>-9.864838197898107</v>
@@ -73158,25 +73158,25 @@
         <v>-0.001324387629134843</v>
       </c>
       <c r="CZ214">
-        <v>9.589276711602725</v>
+        <v>8.681375686305257</v>
       </c>
       <c r="DA214">
-        <v>4.806521963150458</v>
+        <v>4.695466676411935</v>
       </c>
       <c r="DB214">
-        <v>4.782713593964718</v>
+        <v>3.985867855405792</v>
       </c>
       <c r="DC214">
-        <v>0.08057511667249137</v>
+        <v>0.07871341859753068</v>
       </c>
       <c r="DD214">
-        <v>0.0801760001929184</v>
+        <v>0.0668179132338652</v>
       </c>
       <c r="DE214">
         <v>0.03237388270311757</v>
       </c>
       <c r="DF214">
-        <v>-0.078569176567223</v>
+        <v>-0.09378896160123722</v>
       </c>
       <c r="DG214">
         <v>-0.2101835898224012</v>
@@ -73196,19 +73196,19 @@
         <v>45107</v>
       </c>
       <c r="B215">
-        <v>-0.6699315964226906</v>
+        <v>-0.6911101911302666</v>
       </c>
       <c r="C215">
-        <v>-0.005342076232583374</v>
+        <v>0.00527762238280554</v>
       </c>
       <c r="D215">
-        <v>-0.2959729067653404</v>
+        <v>-0.2875140414930297</v>
       </c>
       <c r="E215">
         <v>0.1250816828138544</v>
       </c>
       <c r="F215">
-        <v>-0.4990403724712047</v>
+        <v>-0.5286778324510912</v>
       </c>
       <c r="G215">
         <v>0.02245133825777882</v>
@@ -73253,7 +73253,7 @@
         <v>0.005191015047577352</v>
       </c>
       <c r="V215">
-        <v>2663.642639224079</v>
+        <v>2509.440276209374</v>
       </c>
       <c r="W215">
         <v>0.007524245191184997</v>
@@ -73286,13 +73286,13 @@
         <v>1713.99259770309</v>
       </c>
       <c r="AH215">
-        <v>3934.79712361879</v>
+        <v>3610.061466566187</v>
       </c>
       <c r="AI215">
-        <v>3934.79712361879</v>
+        <v>3610.061466566187</v>
       </c>
       <c r="AJ215">
-        <v>2220.804525915701</v>
+        <v>1896.068868863097</v>
       </c>
       <c r="AK215">
         <v>2453.326133940234</v>
@@ -73325,7 +73325,7 @@
         <v>0</v>
       </c>
       <c r="AU215">
-        <v>1164.061655925231</v>
+        <v>1738.146878041396</v>
       </c>
       <c r="AV215">
         <v>1871.017656865781</v>
@@ -73352,13 +73352,13 @@
         <v>211.9903891031308</v>
       </c>
       <c r="BD215">
-        <v>1790.12998633942</v>
+        <v>891.3091071706519</v>
       </c>
       <c r="BF215">
         <v>0</v>
       </c>
       <c r="BG215">
-        <v>1056.74286999047</v>
+        <v>157.9219908217015</v>
       </c>
       <c r="BH215">
         <v>582.3084770744531</v>
@@ -73382,7 +73382,7 @@
         <v>-0.02477547203761411</v>
       </c>
       <c r="BO215">
-        <v>-0.1461157519138719</v>
+        <v>-0.1376568866415613</v>
       </c>
       <c r="BP215">
         <v>0.1541674421655023</v>
@@ -73397,10 +73397,10 @@
         <v>0.1498571548514685</v>
       </c>
       <c r="BT215">
-        <v>-0.1461157519138719</v>
+        <v>-0.1376568866415613</v>
       </c>
       <c r="BU215">
-        <v>-0.170891223951486</v>
+        <v>-0.1624323586791753</v>
       </c>
       <c r="BV215">
         <v>-5.771538790838349</v>
@@ -73409,7 +73409,7 @@
         <v>-13.53622126600135</v>
       </c>
       <c r="BX215">
-        <v>4.112374432527758</v>
+        <v>2.10646152097388</v>
       </c>
       <c r="BY215">
         <v>14.92462374262232</v>
@@ -73424,7 +73424,7 @@
         <v>-9.351176086446912</v>
       </c>
       <c r="CC215">
-        <v>-9.694727637368032</v>
+        <v>-12.03764246723426</v>
       </c>
       <c r="CD215">
         <v>13.75362414128176</v>
@@ -73439,7 +73439,7 @@
         <v>-4.18504517955418</v>
       </c>
       <c r="CH215">
-        <v>13.80710206989556</v>
+        <v>14.14410398820831</v>
       </c>
       <c r="CI215">
         <v>1.170999601341464</v>
@@ -73457,13 +73457,13 @@
         <v>-3.772266508849365</v>
       </c>
       <c r="CN215">
-        <v>-3.335971600307403</v>
+        <v>-5.121820045251082</v>
       </c>
       <c r="CO215">
-        <v>-15.77153103881687</v>
+        <v>-17.86602411899722</v>
       </c>
       <c r="CP215">
-        <v>12.43555943850952</v>
+        <v>12.74420407374624</v>
       </c>
       <c r="CQ215">
         <v>-11.13673625068334</v>
@@ -73493,25 +73493,25 @@
         <v>-0.001416958643680681</v>
       </c>
       <c r="CZ215">
-        <v>-30.07040663223616</v>
+        <v>-31.85625507717983</v>
       </c>
       <c r="DA215">
-        <v>4.724495537633268</v>
+        <v>5.033140172869985</v>
       </c>
       <c r="DB215">
-        <v>-34.79827665769034</v>
+        <v>-36.89276973787069</v>
       </c>
       <c r="DC215">
-        <v>0.07840645594434788</v>
+        <v>0.08352863921288575</v>
       </c>
       <c r="DD215">
-        <v>-0.5775028305068993</v>
+        <v>-0.6122624737553229</v>
       </c>
       <c r="DE215">
         <v>-0.08469372095360997</v>
       </c>
       <c r="DF215">
-        <v>-0.0553628865193356</v>
+        <v>-0.08500034649922218</v>
       </c>
       <c r="DG215">
         <v>-0.1966128268357177</v>
@@ -73531,19 +73531,19 @@
         <v>45199</v>
       </c>
       <c r="B216">
-        <v>-0.6946100846092922</v>
+        <v>-0.7109463283291764</v>
       </c>
       <c r="C216">
-        <v>-0.3037434748282665</v>
+        <v>-0.3107958545211357</v>
       </c>
       <c r="D216">
-        <v>-0.3175894827247411</v>
+        <v>-0.308388168623663</v>
       </c>
       <c r="E216">
         <v>0.1531278647018691</v>
       </c>
       <c r="F216">
-        <v>-0.5301484665864201</v>
+        <v>-0.5556860244073824</v>
       </c>
       <c r="G216">
         <v>-0.04242226592474306</v>
@@ -73588,7 +73588,7 @@
         <v>0.005296940975914266</v>
       </c>
       <c r="V216">
-        <v>2686.343536268841</v>
+        <v>2530.826983461816</v>
       </c>
       <c r="W216">
         <v>0.007621453444226045</v>
@@ -73621,13 +73621,13 @@
         <v>1715.958742818653</v>
       </c>
       <c r="AH216">
-        <v>3962.250035299843</v>
+        <v>3633.118946891692</v>
       </c>
       <c r="AI216">
-        <v>3962.250035299843</v>
+        <v>3633.118946891692</v>
       </c>
       <c r="AJ216">
-        <v>2246.29129248119</v>
+        <v>1917.160204073039</v>
       </c>
       <c r="AK216">
         <v>2481.979557789356</v>
@@ -73660,7 +73660,7 @@
         <v>0</v>
       </c>
       <c r="AU216">
-        <v>1166.524885990125</v>
+        <v>1743.874878588342</v>
       </c>
       <c r="AV216">
         <v>1893.735386773939</v>
@@ -73687,13 +73687,13 @@
         <v>209.7452425511109</v>
       </c>
       <c r="BD216">
-        <v>1805.386370930286</v>
+        <v>898.9052899239184</v>
       </c>
       <c r="BF216">
         <v>0</v>
       </c>
       <c r="BG216">
-        <v>1079.766406491065</v>
+        <v>173.2853254846975</v>
       </c>
       <c r="BH216">
         <v>588.2441710154166</v>
@@ -73717,7 +73717,7 @@
         <v>-0.005521040865990417</v>
       </c>
       <c r="BO216">
-        <v>-0.1589405771568816</v>
+        <v>-0.1497392630558035</v>
       </c>
       <c r="BP216">
         <v>0.1619888919146901</v>
@@ -73732,10 +73732,10 @@
         <v>0.1586489055678595</v>
       </c>
       <c r="BT216">
-        <v>-0.1589405771568816</v>
+        <v>-0.1497392630558035</v>
       </c>
       <c r="BU216">
-        <v>-0.1644616180228721</v>
+        <v>-0.155260303921794</v>
       </c>
       <c r="BV216">
         <v>-5.842931254962423</v>
@@ -73744,7 +73744,7 @@
         <v>-13.69170876464364</v>
       </c>
       <c r="BX216">
-        <v>5.199028561317846</v>
+        <v>3.770158131783546</v>
       </c>
       <c r="BY216">
         <v>15.30497133907647</v>
@@ -73759,7 +73759,7 @@
         <v>-9.509964271049739</v>
       </c>
       <c r="CC216">
-        <v>-8.170834131447236</v>
+        <v>-10.15051017426845</v>
       </c>
       <c r="CD216">
         <v>13.02910177529611</v>
@@ -73774,7 +73774,7 @@
         <v>-4.18174449359401</v>
       </c>
       <c r="CH216">
-        <v>13.36986269276531</v>
+        <v>13.92066830605191</v>
       </c>
       <c r="CI216">
         <v>2.275869563779906</v>
@@ -73792,13 +73792,13 @@
         <v>-3.758094161173347</v>
       </c>
       <c r="CN216">
-        <v>3.256143052751338</v>
+        <v>1.702560586945725</v>
       </c>
       <c r="CO216">
-        <v>-8.709749319493017</v>
+        <v>-10.78317766519646</v>
       </c>
       <c r="CP216">
-        <v>11.96589237224438</v>
+        <v>12.48573825214225</v>
       </c>
       <c r="CQ216">
         <v>-9.529920292706914</v>
@@ -73828,25 +73828,25 @@
         <v>-0.001276028221964248</v>
       </c>
       <c r="CZ216">
-        <v>-32.25168858105642</v>
+        <v>-33.80527104686203</v>
       </c>
       <c r="DA216">
-        <v>6.396238016872043</v>
+        <v>6.916083896769909</v>
       </c>
       <c r="DB216">
-        <v>-38.64792659792844</v>
+        <v>-40.72135494363187</v>
       </c>
       <c r="DC216">
-        <v>0.1051404104949164</v>
+        <v>0.1136855598565221</v>
       </c>
       <c r="DD216">
-        <v>-0.6352888770813362</v>
+        <v>-0.6693715842639034</v>
       </c>
       <c r="DE216">
         <v>-0.1978690313186345</v>
       </c>
       <c r="DF216">
-        <v>0.0535239958696638</v>
+        <v>0.02798643804870158</v>
       </c>
       <c r="DG216">
         <v>-0.1867297509101103</v>
@@ -73866,19 +73866,19 @@
         <v>45291</v>
       </c>
       <c r="B217">
-        <v>-0.6307238547188382</v>
+        <v>-0.6385110679305853</v>
       </c>
       <c r="C217">
-        <v>-0.5040744406631193</v>
+        <v>-0.5166076170909067</v>
       </c>
       <c r="D217">
-        <v>-0.1336332606608549</v>
+        <v>-0.1242078811297451</v>
       </c>
       <c r="E217">
         <v>-0.03548859017299725</v>
       </c>
       <c r="F217">
-        <v>-0.461602003884986</v>
+        <v>-0.478814596627843</v>
       </c>
       <c r="G217">
         <v>-0.04428627909312394</v>
@@ -73923,7 +73923,7 @@
         <v>0.00530104656996544</v>
       </c>
       <c r="V217">
-        <v>2709.256591229908</v>
+        <v>2552.413566482971</v>
       </c>
       <c r="W217">
         <v>0.007679180459608803</v>
@@ -73956,13 +73956,13 @@
         <v>1729.792370827459</v>
       </c>
       <c r="AH217">
-        <v>3996.033881071263</v>
+        <v>3664.092270532708</v>
       </c>
       <c r="AI217">
-        <v>3996.033881071263</v>
+        <v>3664.092270532708</v>
       </c>
       <c r="AJ217">
-        <v>2266.241510243804</v>
+        <v>1934.299899705249</v>
       </c>
       <c r="AK217">
         <v>2505.386810103341</v>
@@ -73995,7 +73995,7 @@
         <v>0</v>
       </c>
       <c r="AU217">
-        <v>1179.252780117297</v>
+        <v>1761.524043094089</v>
       </c>
       <c r="AV217">
         <v>1910.868915827757</v>
@@ -74022,13 +74022,13 @@
         <v>212.1087554928324</v>
       </c>
       <c r="BD217">
-        <v>1820.785338554711</v>
+        <v>906.5724650393648</v>
       </c>
       <c r="BF217">
         <v>0</v>
       </c>
       <c r="BG217">
-        <v>1086.988730126506</v>
+        <v>172.7758566111596</v>
       </c>
       <c r="BH217">
         <v>594.5178942755846</v>
@@ -74052,7 +74052,7 @@
         <v>-0.0063108386086199</v>
       </c>
       <c r="BO217">
-        <v>-0.1628110122252323</v>
+        <v>-0.1533856326941225</v>
       </c>
       <c r="BP217">
         <v>-0.02572960180935658</v>
@@ -74067,10 +74067,10 @@
         <v>-0.02917775156437735</v>
       </c>
       <c r="BT217">
-        <v>-0.1628110122252323</v>
+        <v>-0.1533856326941225</v>
       </c>
       <c r="BU217">
-        <v>-0.1691218508338522</v>
+        <v>-0.1596964713027424</v>
       </c>
       <c r="BV217">
         <v>-5.838512072503363</v>
@@ -74079,7 +74079,7 @@
         <v>-1.875740122106208</v>
       </c>
       <c r="BX217">
-        <v>-0.6142724913224811</v>
+        <v>-0.4116444205510561</v>
       </c>
       <c r="BY217">
         <v>4.333543433197519</v>
@@ -74094,7 +74094,7 @@
         <v>-2.319063990091081</v>
       </c>
       <c r="CC217">
-        <v>2.048517979825192</v>
+        <v>1.684227961297438</v>
       </c>
       <c r="CD217">
         <v>1.05183085893168</v>
@@ -74109,7 +74109,7 @@
         <v>0.4433238679850717</v>
       </c>
       <c r="CH217">
-        <v>-2.6627904711479</v>
+        <v>-2.095872381848693</v>
       </c>
       <c r="CI217">
         <v>3.281712574265839</v>
@@ -74127,13 +74127,13 @@
         <v>-2.719675511597027</v>
       </c>
       <c r="CN217">
-        <v>2.539764444390448</v>
+        <v>1.481959089368991</v>
       </c>
       <c r="CO217">
-        <v>-5.817170669693218</v>
+        <v>-7.403114938698638</v>
       </c>
       <c r="CP217">
-        <v>8.356935114083539</v>
+        <v>8.885074028067558</v>
       </c>
       <c r="CQ217">
         <v>-9.468103920690501</v>
@@ -74163,25 +74163,25 @@
         <v>-0.001345674833279869</v>
       </c>
       <c r="CZ217">
-        <v>-28.36789778813575</v>
+        <v>-29.42570314315721</v>
       </c>
       <c r="DA217">
-        <v>3.954464541997713</v>
+        <v>4.482603455981732</v>
       </c>
       <c r="DB217">
-        <v>-32.32236233013349</v>
+        <v>-33.90830659913892</v>
       </c>
       <c r="DC217">
-        <v>0.06434698723575126</v>
+        <v>0.07294085565862125</v>
       </c>
       <c r="DD217">
-        <v>-0.5259489911207377</v>
+        <v>-0.5517554522864638</v>
       </c>
       <c r="DE217">
         <v>-0.1548506814550975</v>
       </c>
       <c r="DF217">
-        <v>0.04132700863779842</v>
+        <v>0.02411441589494145</v>
       </c>
       <c r="DG217">
         <v>-0.1497272081351337</v>
@@ -74201,19 +74201,19 @@
         <v>45382</v>
       </c>
       <c r="B218">
-        <v>-0.559632771654773</v>
+        <v>-0.5636118526484968</v>
       </c>
       <c r="C218">
-        <v>-0.6387245768513994</v>
+        <v>-0.6510448600096315</v>
       </c>
       <c r="D218">
-        <v>-0.1218624688940768</v>
+        <v>-0.1131410748646612</v>
       </c>
       <c r="E218">
         <v>-0.03649719067007046</v>
       </c>
       <c r="F218">
-        <v>-0.4012731120906257</v>
+        <v>-0.4139735871137652</v>
       </c>
       <c r="G218">
         <v>-0.0459976098873584</v>
@@ -74258,7 +74258,7 @@
         <v>0.005328511369082856</v>
       </c>
       <c r="V218">
-        <v>2733.442593688812</v>
+        <v>2575.199404116414</v>
       </c>
       <c r="W218">
         <v>0.007777654808511558</v>
@@ -74291,13 +74291,13 @@
         <v>1743.625998836265</v>
       </c>
       <c r="AH218">
-        <v>4030.12766864282</v>
+        <v>3694.799957224239</v>
       </c>
       <c r="AI218">
-        <v>4030.12766864282</v>
+        <v>3694.799957224239</v>
       </c>
       <c r="AJ218">
-        <v>2286.501669806554</v>
+        <v>1951.173958387973</v>
       </c>
       <c r="AK218">
         <v>2529.114433488514</v>
@@ -74330,7 +74330,7 @@
         <v>0</v>
       </c>
       <c r="AU218">
-        <v>1191.43511784325</v>
+        <v>1778.481616477271</v>
       </c>
       <c r="AV218">
         <v>1928.002444881575</v>
@@ -74357,13 +74357,13 @@
         <v>214.4722684345538</v>
       </c>
       <c r="BD218">
-        <v>1837.039804380493</v>
+        <v>914.6655943278918</v>
       </c>
       <c r="BF218">
         <v>0</v>
       </c>
       <c r="BG218">
-        <v>1095.066551963304</v>
+        <v>172.6923419107023</v>
       </c>
       <c r="BH218">
         <v>601.1119886069395</v>
@@ -74387,7 +74387,7 @@
         <v>-0.007709069287382802</v>
       </c>
       <c r="BO218">
-        <v>-0.1506505902767644</v>
+        <v>-0.1419291962473488</v>
       </c>
       <c r="BP218">
         <v>-0.02518021376838114</v>
@@ -74402,10 +74402,10 @@
         <v>-0.02878812138268765</v>
       </c>
       <c r="BT218">
-        <v>-0.1506505902767644</v>
+        <v>-0.1419291962473488</v>
       </c>
       <c r="BU218">
-        <v>-0.1583596595641472</v>
+        <v>-0.1496382655347316</v>
       </c>
       <c r="BV218">
         <v>-6.112245768596495</v>
@@ -74414,7 +74414,7 @@
         <v>-2.385081185730087</v>
       </c>
       <c r="BX218">
-        <v>-0.9883513216213942</v>
+        <v>-1.262133901668449</v>
       </c>
       <c r="BY218">
         <v>3.652318511724843</v>
@@ -74429,7 +74429,7 @@
         <v>-2.759840863782301</v>
       </c>
       <c r="CC218">
-        <v>1.125543725629086</v>
+        <v>0.4413448022567081</v>
       </c>
       <c r="CD218">
         <v>-0.1147867645081533</v>
@@ -74444,7 +74444,7 @@
         <v>0.3747596780521576</v>
       </c>
       <c r="CH218">
-        <v>-2.11389504725048</v>
+        <v>-1.703478703924844</v>
       </c>
       <c r="CI218">
         <v>3.767105276233906</v>
@@ -74462,13 +74462,13 @@
         <v>-1.698458878599966</v>
       </c>
       <c r="CN218">
-        <v>1.734475315702889</v>
+        <v>0.9456392993710324</v>
       </c>
       <c r="CO218">
-        <v>-3.305587514256223</v>
+        <v>-4.514080472538427</v>
       </c>
       <c r="CP218">
-        <v>5.040062829959061</v>
+        <v>5.459719771909504</v>
       </c>
       <c r="CQ218">
         <v>-9.417359775157363</v>
@@ -74498,25 +74498,25 @@
         <v>-0.001412581459714877</v>
       </c>
       <c r="CZ218">
-        <v>-24.92337354515804</v>
+        <v>-25.7122095614899</v>
       </c>
       <c r="DA218">
-        <v>1.580374787195772</v>
+        <v>2.000031729146215</v>
       </c>
       <c r="DB218">
-        <v>-26.50374833235389</v>
+        <v>-27.71224129063609</v>
       </c>
       <c r="DC218">
-        <v>0.0254444651314392</v>
+        <v>0.03220105636102435</v>
       </c>
       <c r="DD218">
-        <v>-0.4267175772220662</v>
+        <v>-0.4461746434747893</v>
       </c>
       <c r="DE218">
         <v>-0.1140699341954202</v>
       </c>
       <c r="DF218">
-        <v>0.02792552567233351</v>
+        <v>0.015225050649194</v>
       </c>
       <c r="DG218">
         <v>-0.1175090326535096</v>
@@ -74536,19 +74536,19 @@
         <v>45473</v>
       </c>
       <c r="B219">
-        <v>-0.5032894509187553</v>
+        <v>-0.5055187398544909</v>
       </c>
       <c r="C219">
-        <v>-0.5970640404754155</v>
+        <v>-0.6046469971906876</v>
       </c>
       <c r="D219">
-        <v>-0.106528663935718</v>
+        <v>-0.0987316757413821</v>
       </c>
       <c r="E219">
         <v>-0.03158514326777189</v>
       </c>
       <c r="F219">
-        <v>-0.3651756437152655</v>
+        <v>-0.3752019208453369</v>
       </c>
       <c r="G219">
         <v>-0.04679768618606255</v>
@@ -74593,7 +74593,7 @@
         <v>0.005142112820335054</v>
       </c>
       <c r="V219">
-        <v>2758.7954646874</v>
+        <v>2599.084558477785</v>
       </c>
       <c r="W219">
         <v>0.007777406892435224</v>
@@ -74626,13 +74626,13 @@
         <v>1757.459626845072</v>
       </c>
       <c r="AH219">
-        <v>4062.461944536038</v>
+        <v>3722.67348015616</v>
       </c>
       <c r="AI219">
-        <v>4062.461944536038</v>
+        <v>3722.67348015616</v>
       </c>
       <c r="AJ219">
-        <v>2305.002317690966</v>
+        <v>1965.213853311088</v>
       </c>
       <c r="AK219">
         <v>2552.726016958139</v>
@@ -74665,7 +74665,7 @@
         <v>0</v>
       </c>
       <c r="AU219">
-        <v>1201.073737206288</v>
+        <v>1792.214568108853</v>
       </c>
       <c r="AV219">
         <v>1945.135973935392</v>
@@ -74692,13 +74692,13 @@
         <v>216.8357813762753</v>
       </c>
       <c r="BD219">
-        <v>1854.078476890852</v>
+        <v>923.1491816084088</v>
       </c>
       <c r="BF219">
         <v>0</v>
       </c>
       <c r="BG219">
-        <v>1103.928580484679</v>
+        <v>172.999285202235</v>
       </c>
       <c r="BH219">
         <v>607.5900430227463</v>
@@ -74722,7 +74722,7 @@
         <v>-0.003431109701805859</v>
       </c>
       <c r="BO219">
-        <v>-0.134682697501684</v>
+        <v>-0.1268857093073481</v>
       </c>
       <c r="BP219">
         <v>-0.02451842310614734</v>
@@ -74737,10 +74737,10 @@
         <v>-0.02815403356596603</v>
       </c>
       <c r="BT219">
-        <v>-0.134682697501684</v>
+        <v>-0.1268857093073481</v>
       </c>
       <c r="BU219">
-        <v>-0.1381138072034899</v>
+        <v>-0.130316819009154</v>
       </c>
       <c r="BV219">
         <v>-6.225060480074035</v>
@@ -74749,7 +74749,7 @@
         <v>-2.609845751771445</v>
       </c>
       <c r="BX219">
-        <v>-3.062479894179887</v>
+        <v>-4.360884721424782</v>
       </c>
       <c r="BY219">
         <v>2.331798346531286</v>
@@ -74764,7 +74764,7 @@
         <v>-2.950752285508088</v>
       </c>
       <c r="CC219">
-        <v>-1.597352176021104</v>
+        <v>-3.039232204706877</v>
       </c>
       <c r="CD219">
         <v>-0.6572426304637702</v>
@@ -74779,7 +74779,7 @@
         <v>0.3409065337366712</v>
       </c>
       <c r="CH219">
-        <v>-1.46512771815901</v>
+        <v>-1.321652516717876</v>
       </c>
       <c r="CI219">
         <v>2.989040976995057</v>
@@ -74797,13 +74797,13 @@
         <v>-0.6801197431095247</v>
       </c>
       <c r="CN219">
-        <v>0.1201330921936687</v>
+        <v>-0.5095136051686666</v>
       </c>
       <c r="CO219">
-        <v>-1.483678035453164</v>
+        <v>-2.489438163469765</v>
       </c>
       <c r="CP219">
-        <v>1.603811127646782</v>
+        <v>1.979924558301111</v>
       </c>
       <c r="CQ219">
         <v>-9.379595137681623</v>
@@ -74833,25 +74833,25 @@
         <v>-0.001453091879515886</v>
       </c>
       <c r="CZ219">
-        <v>-22.93290271549117</v>
+        <v>-23.5625494128535</v>
       </c>
       <c r="DA219">
-        <v>-0.8510439037247617</v>
+        <v>-0.474930473070432</v>
       </c>
       <c r="DB219">
-        <v>-22.08185881176651</v>
+        <v>-23.08761893978311</v>
       </c>
       <c r="DC219">
-        <v>-0.01355172998500142</v>
+        <v>-0.007562629265694158</v>
       </c>
       <c r="DD219">
-        <v>-0.3516239137302656</v>
+        <v>-0.3676392915796434</v>
       </c>
       <c r="DE219">
         <v>-0.07367134275350114</v>
       </c>
       <c r="DF219">
-        <v>0.001912957980835734</v>
+        <v>-0.00811331914923568</v>
       </c>
       <c r="DG219">
         <v>-0.0972621305397814</v>
@@ -74871,19 +74871,19 @@
         <v>45565</v>
       </c>
       <c r="B220">
-        <v>-0.4570071188233448</v>
+        <v>-0.4631739489024822</v>
       </c>
       <c r="C220">
-        <v>-0.5376632990289287</v>
+        <v>-0.5427039023340141</v>
       </c>
       <c r="D220">
-        <v>-0.08730695388637587</v>
+        <v>-0.08063665727845436</v>
       </c>
       <c r="E220">
         <v>-0.03435177827984635</v>
       </c>
       <c r="F220">
-        <v>-0.3353483866571225</v>
+        <v>-0.3481855133441815</v>
       </c>
       <c r="G220">
         <v>-0.047247428365297</v>
@@ -74928,7 +74928,7 @@
         <v>0.005230960708315413</v>
       </c>
       <c r="V220">
-        <v>2785.845599016438</v>
+        <v>2624.568718988872</v>
       </c>
       <c r="W220">
         <v>0.007860818824388716</v>
@@ -74961,13 +74961,13 @@
         <v>1771.293254853878</v>
       </c>
       <c r="AH220">
-        <v>4094.377663364527</v>
+        <v>3749.138347760344</v>
       </c>
       <c r="AI220">
-        <v>4094.377663364527</v>
+        <v>3749.138347760344</v>
       </c>
       <c r="AJ220">
-        <v>2323.084408510648</v>
+        <v>1977.845092906465</v>
       </c>
       <c r="AK220">
         <v>2576.282103076849</v>
@@ -75000,7 +75000,7 @@
         <v>0</v>
       </c>
       <c r="AU220">
-        <v>1209.153135236118</v>
+        <v>1803.970925515257</v>
       </c>
       <c r="AV220">
         <v>1962.26950298921</v>
@@ -75027,13 +75027,13 @@
         <v>219.1992943179969</v>
       </c>
       <c r="BD220">
-        <v>1872.257813669688</v>
+        <v>932.2007077863665</v>
       </c>
       <c r="BF220">
         <v>0</v>
       </c>
       <c r="BG220">
-        <v>1113.93127327453</v>
+        <v>173.8741673912084</v>
       </c>
       <c r="BH220">
         <v>614.0126000876389</v>
@@ -75057,7 +75057,7 @@
         <v>-0.006438147255712917</v>
       </c>
       <c r="BO220">
-        <v>-0.1152205849105093</v>
+        <v>-0.1085502883025878</v>
       </c>
       <c r="BP220">
         <v>-0.02413984851799057</v>
@@ -75072,10 +75072,10 @@
         <v>-0.02791363102413344</v>
       </c>
       <c r="BT220">
-        <v>-0.1152205849105093</v>
+        <v>-0.1085502883025878</v>
       </c>
       <c r="BU220">
-        <v>-0.1216587321662222</v>
+        <v>-0.1149884355583007</v>
       </c>
       <c r="BV220">
         <v>-6.228047553435545</v>
@@ -75084,7 +75084,7 @@
         <v>-2.711429894452067</v>
       </c>
       <c r="BX220">
-        <v>-3.617637715080036</v>
+        <v>-5.869655957874556</v>
       </c>
       <c r="BY220">
         <v>1.666507128065859</v>
@@ -75099,7 +75099,7 @@
         <v>-3.033609707622873</v>
       </c>
       <c r="CC220">
-        <v>-3.227737693016479</v>
+        <v>-5.115890098738646</v>
       </c>
       <c r="CD220">
         <v>-0.928746179420159</v>
@@ -75114,7 +75114,7 @@
         <v>0.3221798131710614</v>
       </c>
       <c r="CH220">
-        <v>-0.3899000220640119</v>
+        <v>-0.7537658591365641</v>
       </c>
       <c r="CI220">
         <v>2.595253307485564</v>
@@ -75132,13 +75132,13 @@
         <v>0.3332632259126164</v>
       </c>
       <c r="CN220">
-        <v>-1.863616819995855</v>
+        <v>-2.67847177534174</v>
       </c>
       <c r="CO220">
-        <v>-0.3714813368062437</v>
+        <v>-1.35664864647556</v>
       </c>
       <c r="CP220">
-        <v>-1.492135483189816</v>
+        <v>-1.321823128866295</v>
       </c>
       <c r="CQ220">
         <v>-9.343991078072115</v>
@@ -75168,25 +75168,25 @@
         <v>-0.00148286675515492</v>
       </c>
       <c r="CZ220">
-        <v>-21.28671791564364</v>
+        <v>-22.10157287098953</v>
       </c>
       <c r="DA220">
-        <v>-2.848586151310037</v>
+        <v>-2.678273796986516</v>
       </c>
       <c r="DB220">
-        <v>-18.43813176433368</v>
+        <v>-19.42329907400299</v>
       </c>
       <c r="DC220">
-        <v>-0.04487628266044782</v>
+        <v>-0.04219320237176715</v>
       </c>
       <c r="DD220">
-        <v>-0.2904721039966758</v>
+        <v>-0.305992310972414</v>
       </c>
       <c r="DE220">
         <v>-0.03396491993696614</v>
       </c>
       <c r="DF220">
-        <v>-0.02935919461183831</v>
+        <v>-0.04219632129889723</v>
       </c>
       <c r="DG220">
         <v>-0.07757273527558925</v>
@@ -75206,19 +75206,19 @@
         <v>45657</v>
       </c>
       <c r="B221">
-        <v>-0.292433513634578</v>
+        <v>-0.2673038422047105</v>
       </c>
       <c r="C221">
-        <v>-0.4530907137578637</v>
+        <v>-0.4499020959025454</v>
       </c>
       <c r="D221">
-        <v>-0.06391949707274136</v>
+        <v>-0.05723682191681605</v>
       </c>
       <c r="E221">
         <v>-0.05728657136565139</v>
       </c>
       <c r="F221">
-        <v>-0.1712274451961853</v>
+        <v>-0.152780448922243</v>
       </c>
       <c r="G221">
         <v>-0.04799676797363865</v>
@@ -75263,7 +75263,7 @@
         <v>0.005181221993932006</v>
       </c>
       <c r="V221">
-        <v>2813.213970219936</v>
+        <v>2650.352693153031</v>
       </c>
       <c r="W221">
         <v>0.00788354634122701</v>
@@ -75296,13 +75296,13 @@
         <v>1811.355221969221</v>
       </c>
       <c r="AH221">
-        <v>4169.020988554218</v>
+        <v>3829.60352577804</v>
       </c>
       <c r="AI221">
-        <v>4169.020988554218</v>
+        <v>3829.60352577804</v>
       </c>
       <c r="AJ221">
-        <v>2357.665766584998</v>
+        <v>2018.248303808819</v>
       </c>
       <c r="AK221">
         <v>2609.350466069382</v>
@@ -75335,7 +75335,7 @@
         <v>0</v>
       </c>
       <c r="AU221">
-        <v>1235.699195327095</v>
+        <v>1845.574035042185</v>
       </c>
       <c r="AV221">
         <v>1988.796746394442</v>
@@ -75362,13 +75362,13 @@
         <v>222.1933175719154</v>
       </c>
       <c r="BD221">
-        <v>1890.651024998862</v>
+        <v>941.3587225075943</v>
       </c>
       <c r="BF221">
         <v>0</v>
       </c>
       <c r="BG221">
-        <v>1121.966571257902</v>
+        <v>172.6742687666344</v>
       </c>
       <c r="BH221">
         <v>620.5537196749393</v>
@@ -75392,7 +75392,7 @@
         <v>-0.00577166042158347</v>
       </c>
       <c r="BO221">
-        <v>-0.1154344080168093</v>
+        <v>-0.108751732860884</v>
       </c>
       <c r="BP221">
         <v>-0.04768251802795158</v>
@@ -75407,10 +75407,10 @@
         <v>-0.05151491094406793</v>
       </c>
       <c r="BT221">
-        <v>-0.1154344080168093</v>
+        <v>-0.108751732860884</v>
       </c>
       <c r="BU221">
-        <v>-0.1212060684383928</v>
+        <v>-0.1145233932824674</v>
       </c>
       <c r="BV221">
         <v>-6.295475918495185</v>
@@ -75419,7 +75419,7 @@
         <v>23.328004707947</v>
       </c>
       <c r="BX221">
-        <v>12.63445173645459</v>
+        <v>21.71788855855129</v>
       </c>
       <c r="BY221">
         <v>5.422026162212205</v>
@@ -75434,7 +75434,7 @@
         <v>22.40482587281281</v>
       </c>
       <c r="CC221">
-        <v>15.12281153832919</v>
+        <v>24.56043092535674</v>
       </c>
       <c r="CD221">
         <v>2.687290185182974</v>
@@ -75449,7 +75449,7 @@
         <v>0.9231788351339389</v>
       </c>
       <c r="CH221">
-        <v>-2.488359801873912</v>
+        <v>-2.842542366804906</v>
       </c>
       <c r="CI221">
         <v>2.734735977029231</v>
@@ -75467,13 +75467,13 @@
         <v>0.4412305935211115</v>
       </c>
       <c r="CN221">
-        <v>1.117346131253987</v>
+        <v>2.300673144956289</v>
       </c>
       <c r="CO221">
-        <v>2.570234713857155</v>
+        <v>3.790497020437783</v>
       </c>
       <c r="CP221">
-        <v>-1.452888582603168</v>
+        <v>-1.489823875481443</v>
       </c>
       <c r="CQ221">
         <v>-8.202157616893651</v>
@@ -75503,25 +75503,25 @@
         <v>-0.00152230818443081</v>
       </c>
       <c r="CZ221">
-        <v>-10.98379694877965</v>
+        <v>-9.800469935077345</v>
       </c>
       <c r="DA221">
-        <v>-2.672972616659239</v>
+        <v>-2.709907909537514</v>
       </c>
       <c r="DB221">
-        <v>-8.310824332120404</v>
+        <v>-7.090562025539775</v>
       </c>
       <c r="DC221">
-        <v>-0.04166922188786229</v>
+        <v>-0.04224500964746963</v>
       </c>
       <c r="DD221">
-        <v>-0.129558223308323</v>
+        <v>-0.1105354392747725</v>
       </c>
       <c r="DE221">
         <v>0.0547936515312257</v>
       </c>
       <c r="DF221">
-        <v>0.01741841408272923</v>
+        <v>0.0358654103566715</v>
       </c>
       <c r="DG221">
         <v>-0.06757853518714486</v>
@@ -75541,19 +75541,19 @@
         <v>45747</v>
       </c>
       <c r="B222">
-        <v>-0.1382623367201508</v>
+        <v>-0.08528450216597984</v>
       </c>
       <c r="C222">
-        <v>-0.3477481050242082</v>
+        <v>-0.3303202582819161</v>
       </c>
       <c r="D222">
-        <v>-0.08290330628274006</v>
+        <v>-0.07587101817681705</v>
       </c>
       <c r="E222">
         <v>-0.02504924123758059</v>
       </c>
       <c r="F222">
-        <v>-0.03030978919983014</v>
+        <v>0.0156357572484178</v>
       </c>
       <c r="G222">
         <v>-0.04828278989300717</v>
@@ -75598,7 +75598,7 @@
         <v>0.005249029001187733</v>
       </c>
       <c r="V222">
-        <v>2840.370183507127</v>
+        <v>2675.936791548475</v>
       </c>
       <c r="W222">
         <v>0.007865304326518441</v>
@@ -75631,13 +75631,13 @@
         <v>1851.417189084562</v>
       </c>
       <c r="AH222">
-        <v>4238.389401687936</v>
+        <v>3903.491558848691</v>
       </c>
       <c r="AI222">
-        <v>4238.389401687936</v>
+        <v>3903.491558848691</v>
       </c>
       <c r="AJ222">
-        <v>2386.972212603373</v>
+        <v>2052.074369764129</v>
       </c>
       <c r="AK222">
         <v>2642.734154919381</v>
@@ -75670,7 +75670,7 @@
         <v>0</v>
       </c>
       <c r="AU222">
-        <v>1257.112926395658</v>
+        <v>1880.670991984249</v>
       </c>
       <c r="AV222">
         <v>2015.323989799674</v>
@@ -75697,13 +75697,13 @@
         <v>225.1873408258339</v>
       </c>
       <c r="BD222">
-        <v>1908.901653294477</v>
+        <v>950.4457448666419</v>
       </c>
       <c r="BF222">
         <v>0</v>
       </c>
       <c r="BG222">
-        <v>1129.859286207716</v>
+        <v>171.4033777798804</v>
       </c>
       <c r="BH222">
         <v>627.4101651197068</v>
@@ -75727,7 +75727,7 @@
         <v>0.01352096354680461</v>
       </c>
       <c r="BO222">
-        <v>-0.1214735110671253</v>
+        <v>-0.1144412229612023</v>
       </c>
       <c r="BP222">
         <v>-0.0358125059200893</v>
@@ -75742,10 +75742,10 @@
         <v>-0.0385702047843852</v>
       </c>
       <c r="BT222">
-        <v>-0.1214735110671253</v>
+        <v>-0.1144412229612023</v>
       </c>
       <c r="BU222">
-        <v>-0.1079525475203207</v>
+        <v>-0.1009202594143976</v>
       </c>
       <c r="BV222">
         <v>-6.260065308553976</v>
@@ -75754,7 +75754,7 @@
         <v>23.05954166178208</v>
       </c>
       <c r="BX222">
-        <v>7.176034515108313</v>
+        <v>14.88162263679988</v>
       </c>
       <c r="BY222">
         <v>6.363293300623809</v>
@@ -75769,7 +75769,7 @@
         <v>22.151153115223</v>
       </c>
       <c r="CC222">
-        <v>9.814745294402201</v>
+        <v>17.77333396119116</v>
       </c>
       <c r="CD222">
         <v>2.552837037364952</v>
@@ -75784,7 +75784,7 @@
         <v>0.9083885465591379</v>
       </c>
       <c r="CH222">
-        <v>-2.638710779293433</v>
+        <v>-2.891711324390997</v>
       </c>
       <c r="CI222">
         <v>3.810456263259312</v>
@@ -75802,13 +75802,13 @@
         <v>0.5612970889351822</v>
       </c>
       <c r="CN222">
-        <v>2.954332944518171</v>
+        <v>5.933018366111662</v>
       </c>
       <c r="CO222">
-        <v>4.525305066831106</v>
+        <v>7.690194581198035</v>
       </c>
       <c r="CP222">
-        <v>-1.570972122312833</v>
+        <v>-1.757176215086327</v>
       </c>
       <c r="CQ222">
         <v>-7.081976192988487</v>
@@ -75838,25 +75838,25 @@
         <v>-0.00154769380835173</v>
       </c>
       <c r="CZ222">
-        <v>-1.965007148686305</v>
+        <v>1.013678272907186</v>
       </c>
       <c r="DA222">
-        <v>-2.813901056970914</v>
+        <v>-3.000105149744408</v>
       </c>
       <c r="DB222">
-        <v>0.8488939082846283</v>
+        <v>4.013783422651557</v>
       </c>
       <c r="DC222">
-        <v>-0.04340378503100456</v>
+        <v>-0.04627594089256638</v>
       </c>
       <c r="DD222">
-        <v>0.01309399583117473</v>
+        <v>0.06191169814098359</v>
       </c>
       <c r="DE222">
         <v>0.1425235283134056</v>
       </c>
       <c r="DF222">
-        <v>0.04556991501752255</v>
+        <v>0.09151546146577048</v>
       </c>
       <c r="DG222">
         <v>-0.06088256751286841</v>
@@ -75876,19 +75876,19 @@
         <v>45838</v>
       </c>
       <c r="B223">
-        <v>-0.01935582558395366</v>
+        <v>0.05812151651325217</v>
       </c>
       <c r="C223">
-        <v>-0.2267646986905077</v>
+        <v>-0.1894101941899803</v>
       </c>
       <c r="D223">
-        <v>-0.06128750192252752</v>
+        <v>-0.05486731123815808</v>
       </c>
       <c r="E223">
         <v>-0.05924776168754323</v>
       </c>
       <c r="F223">
-        <v>0.1011794380261171</v>
+        <v>0.1722365894389535</v>
       </c>
       <c r="G223">
         <v>-0.04833708305344132</v>
@@ -75933,7 +75933,7 @@
         <v>0.005275288895317365</v>
       </c>
       <c r="V223">
-        <v>2868.375028459542</v>
+        <v>2702.320393018776</v>
       </c>
       <c r="W223">
         <v>0.007876640045119343</v>
@@ -75966,13 +75966,13 @@
         <v>1891.479156199904</v>
       </c>
       <c r="AH223">
-        <v>4303.781595695456</v>
+        <v>3971.899987733926</v>
       </c>
       <c r="AI223">
-        <v>4303.781595695456</v>
+        <v>3971.899987733926</v>
       </c>
       <c r="AJ223">
-        <v>2412.302439495552</v>
+        <v>2080.420831534022</v>
       </c>
       <c r="AK223">
         <v>2676.198567188892</v>
@@ -76005,7 +76005,7 @@
         <v>0</v>
       </c>
       <c r="AU223">
-        <v>1273.980106203785</v>
+        <v>1910.004375292176</v>
       </c>
       <c r="AV223">
         <v>2041.851233204906</v>
@@ -76032,13 +76032,13 @@
         <v>228.1813640797525</v>
       </c>
       <c r="BD223">
-        <v>1927.72261372433</v>
+        <v>959.8167366744098</v>
       </c>
       <c r="BF223">
         <v>0</v>
       </c>
       <c r="BG223">
-        <v>1138.322333291767</v>
+        <v>170.4164562418464</v>
       </c>
       <c r="BH223">
         <v>634.347333983986</v>
@@ -76062,7 +76062,7 @@
         <v>-0.009634928981496703</v>
       </c>
       <c r="BO223">
-        <v>-0.110900334628574</v>
+        <v>-0.1044801439442046</v>
       </c>
       <c r="BP223">
         <v>-0.0457271264468659</v>
@@ -76077,10 +76077,10 @@
         <v>-0.04961283270604652</v>
       </c>
       <c r="BT223">
-        <v>-0.110900334628574</v>
+        <v>-0.1044801439442046</v>
       </c>
       <c r="BU223">
-        <v>-0.1205352636100707</v>
+        <v>-0.1141150729257013</v>
       </c>
       <c r="BV223">
         <v>-6.361843524963888</v>
@@ -76089,7 +76089,7 @@
         <v>22.66353770009437</v>
       </c>
       <c r="BX223">
-        <v>2.898995399902105</v>
+        <v>9.062385070339133</v>
       </c>
       <c r="BY223">
         <v>5.983879957137106</v>
@@ -76104,7 +76104,7 @@
         <v>21.78568041766243</v>
       </c>
       <c r="CC223">
-        <v>5.053640079836669</v>
+        <v>11.6600454453137</v>
       </c>
       <c r="CD223">
         <v>2.13795888285631</v>
@@ -76119,7 +76119,7 @@
         <v>0.8778572824323589</v>
       </c>
       <c r="CH223">
-        <v>-2.1546446799357</v>
+        <v>-2.597660374974794</v>
       </c>
       <c r="CI223">
         <v>3.845921074280341</v>
@@ -76137,13 +76137,13 @@
         <v>0.6821110073917119</v>
       </c>
       <c r="CN223">
-        <v>4.29566488568662</v>
+        <v>8.953254069258543</v>
       </c>
       <c r="CO223">
-        <v>6.021778324399105</v>
+        <v>10.99753205245266</v>
       </c>
       <c r="CP223">
-        <v>-1.726113438712588</v>
+        <v>-2.044277983194134</v>
       </c>
       <c r="CQ223">
         <v>-5.977384188572709</v>
@@ -76173,25 +76173,25 @@
         <v>-0.001566553729940651</v>
       </c>
       <c r="CZ223">
-        <v>6.632017281587753</v>
+        <v>11.28960646515968</v>
       </c>
       <c r="DA223">
-        <v>-3.078231938146324</v>
+        <v>-3.39639648262787</v>
       </c>
       <c r="DB223">
-        <v>9.710249219734084</v>
+        <v>14.68600294778764</v>
       </c>
       <c r="DC223">
-        <v>-0.0469621480752725</v>
+        <v>-0.05181613268412615</v>
       </c>
       <c r="DD223">
-        <v>0.1481415861013897</v>
+        <v>0.2240527221230811</v>
       </c>
       <c r="DE223">
         <v>0.2277206081870186</v>
       </c>
       <c r="DF223">
-        <v>0.06553555888476852</v>
+        <v>0.1365927102976049</v>
       </c>
       <c r="DG223">
         <v>-0.05254742688492364</v>
@@ -76211,19 +76211,19 @@
         <v>45930</v>
       </c>
       <c r="B224">
-        <v>0.1059261642749525</v>
+        <v>0.2047767174390268</v>
       </c>
       <c r="C224">
-        <v>-0.08603137791593343</v>
+        <v>-0.02242252760460312</v>
       </c>
       <c r="D224">
-        <v>-0.05102975644904416</v>
+        <v>-0.04526669706578193</v>
       </c>
       <c r="E224">
         <v>-0.05983643993807933</v>
       </c>
       <c r="F224">
-        <v>0.216792360662076</v>
+        <v>0.309879854442888</v>
       </c>
       <c r="G224">
         <v>-0.04829874930139742</v>
@@ -76268,7 +76268,7 @@
         <v>0.005315753708131643</v>
       </c>
       <c r="V224">
-        <v>2897.334584035336</v>
+        <v>2729.603435448293</v>
       </c>
       <c r="W224">
         <v>0.007869746767241503</v>
@@ -76301,13 +76301,13 @@
         <v>1931.541123315246</v>
       </c>
       <c r="AH224">
-        <v>4364.779587420702</v>
+        <v>4034.244064732651</v>
       </c>
       <c r="AI224">
-        <v>4364.779587420702</v>
+        <v>4034.244064732651</v>
       </c>
       <c r="AJ224">
-        <v>2433.238464105456</v>
+        <v>2102.702941417404</v>
       </c>
       <c r="AK224">
         <v>2709.731089843617</v>
@@ -76340,7 +76340,7 @@
         <v>0</v>
       </c>
       <c r="AU224">
-        <v>1285.81146007862</v>
+        <v>1932.953941083782</v>
       </c>
       <c r="AV224">
         <v>2068.378476610138</v>
@@ -76367,13 +76367,13 @@
         <v>231.175387333671</v>
       </c>
       <c r="BD224">
-        <v>1947.185197805201</v>
+        <v>969.507194111988</v>
       </c>
       <c r="BF224">
         <v>0</v>
       </c>
       <c r="BG224">
-        <v>1147.427004026836</v>
+        <v>169.7490003336229</v>
       </c>
       <c r="BH224">
         <v>641.3526132334781</v>
@@ -76397,7 +76397,7 @@
         <v>-0.01131693912845891</v>
       </c>
       <c r="BO224">
-        <v>-0.09954925725866458</v>
+        <v>-0.09378619787540235</v>
       </c>
       <c r="BP224">
         <v>-0.04461760382006943</v>
@@ -76412,10 +76412,10 @@
         <v>-0.04851950080962042</v>
       </c>
       <c r="BT224">
-        <v>-0.09954925725866458</v>
+        <v>-0.09378619787540235</v>
       </c>
       <c r="BU224">
-        <v>-0.1108661963871235</v>
+        <v>-0.1051031370038613</v>
       </c>
       <c r="BV224">
         <v>-6.414713517165637</v>
@@ -76424,7 +76424,7 @@
         <v>22.28240842351352</v>
       </c>
       <c r="BX224">
-        <v>-1.739177844677215</v>
+        <v>2.726533943399318</v>
       </c>
       <c r="BY224">
         <v>5.606683410862388</v>
@@ -76439,7 +76439,7 @@
         <v>21.4332483269493</v>
       </c>
       <c r="CC224">
-        <v>-0.143826499861234</v>
+        <v>4.995873422939894</v>
       </c>
       <c r="CD224">
         <v>1.755742531122905</v>
@@ -76454,7 +76454,7 @@
         <v>0.8491600965638213</v>
       </c>
       <c r="CH224">
-        <v>-1.595351344815754</v>
+        <v>-2.269339479540577</v>
       </c>
       <c r="CI224">
         <v>3.850940879740392</v>
@@ -76472,13 +76472,13 @@
         <v>0.8006815711550829</v>
       </c>
       <c r="CN224">
-        <v>4.718318356527255</v>
+        <v>10.88739679704516</v>
       </c>
       <c r="CO224">
-        <v>6.715658342859036</v>
+        <v>13.27267884483034</v>
       </c>
       <c r="CP224">
-        <v>-1.99733998633173</v>
+        <v>-2.385282047785036</v>
       </c>
       <c r="CQ224">
         <v>-4.883244725125099</v>
@@ -76508,25 +76508,25 @@
         <v>-0.001582618758655738</v>
       </c>
       <c r="CZ224">
-        <v>14.36722618592052</v>
+        <v>20.53630462643843</v>
       </c>
       <c r="DA224">
-        <v>-3.330113648780761</v>
+        <v>-3.718055710234068</v>
       </c>
       <c r="DB224">
-        <v>17.6973398347012</v>
+        <v>24.25436033667251</v>
       </c>
       <c r="DC224">
-        <v>-0.05024930977279839</v>
+        <v>-0.05610311023603554</v>
       </c>
       <c r="DD224">
-        <v>0.2670416704348733</v>
+        <v>0.3659829646789237</v>
       </c>
       <c r="DE224">
         <v>0.3100870493375354</v>
       </c>
       <c r="DF224">
-        <v>0.07119644123575916</v>
+        <v>0.1642839350165712</v>
       </c>
       <c r="DG224">
         <v>-0.04250730473289591</v>
@@ -76546,19 +76546,19 @@
         <v>46022</v>
       </c>
       <c r="B225">
-        <v>0.005791569593566331</v>
+        <v>0.0722737176454564</v>
       </c>
       <c r="C225">
-        <v>-0.01147510710889735</v>
+        <v>0.06247186235793861</v>
       </c>
       <c r="D225">
-        <v>-0.04010674867713598</v>
+        <v>-0.03475888848409577</v>
       </c>
       <c r="E225">
         <v>-0.06326971190488327</v>
       </c>
       <c r="F225">
-        <v>0.1091680301755856</v>
+        <v>0.1703023180344354</v>
       </c>
       <c r="G225">
         <v>-0.04833102934650729</v>
@@ -76603,7 +76603,7 @@
         <v>0.005280606422179535</v>
       </c>
       <c r="V225">
-        <v>2927.142771276354</v>
+        <v>2757.685980952667</v>
       </c>
       <c r="W225">
         <v>0.007918427008111628</v>
@@ -76636,13 +76636,13 @@
         <v>1962.342825885155</v>
       </c>
       <c r="AH225">
-        <v>4410.344849186245</v>
+        <v>4076.585344031395</v>
       </c>
       <c r="AI225">
-        <v>4410.344849186245</v>
+        <v>4076.585344031395</v>
       </c>
       <c r="AJ225">
-        <v>2448.00202330109</v>
+        <v>2114.242518146241</v>
       </c>
       <c r="AK225">
         <v>2743.668790671699</v>
@@ -76675,7 +76675,7 @@
         <v>0</v>
       </c>
       <c r="AU225">
-        <v>1291.320506480959</v>
+        <v>1945.297494348133</v>
       </c>
       <c r="AV225">
         <v>2095.250355624095</v>
@@ -76702,13 +76702,13 @@
         <v>234.2909560208819</v>
       </c>
       <c r="BD225">
-        <v>1967.218114020309</v>
+        <v>979.4816209982864</v>
       </c>
       <c r="BF225">
         <v>0</v>
       </c>
       <c r="BG225">
-        <v>1156.681516820131</v>
+        <v>168.9450237981079</v>
       </c>
       <c r="BH225">
         <v>648.4184350476039</v>
@@ -76732,7 +76732,7 @@
         <v>-0.01099922225501035</v>
       </c>
       <c r="BO225">
-        <v>-0.09237723832700889</v>
+        <v>-0.08702937813396869</v>
       </c>
       <c r="BP225">
         <v>-0.04828031240423335</v>
@@ -76747,10 +76747,10 @@
         <v>-0.05227048964987292</v>
       </c>
       <c r="BT225">
-        <v>-0.09237723832700889</v>
+        <v>-0.08702937813396869</v>
       </c>
       <c r="BU225">
-        <v>-0.1033764605820192</v>
+        <v>-0.09802860038897904</v>
       </c>
       <c r="BV225">
         <v>-6.421728928100265</v>
@@ -76759,7 +76759,7 @@
         <v>12.71713249318441</v>
       </c>
       <c r="BX225">
-        <v>-8.018286340207851</v>
+        <v>-8.147541622197423</v>
       </c>
       <c r="BY225">
         <v>11.85622262754623</v>
@@ -76774,7 +76774,7 @@
         <v>11.76600516411258</v>
       </c>
       <c r="CC225">
-        <v>-6.529707095870435</v>
+        <v>-5.754244696382784</v>
       </c>
       <c r="CD225">
         <v>7.937106746527206</v>
@@ -76789,7 +76789,7 @@
         <v>0.9511273290720794</v>
       </c>
       <c r="CH225">
-        <v>-1.48857924433787</v>
+        <v>-2.393296925814724</v>
       </c>
       <c r="CI225">
         <v>3.919115881018115</v>
@@ -76807,13 +76807,13 @@
         <v>0.8069699822911645</v>
       </c>
       <c r="CN225">
-        <v>0.07145228927820427</v>
+        <v>4.167675006376704</v>
       </c>
       <c r="CO225">
-        <v>1.84384165016412</v>
+        <v>6.451876829938942</v>
       </c>
       <c r="CP225">
-        <v>-1.77238936088612</v>
+        <v>-2.284201823562245</v>
       </c>
       <c r="CQ225">
         <v>-4.060285962698337</v>
@@ -76843,25 +76843,25 @@
         <v>-0.001601165480940467</v>
       </c>
       <c r="CZ225">
-        <v>7.314660575070302</v>
+        <v>11.4108832921688</v>
       </c>
       <c r="DA225">
-        <v>-3.143256638058429</v>
+        <v>-3.655069100734554</v>
       </c>
       <c r="DB225">
-        <v>10.45791721312858</v>
+        <v>15.0659523929034</v>
       </c>
       <c r="DC225">
-        <v>-0.0469116963106486</v>
+        <v>-0.05455026788840509</v>
       </c>
       <c r="DD225">
-        <v>0.1560797264862319</v>
+        <v>0.2248525859228412</v>
       </c>
       <c r="DE225">
         <v>0.2710685075672545</v>
       </c>
       <c r="DF225">
-        <v>0.001066393387906821</v>
+        <v>0.06220068124675669</v>
       </c>
       <c r="DG225">
         <v>-0.0540378935244468</v>
@@ -76881,19 +76881,19 @@
         <v>46112</v>
       </c>
       <c r="B226">
-        <v>-0.1284959425851541</v>
+        <v>-0.08670008486227136</v>
       </c>
       <c r="C226">
-        <v>-0.009033508575148182</v>
+        <v>0.06211796668386572</v>
       </c>
       <c r="D226">
-        <v>-0.06022281990089603</v>
+        <v>-0.05443444842384374</v>
       </c>
       <c r="E226">
         <v>-0.03200315398837832</v>
       </c>
       <c r="F226">
-        <v>-0.03626996869587978</v>
+        <v>-0.0002624824500492945</v>
       </c>
       <c r="G226">
         <v>-0.04833653581108185</v>
@@ -76938,7 +76938,7 @@
         <v>0.005349497728112329</v>
       </c>
       <c r="V226">
-        <v>2956.632721642913</v>
+        <v>2785.468712803969</v>
       </c>
       <c r="W226">
         <v>0.007907534504572267</v>
@@ -76971,13 +76971,13 @@
         <v>1993.144528455063</v>
       </c>
       <c r="AH226">
-        <v>4456.968626942526</v>
+        <v>4120.433119256813</v>
       </c>
       <c r="AI226">
-        <v>4456.968626942526</v>
+        <v>4120.433119256813</v>
       </c>
       <c r="AJ226">
-        <v>2463.824098487463</v>
+        <v>2127.28859080175</v>
       </c>
       <c r="AK226">
         <v>2812.162634329136</v>
@@ -77010,7 +77010,7 @@
         <v>0</v>
       </c>
       <c r="AU226">
-        <v>1298.101943424377</v>
+        <v>1959.254032082428</v>
       </c>
       <c r="AV226">
         <v>2156.620357509632</v>
@@ -77037,13 +77037,13 @@
         <v>237.406524708093</v>
       </c>
       <c r="BD226">
-        <v>1987.037155685078</v>
+        <v>989.3495593413147</v>
       </c>
       <c r="BF226">
         <v>0</v>
       </c>
       <c r="BG226">
-        <v>1165.722155063086</v>
+        <v>168.0345587193225</v>
       </c>
       <c r="BH226">
         <v>655.5422768195036</v>
@@ -77067,7 +77067,7 @@
         <v>0.007760516437582006</v>
       </c>
       <c r="BO226">
-        <v>-0.09998649032685636</v>
+        <v>-0.09419811884980407</v>
       </c>
       <c r="BP226">
         <v>-0.03681472188211115</v>
@@ -77082,10 +77082,10 @@
         <v>-0.03976367042596033</v>
       </c>
       <c r="BT226">
-        <v>-0.09998649032685636</v>
+        <v>-0.09419811884980407</v>
       </c>
       <c r="BU226">
-        <v>-0.09222597388927435</v>
+        <v>-0.08643760241222206</v>
       </c>
       <c r="BV226">
         <v>-6.45275899431158</v>
@@ -77094,7 +77094,7 @@
         <v>12.47462057391181</v>
       </c>
       <c r="BX226">
-        <v>-7.040766726669062</v>
+        <v>-6.69965957759905</v>
       </c>
       <c r="BY226">
         <v>46.0455737166094</v>
@@ -77109,7 +77109,7 @@
         <v>11.54718614401554</v>
       </c>
       <c r="CC226">
-        <v>-5.278706928085967</v>
+        <v>-4.211351288584865</v>
       </c>
       <c r="CD226">
         <v>42.10051388836837</v>
@@ -77124,7 +77124,7 @@
         <v>0.9274344298962944</v>
       </c>
       <c r="CH226">
-        <v>-1.762059798583095</v>
+        <v>-2.488308289013901</v>
       </c>
       <c r="CI226">
         <v>3.945059828240119</v>
@@ -77142,13 +77142,13 @@
         <v>0.8112553060420247</v>
       </c>
       <c r="CN226">
-        <v>-3.127327990121705</v>
+        <v>-0.688113491863055</v>
       </c>
       <c r="CO226">
-        <v>-1.552185099895718</v>
+        <v>1.505322648739337</v>
       </c>
       <c r="CP226">
-        <v>-1.575142890226295</v>
+        <v>-2.193436140602399</v>
       </c>
       <c r="CQ226">
         <v>-3.245575631893727</v>
@@ -77178,25 +77178,25 @@
         <v>-0.001618990055313038</v>
       </c>
       <c r="CZ226">
-        <v>-2.456995550602254</v>
+        <v>-0.01778105234360339</v>
       </c>
       <c r="DA226">
-        <v>-2.96014335264076</v>
+        <v>-3.578436603016864</v>
       </c>
       <c r="DB226">
-        <v>0.5031478020384663</v>
+        <v>3.560655550673522</v>
       </c>
       <c r="DC226">
-        <v>-0.04369739567061084</v>
+        <v>-0.0528245903985452</v>
       </c>
       <c r="DD226">
-        <v>0.007427426974730459</v>
+        <v>0.05256210794849975</v>
       </c>
       <c r="DE226">
         <v>0.2329575788285296</v>
       </c>
       <c r="DF226">
-        <v>-0.04616536170595004</v>
+        <v>-0.01015787546011954</v>
       </c>
       <c r="DG226">
         <v>-0.1268147262207873</v>
@@ -77216,19 +77216,19 @@
         <v>46203</v>
       </c>
       <c r="B227">
-        <v>-0.2376689823309311</v>
+        <v>-0.2164226799810804</v>
       </c>
       <c r="C227">
-        <v>-0.06361179776189255</v>
+        <v>-0.006518082439717431</v>
       </c>
       <c r="D227">
-        <v>-0.02709303322955661</v>
+        <v>-0.02262340175337374</v>
       </c>
       <c r="E227">
         <v>-0.06287395058809496</v>
       </c>
       <c r="F227">
-        <v>-0.1477019985132796</v>
+        <v>-0.1309253276396118</v>
       </c>
       <c r="G227">
         <v>-0.04819411003612165</v>
@@ -77273,7 +77273,7 @@
         <v>0.00529809740029008</v>
       </c>
       <c r="V227">
-        <v>2987.713856381768</v>
+        <v>2814.75051292063</v>
       </c>
       <c r="W227">
         <v>0.00785853090722477</v>
@@ -77306,13 +77306,13 @@
         <v>2023.946231024971</v>
       </c>
       <c r="AH227">
-        <v>4506.959292029467</v>
+        <v>4167.725851254363</v>
       </c>
       <c r="AI227">
-        <v>4506.959292029467</v>
+        <v>4167.725851254363</v>
       </c>
       <c r="AJ227">
-        <v>2483.013061004496</v>
+        <v>2143.779620229392</v>
       </c>
       <c r="AK227">
         <v>2880.701884910048</v>
@@ -77345,7 +77345,7 @@
         <v>0</v>
       </c>
       <c r="AU227">
-        <v>1307.180894946757</v>
+        <v>1976.123083872504</v>
       </c>
       <c r="AV227">
         <v>2217.990359395169</v>
@@ -77372,13 +77372,13 @@
         <v>240.522093395304</v>
       </c>
       <c r="BD227">
-        <v>2007.925570101544</v>
+        <v>999.7499404006935</v>
       </c>
       <c r="BF227">
         <v>0</v>
       </c>
       <c r="BG227">
-        <v>1175.832166057739</v>
+        <v>167.6565363568878</v>
       </c>
       <c r="BH227">
         <v>662.7115255148788</v>
@@ -77402,7 +77402,7 @@
         <v>-0.01275998939268212</v>
       </c>
       <c r="BO227">
-        <v>-0.07720699442496945</v>
+        <v>-0.07273736294878658</v>
       </c>
       <c r="BP227">
         <v>-0.04614567211556919</v>
@@ -77417,10 +77417,10 @@
         <v>-0.05011396119541284</v>
       </c>
       <c r="BT227">
-        <v>-0.07720699442496945</v>
+        <v>-0.07273736294878658</v>
       </c>
       <c r="BU227">
-        <v>-0.08996698381765157</v>
+        <v>-0.0854973523414687</v>
       </c>
       <c r="BV227">
         <v>-6.469562815145764</v>
@@ -77429,7 +77429,7 @@
         <v>12.28252563000024</v>
       </c>
       <c r="BX227">
-        <v>-3.703504023798814</v>
+        <v>-3.274538624687011</v>
       </c>
       <c r="BY227">
         <v>45.53276594963154</v>
@@ -77444,7 +77444,7 @@
         <v>11.37280472502016</v>
       </c>
       <c r="CC227">
-        <v>-2.9822809838995</v>
+        <v>-1.335233735814654</v>
       </c>
       <c r="CD227">
         <v>41.54962710693871</v>
@@ -77459,7 +77459,7 @@
         <v>0.9097209049802757</v>
       </c>
       <c r="CH227">
-        <v>-0.721223039899769</v>
+        <v>-1.939304888872698</v>
       </c>
       <c r="CI227">
         <v>3.983138842693279</v>
@@ -77477,13 +77477,13 @@
         <v>0.818424621115306</v>
       </c>
       <c r="CN227">
-        <v>-4.612890360454412</v>
+        <v>-3.463921323243937</v>
       </c>
       <c r="CO227">
-        <v>-3.360267339236356</v>
+        <v>-1.418615167014542</v>
       </c>
       <c r="CP227">
-        <v>-1.25262302121821</v>
+        <v>-2.045306156229427</v>
       </c>
       <c r="CQ227">
         <v>-2.443955577021033</v>
@@ -77513,25 +77513,25 @@
         <v>-0.001631954233971979</v>
       </c>
       <c r="CZ227">
-        <v>-10.1155362886823</v>
+        <v>-8.966567251471822</v>
       </c>
       <c r="DA227">
-        <v>-2.698472720070297</v>
+        <v>-3.491155855081514</v>
       </c>
       <c r="DB227">
-        <v>-7.417063568612054</v>
+        <v>-5.475411396390241</v>
       </c>
       <c r="DC227">
-        <v>-0.03940174819340875</v>
+        <v>-0.05097611062834202</v>
       </c>
       <c r="DD227">
-        <v>-0.1083002503198716</v>
+        <v>-0.07994921701126877</v>
       </c>
       <c r="DE227">
         <v>0.1963208789510687</v>
       </c>
       <c r="DF227">
-        <v>-0.06735511649778414</v>
+        <v>-0.05057844562411636</v>
       </c>
       <c r="DG227">
         <v>-0.1927882346853781</v>
@@ -77551,19 +77551,19 @@
         <v>46295</v>
       </c>
       <c r="B228">
-        <v>-0.2731305832364627</v>
+        <v>-0.2642465696146233</v>
       </c>
       <c r="C228">
-        <v>-0.1583759846397463</v>
+        <v>-0.1237739042031299</v>
       </c>
       <c r="D228">
-        <v>-0.03764439442394402</v>
+        <v>-0.03324402107510648</v>
       </c>
       <c r="E228">
         <v>-0.03099713767666431</v>
       </c>
       <c r="F228">
-        <v>-0.2044890511358544</v>
+        <v>-0.2000054108628525</v>
       </c>
       <c r="G228">
         <v>-0.04802409079599262</v>
@@ -77608,7 +77608,7 @@
         <v>0.005305132669470858</v>
       </c>
       <c r="V228">
-        <v>3019.325385911389</v>
+        <v>2844.532002459076</v>
       </c>
       <c r="W228">
         <v>0.007933469139841387</v>
@@ -77641,13 +77641,13 @@
         <v>2054.74793359488</v>
       </c>
       <c r="AH228">
-        <v>4559.092247759037</v>
+        <v>4217.459929611129</v>
       </c>
       <c r="AI228">
-        <v>4559.092247759037</v>
+        <v>4217.459929611129</v>
       </c>
       <c r="AJ228">
-        <v>2504.344314164157</v>
+        <v>2162.711996016249</v>
       </c>
       <c r="AK228">
         <v>2949.296632841875</v>
@@ -77680,7 +77680,7 @@
         <v>0</v>
       </c>
       <c r="AU228">
-        <v>1318.045679527868</v>
+        <v>1995.256001116345</v>
       </c>
       <c r="AV228">
         <v>2279.360361280707</v>
@@ -77707,13 +77707,13 @@
         <v>243.6376620825149</v>
       </c>
       <c r="BD228">
-        <v>2029.170442101908</v>
+        <v>1010.327802365522</v>
       </c>
       <c r="BF228">
         <v>0</v>
       </c>
       <c r="BG228">
-        <v>1186.298634636289</v>
+        <v>167.4559948999033</v>
       </c>
       <c r="BH228">
         <v>669.936271561168</v>
@@ -77737,7 +77737,7 @@
         <v>0.007369119431087626</v>
       </c>
       <c r="BO228">
-        <v>-0.07601065153169595</v>
+        <v>-0.07161027818285841</v>
       </c>
       <c r="BP228">
         <v>-0.03531485025732294</v>
@@ -77752,10 +77752,10 @@
         <v>-0.03836625710775193</v>
       </c>
       <c r="BT228">
-        <v>-0.07601065153169595</v>
+        <v>-0.07161027818285841</v>
       </c>
       <c r="BU228">
-        <v>-0.06864153210060833</v>
+        <v>-0.06424115875177078</v>
       </c>
       <c r="BV228">
         <v>-6.487278831334834</v>
@@ -77764,7 +77764,7 @@
         <v>12.08128092536049</v>
       </c>
       <c r="BX228">
-        <v>-1.635291473979123</v>
+        <v>-0.8964407046555607</v>
       </c>
       <c r="BY228">
         <v>45.02572270344808</v>
@@ -77779,7 +77779,7 @@
         <v>11.19041313887897</v>
       </c>
       <c r="CC228">
-        <v>-1.225940530053322</v>
+        <v>0.8548341680461817</v>
       </c>
       <c r="CD228">
         <v>40.98089855429407</v>
@@ -77794,7 +77794,7 @@
         <v>0.8908677864813797</v>
       </c>
       <c r="CH228">
-        <v>-0.409350943925574</v>
+        <v>-1.751274872701799</v>
       </c>
       <c r="CI228">
         <v>4.04482414915401</v>
@@ -77812,13 +77812,13 @@
         <v>0.8278088513467566</v>
       </c>
       <c r="CN228">
-        <v>-4.589515927047342</v>
+        <v>-4.279090619056285</v>
       </c>
       <c r="CO228">
-        <v>-3.603742996029575</v>
+        <v>-2.350348999365627</v>
       </c>
       <c r="CP228">
-        <v>-0.9857729310179195</v>
+        <v>-1.928741619690703</v>
       </c>
       <c r="CQ228">
         <v>-1.64967365855174</v>
@@ -77848,25 +77848,25 @@
         <v>-0.001643981705776353</v>
       </c>
       <c r="CZ228">
-        <v>-14.15782105934795</v>
+        <v>-13.8473957513569</v>
       </c>
       <c r="DA228">
-        <v>-2.518052762476742</v>
+        <v>-3.461021451149525</v>
       </c>
       <c r="DB228">
-        <v>-11.6397682968713</v>
+        <v>-10.38637430020735</v>
       </c>
       <c r="DC228">
-        <v>-0.03636959514818169</v>
+        <v>-0.04998940087882419</v>
       </c>
       <c r="DD228">
-        <v>-0.168119455987674</v>
+        <v>-0.1500160099840281</v>
       </c>
       <c r="DE228">
         <v>0.1610454813438691</v>
       </c>
       <c r="DF228">
-        <v>-0.0662888556904833</v>
+        <v>-0.06180521541748145</v>
       </c>
       <c r="DG228">
         <v>-0.227394458944038</v>
@@ -77886,19 +77886,19 @@
         <v>46387</v>
       </c>
       <c r="B229">
-        <v>-0.2977930665223728</v>
+        <v>-0.2873397052640327</v>
       </c>
       <c r="C229">
-        <v>-0.2342721436687311</v>
+        <v>-0.2136772599305022</v>
       </c>
       <c r="D229">
-        <v>-0.02116852663151274</v>
+        <v>-0.0168875205374413</v>
       </c>
       <c r="E229">
         <v>-0.06756282699193752</v>
       </c>
       <c r="F229">
-        <v>-0.2090617128989225</v>
+        <v>-0.2028893577346539</v>
       </c>
       <c r="G229">
         <v>-0.04785703041065226</v>
@@ -77943,7 +77943,7 @@
         <v>0.0053270255671658</v>
       </c>
       <c r="V229">
-        <v>3051.361231273621</v>
+        <v>2874.713243534951</v>
       </c>
       <c r="W229">
         <v>0.007921302453546053</v>
@@ -77976,13 +77976,13 @@
         <v>2087.506930232689</v>
       </c>
       <c r="AH229">
-        <v>4610.756931331006</v>
+        <v>4266.380873869613</v>
       </c>
       <c r="AI229">
-        <v>4610.756931331006</v>
+        <v>4266.380873869613</v>
       </c>
       <c r="AJ229">
-        <v>2523.250001098317</v>
+        <v>2178.873943636923</v>
       </c>
       <c r="AK229">
         <v>3017.959491158915</v>
@@ -78015,7 +78015,7 @@
         <v>0</v>
       </c>
       <c r="AU229">
-        <v>1326.616922493343</v>
+        <v>2011.893696146629</v>
       </c>
       <c r="AV229">
         <v>2340.730363166245</v>
@@ -78042,13 +78042,13 @@
         <v>246.8738224899409</v>
       </c>
       <c r="BD229">
-        <v>2050.700480169391</v>
+        <v>1021.047649054711</v>
       </c>
       <c r="BF229">
         <v>0</v>
       </c>
       <c r="BG229">
-        <v>1196.633078604974</v>
+        <v>166.9802474902943</v>
       </c>
       <c r="BH229">
         <v>677.2291279926702</v>
@@ -78072,7 +78072,7 @@
         <v>-0.01478261413585043</v>
       </c>
       <c r="BO229">
-        <v>-0.07394873948759982</v>
+        <v>-0.06966773339352839</v>
       </c>
       <c r="BP229">
         <v>-0.048676052063002</v>
@@ -78087,10 +78087,10 @@
         <v>-0.05278021285608708</v>
       </c>
       <c r="BT229">
-        <v>-0.07394873948759982</v>
+        <v>-0.06966773339352839</v>
       </c>
       <c r="BU229">
-        <v>-0.08873135362345026</v>
+        <v>-0.08445034752937883</v>
       </c>
       <c r="BV229">
         <v>-6.502975172978267</v>
@@ -78099,7 +78099,7 @@
         <v>13.78428637025991</v>
       </c>
       <c r="BX229">
-        <v>-4.220851846834648</v>
+        <v>-3.809764162369447</v>
       </c>
       <c r="BY229">
         <v>41.92545417711608</v>
@@ -78114,7 +78114,7 @@
         <v>12.79801460985163</v>
       </c>
       <c r="CC229">
-        <v>-3.600339971553012</v>
+        <v>-1.787632919571024</v>
       </c>
       <c r="CD229">
         <v>37.8390161703137</v>
@@ -78129,7 +78129,7 @@
         <v>0.9862717604080729</v>
       </c>
       <c r="CH229">
-        <v>-0.6205118752811813</v>
+        <v>-2.022131242798082</v>
       </c>
       <c r="CI229">
         <v>4.086438006803746</v>
@@ -78147,13 +78147,13 @@
         <v>0.8357163483973551</v>
       </c>
       <c r="CN229">
-        <v>-3.735093166038371</v>
+        <v>-3.303090690594991</v>
       </c>
       <c r="CO229">
-        <v>-2.944635393058155</v>
+        <v>-1.457861349582981</v>
       </c>
       <c r="CP229">
-        <v>-0.7904577729801645</v>
+        <v>-1.845229341011958</v>
       </c>
       <c r="CQ229">
         <v>-1.220269432549299</v>
@@ -78183,25 +78183,25 @@
         <v>-0.001656122829049902</v>
       </c>
       <c r="CZ229">
-        <v>-14.63220684635863</v>
+        <v>-14.20020437091525</v>
       </c>
       <c r="DA229">
-        <v>-2.403435293550325</v>
+        <v>-3.458206861582119</v>
       </c>
       <c r="DB229">
-        <v>-12.22877155280841</v>
+        <v>-10.74199750933323</v>
       </c>
       <c r="DC229">
-        <v>-0.03433974824080616</v>
+        <v>-0.04941008951230656</v>
       </c>
       <c r="DD229">
-        <v>-0.1747219646581178</v>
+        <v>-0.1534792682223488</v>
       </c>
       <c r="DE229">
         <v>0.1627393628356489</v>
       </c>
       <c r="DF229">
-        <v>-0.05336617936913374</v>
+        <v>-0.04719382420486516</v>
       </c>
       <c r="DG229">
         <v>-0.2531429280506347</v>
@@ -78221,19 +78221,19 @@
         <v>46477</v>
       </c>
       <c r="B230">
-        <v>-0.3084546483936688</v>
+        <v>-0.2968015602886593</v>
       </c>
       <c r="C230">
-        <v>-0.2792618201208598</v>
+        <v>-0.2662026287870992</v>
       </c>
       <c r="D230">
-        <v>-0.0297942227795559</v>
+        <v>-0.02510931265696181</v>
       </c>
       <c r="E230">
         <v>-0.06703380787014257</v>
       </c>
       <c r="F230">
-        <v>-0.2116266177439703</v>
+        <v>-0.2046584397615549</v>
       </c>
       <c r="G230">
         <v>-0.04759086422077765</v>
@@ -78278,7 +78278,7 @@
         <v>0.005348301242839471</v>
       </c>
       <c r="V230">
-        <v>3083.078839761395</v>
+        <v>2904.594670957755</v>
       </c>
       <c r="W230">
         <v>0.007859204547876475</v>
@@ -78311,13 +78311,13 @@
         <v>2120.265926870498</v>
       </c>
       <c r="AH230">
-        <v>4662.448577150051</v>
+        <v>4315.500633657341</v>
       </c>
       <c r="AI230">
-        <v>4662.448577150051</v>
+        <v>4315.500633657341</v>
       </c>
       <c r="AJ230">
-        <v>2542.182650279553</v>
+        <v>2195.234706786844</v>
       </c>
       <c r="AK230">
         <v>3084.266906276007</v>
@@ -78350,7 +78350,7 @@
         <v>0</v>
       </c>
       <c r="AU230">
-        <v>1335.429002256233</v>
+        <v>2028.836695249428</v>
       </c>
       <c r="AV230">
         <v>2399.674288859762</v>
@@ -78377,13 +78377,13 @@
         <v>250.1099828973671</v>
       </c>
       <c r="BD230">
-        <v>2072.016643686535</v>
+        <v>1031.66100720063</v>
       </c>
       <c r="BF230">
         <v>0</v>
       </c>
       <c r="BG230">
-        <v>1206.75364802332</v>
+        <v>166.3980115374151</v>
       </c>
       <c r="BH230">
         <v>684.592617416245</v>
@@ -78407,7 +78407,7 @@
         <v>-0.01590238126586233</v>
       </c>
       <c r="BO230">
-        <v>-0.08092564938383613</v>
+        <v>-0.07624073926124204</v>
       </c>
       <c r="BP230">
         <v>-0.04708551526938556</v>
@@ -78422,10 +78422,10 @@
         <v>-0.05113142660428023</v>
       </c>
       <c r="BT230">
-        <v>-0.08092564938383613</v>
+        <v>-0.07624073926124204</v>
       </c>
       <c r="BU230">
-        <v>-0.09682803064969847</v>
+        <v>-0.09214312052710438</v>
       </c>
       <c r="BV230">
         <v>-6.535533137689526</v>
@@ -78434,7 +78434,7 @@
         <v>13.45765535261262</v>
       </c>
       <c r="BX230">
-        <v>-4.397625182758475</v>
+        <v>-3.785368579984606</v>
       </c>
       <c r="BY230">
         <v>38.71057554757226</v>
@@ -78449,7 +78449,7 @@
         <v>12.50412013471259</v>
       </c>
       <c r="CC230">
-        <v>-3.453980581592759</v>
+        <v>-1.65921308460247</v>
       </c>
       <c r="CD230">
         <v>34.64089666943801</v>
@@ -78464,7 +78464,7 @@
         <v>0.9535352179001393</v>
       </c>
       <c r="CH230">
-        <v>-0.9436446011661701</v>
+        <v>-2.126155495382278</v>
       </c>
       <c r="CI230">
         <v>4.069678878132891</v>
@@ -78482,13 +78482,13 @@
         <v>0.8415890256982202</v>
       </c>
       <c r="CN230">
-        <v>-3.140386318658489</v>
+        <v>-2.647375216131741</v>
       </c>
       <c r="CO230">
-        <v>-2.534071965097183</v>
+        <v>-0.8836302536869426</v>
       </c>
       <c r="CP230">
-        <v>-0.6063143535613563</v>
+        <v>-1.763744962444843</v>
       </c>
       <c r="CQ230">
         <v>-0.7973566373055481</v>
@@ -78518,25 +78518,25 @@
         <v>-0.001664840091744779</v>
       </c>
       <c r="CZ230">
-        <v>-14.97296314779206</v>
+        <v>-14.47995204526531</v>
       </c>
       <c r="DA230">
-        <v>-2.230958707646549</v>
+        <v>-3.388389316530036</v>
       </c>
       <c r="DB230">
-        <v>-12.74200444014552</v>
+        <v>-11.09156272873528</v>
       </c>
       <c r="DC230">
-        <v>-0.0315321851102879</v>
+        <v>-0.04789121322073084</v>
       </c>
       <c r="DD230">
-        <v>-0.1800944326336825</v>
+        <v>-0.1567672265408241</v>
       </c>
       <c r="DE230">
         <v>0.1641130561603584</v>
       </c>
       <c r="DF230">
-        <v>-0.04438595944351441</v>
+        <v>-0.03741778146109903</v>
       </c>
       <c r="DG230">
         <v>-0.2724930777425627</v>
@@ -78556,19 +78556,19 @@
         <v>46568</v>
       </c>
       <c r="B231">
-        <v>-0.305297076700643</v>
+        <v>-0.2949165131893148</v>
       </c>
       <c r="C231">
-        <v>-0.2961688437132878</v>
+        <v>-0.2858260870891578</v>
       </c>
       <c r="D231">
-        <v>-0.03978203338445945</v>
+        <v>-0.03521861439247089</v>
       </c>
       <c r="E231">
         <v>-0.03510453741890401</v>
       </c>
       <c r="F231">
-        <v>-0.2304105058972796</v>
+        <v>-0.2245933613779398</v>
       </c>
       <c r="G231">
         <v>-0.04727042606892874</v>
@@ -78613,7 +78613,7 @@
         <v>0.005351990730869893</v>
       </c>
       <c r="V231">
-        <v>3115.326843039934</v>
+        <v>2934.975787802345</v>
       </c>
       <c r="W231">
         <v>0.007881971946499533</v>
@@ -78646,13 +78646,13 @@
         <v>2153.024923508307</v>
       </c>
       <c r="AH231">
-        <v>4713.131479274943</v>
+        <v>4363.06723553425</v>
       </c>
       <c r="AI231">
-        <v>4713.131479274943</v>
+        <v>4363.06723553425</v>
       </c>
       <c r="AJ231">
-        <v>2560.106555766636</v>
+        <v>2210.042312025943</v>
       </c>
       <c r="AK231">
         <v>3150.639909171452</v>
@@ -78685,7 +78685,7 @@
         <v>0</v>
       </c>
       <c r="AU231">
-        <v>1342.875880741071</v>
+        <v>2044.049055535957</v>
       </c>
       <c r="AV231">
         <v>2458.618214553279</v>
@@ -78712,13 +78712,13 @@
         <v>253.3461433047934</v>
       </c>
       <c r="BD231">
-        <v>2093.689264787578</v>
+        <v>1042.451846251999</v>
       </c>
       <c r="BF231">
         <v>0</v>
       </c>
       <c r="BG231">
-        <v>1217.230675025565</v>
+        <v>165.993256489986</v>
       </c>
       <c r="BH231">
         <v>692.0216946181732</v>
@@ -78742,7 +78742,7 @@
         <v>0.003940479379687522</v>
       </c>
       <c r="BO231">
-        <v>-0.07882705018305099</v>
+        <v>-0.07426363119106243</v>
       </c>
       <c r="BP231">
         <v>-0.03596535749371328</v>
@@ -78757,10 +78757,10 @@
         <v>-0.03904501679859154</v>
       </c>
       <c r="BT231">
-        <v>-0.07882705018305099</v>
+        <v>-0.07426363119106243</v>
       </c>
       <c r="BU231">
-        <v>-0.07488657080336347</v>
+        <v>-0.07032315181137491</v>
       </c>
       <c r="BV231">
         <v>-6.553339166367095</v>
@@ -78769,7 +78769,7 @@
         <v>13.18356512998389</v>
       </c>
       <c r="BX231">
-        <v>-5.546887360294477</v>
+        <v>-5.459978228476757</v>
       </c>
       <c r="BY231">
         <v>38.09766354042586</v>
@@ -78784,7 +78784,7 @@
         <v>12.25655414461039</v>
       </c>
       <c r="CC231">
-        <v>-4.882517859240124</v>
+        <v>-3.518947548539018</v>
       </c>
       <c r="CD231">
         <v>34.0028512901863</v>
@@ -78799,7 +78799,7 @@
         <v>0.9270109853737267</v>
       </c>
       <c r="CH231">
-        <v>-0.6643695010543524</v>
+        <v>-1.941030679937427</v>
       </c>
       <c r="CI231">
         <v>4.094812250240011</v>
@@ -78817,13 +78817,13 @@
         <v>0.8454792937867467</v>
       </c>
       <c r="CN231">
-        <v>-3.555147569370013</v>
+        <v>-3.139099126984433</v>
       </c>
       <c r="CO231">
-        <v>-2.961625262048824</v>
+        <v>-1.374965861549924</v>
       </c>
       <c r="CP231">
-        <v>-0.5935223073211375</v>
+        <v>-1.764133265434407</v>
       </c>
       <c r="CQ231">
         <v>-0.3807214271027002</v>
@@ -78853,25 +78853,25 @@
         <v>-0.001671610280961314</v>
       </c>
       <c r="CZ231">
-        <v>-16.47920758529077</v>
+        <v>-16.06315914290519</v>
       </c>
       <c r="DA231">
-        <v>-2.23149576030452</v>
+        <v>-3.402106718417789</v>
       </c>
       <c r="DB231">
-        <v>-14.24771182498613</v>
+        <v>-12.66105242448723</v>
       </c>
       <c r="DC231">
-        <v>-0.03120053342239192</v>
+        <v>-0.04756788978171886</v>
       </c>
       <c r="DD231">
-        <v>-0.199209972474886</v>
+        <v>-0.1770254715962186</v>
       </c>
       <c r="DE231">
         <v>0.1651824568196604</v>
       </c>
       <c r="DF231">
-        <v>-0.04970769047955865</v>
+        <v>-0.04389054596021889</v>
       </c>
       <c r="DG231">
         <v>-0.2932916401726153</v>
@@ -78891,19 +78891,19 @@
         <v>46660</v>
       </c>
       <c r="B232">
-        <v>-0.3615177312697249</v>
+        <v>-0.3529101000271226</v>
       </c>
       <c r="C232">
-        <v>-0.3182656307216033</v>
+        <v>-0.3079919696922827</v>
       </c>
       <c r="D232">
-        <v>-0.03696141646842451</v>
+        <v>-0.03198795660782582</v>
       </c>
       <c r="E232">
         <v>-0.06517035716161615</v>
       </c>
       <c r="F232">
-        <v>-0.2593859576396843</v>
+        <v>-0.2557517862576807</v>
       </c>
       <c r="G232">
         <v>-0.04695453969458484</v>
@@ -78948,7 +78948,7 @@
         <v>0.005314002348562719</v>
       </c>
       <c r="V232">
-        <v>3147.46876736032</v>
+        <v>2965.256966762577</v>
       </c>
       <c r="W232">
         <v>0.007891736758132595</v>
@@ -78981,13 +78981,13 @@
         <v>2185.783920146116</v>
       </c>
       <c r="AH232">
-        <v>4763.385763231792</v>
+        <v>4410.145365260369</v>
       </c>
       <c r="AI232">
-        <v>4763.385763231792</v>
+        <v>4410.145365260369</v>
       </c>
       <c r="AJ232">
-        <v>2577.601843085677</v>
+        <v>2224.361445114253</v>
       </c>
       <c r="AK232">
         <v>3217.101203306988</v>
@@ -79020,7 +79020,7 @@
         <v>0</v>
       </c>
       <c r="AU232">
-        <v>1349.965432574647</v>
+        <v>2058.808439852786</v>
       </c>
       <c r="AV232">
         <v>2517.562140246796</v>
@@ -79047,13 +79047,13 @@
         <v>256.5823037122195</v>
       </c>
       <c r="BD232">
-        <v>2115.290594371841</v>
+        <v>1053.207189122278</v>
       </c>
       <c r="BF232">
         <v>0</v>
       </c>
       <c r="BG232">
-        <v>1227.636410511029</v>
+        <v>165.553005261467</v>
       </c>
       <c r="BH232">
         <v>699.5390630601921</v>
@@ -79077,7 +79077,7 @@
         <v>-0.01622180772447303</v>
       </c>
       <c r="BO232">
-        <v>-0.08590996590556763</v>
+        <v>-0.08093650604496894</v>
       </c>
       <c r="BP232">
         <v>-0.04480891222890049</v>
@@ -79092,10 +79092,10 @@
         <v>-0.04894854943714311</v>
       </c>
       <c r="BT232">
-        <v>-0.08590996590556763</v>
+        <v>-0.08093650604496894</v>
       </c>
       <c r="BU232">
-        <v>-0.1021317736300407</v>
+        <v>-0.09715831376944198</v>
       </c>
       <c r="BV232">
         <v>-6.570942114833997</v>
@@ -79104,7 +79104,7 @@
         <v>12.87093495830641</v>
       </c>
       <c r="BX232">
-        <v>-6.153095257143832</v>
+        <v>-6.095613316140316</v>
       </c>
       <c r="BY232">
         <v>37.43840073331921</v>
@@ -79119,7 +79119,7 @@
         <v>11.97500000265973</v>
       </c>
       <c r="CC232">
-        <v>-5.314948482461205</v>
+        <v>-4.122038396190874</v>
       </c>
       <c r="CD232">
         <v>33.28290059655046</v>
@@ -79134,7 +79134,7 @@
         <v>0.895934955646652</v>
       </c>
       <c r="CH232">
-        <v>-0.8381467746830822</v>
+        <v>-1.973574919948931</v>
       </c>
       <c r="CI232">
         <v>4.155500136769206</v>
@@ -79152,13 +79152,13 @@
         <v>0.846619406848933</v>
       </c>
       <c r="CN232">
-        <v>-4.571653420582073</v>
+        <v>-4.308912964568504</v>
       </c>
       <c r="CO232">
-        <v>-3.881652051340598</v>
+        <v>-2.494762188503262</v>
       </c>
       <c r="CP232">
-        <v>-0.6900013692415768</v>
+        <v>-1.814150776065012</v>
       </c>
       <c r="CQ232">
         <v>0.03186151634220854</v>
@@ -79188,25 +79188,25 @@
         <v>-0.001678458479123215</v>
       </c>
       <c r="CZ232">
-        <v>-18.75288136691974</v>
+        <v>-18.49014091090617</v>
       </c>
       <c r="DA232">
-        <v>-2.352771277700394</v>
+        <v>-3.476920684523829</v>
       </c>
       <c r="DB232">
-        <v>-16.40011008921946</v>
+        <v>-15.01322022638212</v>
       </c>
       <c r="DC232">
-        <v>-0.03254304333466282</v>
+        <v>-0.04809204429690132</v>
       </c>
       <c r="DD232">
-        <v>-0.2268429143050229</v>
+        <v>-0.2076597419607763</v>
       </c>
       <c r="DE232">
         <v>0.1658666939594441</v>
       </c>
       <c r="DF232">
-        <v>-0.06323415998280783</v>
+        <v>-0.0595999886008043</v>
       </c>
       <c r="DG232">
         <v>-0.3155046537939746</v>
@@ -79226,19 +79226,19 @@
         <v>46752</v>
       </c>
       <c r="B233">
-        <v>-0.2568863517967196</v>
+        <v>-0.2214324879033238</v>
       </c>
       <c r="C233">
-        <v>-0.3080389520401901</v>
+        <v>-0.2915151653521054</v>
       </c>
       <c r="D233">
-        <v>-0.0464812073525463</v>
+        <v>-0.04142977303710259</v>
       </c>
       <c r="E233">
         <v>-0.03678656061534539</v>
       </c>
       <c r="F233">
-        <v>-0.1736185838288279</v>
+        <v>-0.1432161542508758</v>
       </c>
       <c r="G233">
         <v>-0.04664866057593093</v>
@@ -79283,7 +79283,7 @@
         <v>0.005294042929165466</v>
       </c>
       <c r="V233">
-        <v>3179.928928555166</v>
+        <v>2995.837959375881</v>
       </c>
       <c r="W233">
         <v>0.00789330463445026</v>
@@ -79316,13 +79316,13 @@
         <v>2237.194032678607</v>
       </c>
       <c r="AH233">
-        <v>4847.942874142866</v>
+        <v>4500.543878201987</v>
       </c>
       <c r="AI233">
-        <v>4847.942874142866</v>
+        <v>4500.543878201987</v>
       </c>
       <c r="AJ233">
-        <v>2610.748841464259</v>
+        <v>2263.349845523381</v>
       </c>
       <c r="AK233">
         <v>3283.575110476823</v>
@@ -79355,7 +79355,7 @@
         <v>0</v>
       </c>
       <c r="AU233">
-        <v>1372.91587719268</v>
+        <v>2098.553659222418</v>
       </c>
       <c r="AV233">
         <v>2576.506065940314</v>
@@ -79382,13 +79382,13 @@
         <v>259.940751329776</v>
       </c>
       <c r="BD233">
-        <v>2137.105798506443</v>
+        <v>1064.069020535828</v>
       </c>
       <c r="BF233">
         <v>0</v>
       </c>
       <c r="BG233">
-        <v>1237.832964271578</v>
+        <v>164.7961863009631</v>
       </c>
       <c r="BH233">
         <v>707.0690445365096</v>
@@ -79412,7 +79412,7 @@
         <v>0.003989103903623085</v>
       </c>
       <c r="BO233">
-        <v>-0.08725687187151478</v>
+        <v>-0.08220543755607107</v>
       </c>
       <c r="BP233">
         <v>-0.03761769369330866</v>
@@ -79427,10 +79427,10 @@
         <v>-0.04077566451896848</v>
       </c>
       <c r="BT233">
-        <v>-0.08725687187151478</v>
+        <v>-0.08220543755607107</v>
       </c>
       <c r="BU233">
-        <v>-0.08326776796789169</v>
+        <v>-0.07821633365244798</v>
       </c>
       <c r="BV233">
         <v>-6.618050960578103</v>
@@ -79439,7 +79439,7 @@
         <v>31.13262352785478</v>
       </c>
       <c r="BX233">
-        <v>9.234619597789788</v>
+        <v>18.35302820700008</v>
       </c>
       <c r="BY233">
         <v>34.19502800810915</v>
@@ -79454,7 +79454,7 @@
         <v>30.15448660540142</v>
       </c>
       <c r="CC233">
-        <v>10.42683285413978</v>
+        <v>20.6456802445673</v>
       </c>
       <c r="CD233">
         <v>30.35207858641479</v>
@@ -79469,7 +79469,7 @@
         <v>0.9781369224531886</v>
       </c>
       <c r="CH233">
-        <v>-1.19221325634976</v>
+        <v>-2.292652037567365</v>
       </c>
       <c r="CI233">
         <v>3.842949421694811</v>
@@ -79487,13 +79487,13 @@
         <v>0.8447890683090841</v>
       </c>
       <c r="CN233">
-        <v>-1.544172345541574</v>
+        <v>0.6777153185396401</v>
       </c>
       <c r="CO233">
-        <v>-0.7255381655597205</v>
+        <v>2.552733273427862</v>
       </c>
       <c r="CP233">
-        <v>-0.818634179982007</v>
+        <v>-1.8750179548881</v>
       </c>
       <c r="CQ233">
         <v>0.2860856596663288</v>
@@ -79523,25 +79523,25 @@
         <v>-0.001685638549098698</v>
       </c>
       <c r="CZ233">
-        <v>-12.68849217051646</v>
+        <v>-10.46660450643524</v>
       </c>
       <c r="DA233">
-        <v>-2.465340445312996</v>
+        <v>-3.521724220219089</v>
       </c>
       <c r="DB233">
-        <v>-10.22315172520369</v>
+        <v>-6.944880286216106</v>
       </c>
       <c r="DC233">
-        <v>-0.03373363131087878</v>
+        <v>-0.04818829247267718</v>
       </c>
       <c r="DD233">
-        <v>-0.1398849525179522</v>
+        <v>-0.09502786177819798</v>
       </c>
       <c r="DE233">
         <v>0.2174947519997827</v>
       </c>
       <c r="DF233">
-        <v>-0.02112914696385514</v>
+        <v>0.00927328261409693</v>
       </c>
       <c r="DG233">
         <v>-0.3272500822340458</v>
@@ -79561,19 +79561,19 @@
         <v>46843</v>
       </c>
       <c r="B234">
-        <v>-0.1203884231573988</v>
+        <v>-0.0634273571989695</v>
       </c>
       <c r="C234">
-        <v>-0.2610223957311226</v>
+        <v>-0.2331716145796829</v>
       </c>
       <c r="D234">
-        <v>-0.03144703622482894</v>
+        <v>-0.02673567703335961</v>
       </c>
       <c r="E234">
         <v>-0.06928816760723247</v>
       </c>
       <c r="F234">
-        <v>-0.01965321932533736</v>
+        <v>0.03259648744162259</v>
       </c>
       <c r="G234">
         <v>-0.04634681617157604</v>
@@ -79618,7 +79618,7 @@
         <v>0.005388942587977175</v>
       </c>
       <c r="V234">
-        <v>3212.813405582624</v>
+        <v>3026.818703526615</v>
       </c>
       <c r="W234">
         <v>0.007782702368469563</v>
@@ -79651,13 +79651,13 @@
         <v>2288.604145211098</v>
       </c>
       <c r="AH234">
-        <v>4928.957897920089</v>
+        <v>4586.232642240277</v>
       </c>
       <c r="AI234">
-        <v>4928.957897920089</v>
+        <v>4586.232642240277</v>
       </c>
       <c r="AJ234">
-        <v>2640.353752708991</v>
+        <v>2297.628497029179</v>
       </c>
       <c r="AK234">
         <v>3317.9321753248</v>
@@ -79690,7 +79690,7 @@
         <v>0</v>
       </c>
       <c r="AU234">
-        <v>1392.039068609745</v>
+        <v>2133.44714496436</v>
       </c>
       <c r="AV234">
         <v>2603.484505723558</v>
@@ -79717,13 +79717,13 @@
         <v>263.2991989473325</v>
       </c>
       <c r="BD234">
-        <v>2159.206168708164</v>
+        <v>1075.072836673737</v>
       </c>
       <c r="BF234">
         <v>0</v>
       </c>
       <c r="BG234">
-        <v>1248.314684099246</v>
+        <v>164.1813520648193</v>
       </c>
       <c r="BH234">
         <v>714.4476696012428</v>
@@ -79747,7 +79747,7 @@
         <v>-0.01935268163362897</v>
       </c>
       <c r="BO234">
-        <v>-0.08138252219843244</v>
+        <v>-0.07667116300696311</v>
       </c>
       <c r="BP234">
         <v>-0.04588635250574578</v>
@@ -79762,10 +79762,10 @@
         <v>-0.0499354859736035</v>
       </c>
       <c r="BT234">
-        <v>-0.08138252219843244</v>
+        <v>-0.07667116300696311</v>
       </c>
       <c r="BU234">
-        <v>-0.1007352038320614</v>
+        <v>-0.09602384464059208</v>
       </c>
       <c r="BV234">
         <v>-6.621782659216251</v>
@@ -79774,7 +79774,7 @@
         <v>30.69028720560982</v>
       </c>
       <c r="BX234">
-        <v>5.42539924114908</v>
+        <v>13.31658350103135</v>
       </c>
       <c r="BY234">
         <v>0.8433657646146457</v>
@@ -79789,7 +79789,7 @@
         <v>29.73928699056682</v>
       </c>
       <c r="CC234">
-        <v>6.407898622422863</v>
+        <v>15.45768150545655</v>
       </c>
       <c r="CD234">
         <v>-2.222849132044757</v>
@@ -79804,7 +79804,7 @@
         <v>0.9510002150427113</v>
       </c>
       <c r="CH234">
-        <v>-0.9824993812733283</v>
+        <v>-2.141098004424947</v>
       </c>
       <c r="CI234">
         <v>3.066214896658494</v>
@@ -79822,13 +79822,13 @@
         <v>0.8442186926661627</v>
       </c>
       <c r="CN234">
-        <v>0.6660081498376258</v>
+        <v>4.525654536768229</v>
       </c>
       <c r="CO234">
-        <v>1.493384655343795</v>
+        <v>6.404034556191141</v>
       </c>
       <c r="CP234">
-        <v>-0.8273765055061176</v>
+        <v>-1.8783800194227</v>
       </c>
       <c r="CQ234">
         <v>0.5418524707059457</v>
@@ -79858,25 +79858,25 @@
         <v>-0.001692758623346321</v>
       </c>
       <c r="CZ234">
-        <v>-1.45176847209714</v>
+        <v>2.407877914833463</v>
       </c>
       <c r="DA234">
-        <v>-2.355376664178289</v>
+        <v>-3.406380178094872</v>
       </c>
       <c r="DB234">
-        <v>0.9036081920811102</v>
+        <v>5.814258092928457</v>
       </c>
       <c r="DC234">
-        <v>-0.03188575524581305</v>
+        <v>-0.04611364555180997</v>
       </c>
       <c r="DD234">
-        <v>0.01223253592047517</v>
+        <v>0.0787101329934342</v>
       </c>
       <c r="DE234">
         <v>0.2676677885687763</v>
       </c>
       <c r="DF234">
-        <v>0.009016041120050708</v>
+        <v>0.06126574788701065</v>
       </c>
       <c r="DG234">
         <v>-0.2573255246976159</v>
@@ -79896,19 +79896,19 @@
         <v>46934</v>
       </c>
       <c r="B235">
-        <v>0.03286321976841669</v>
+        <v>0.1107574097593994</v>
       </c>
       <c r="C235">
-        <v>-0.1764823216138576</v>
+        <v>-0.1317531338425044</v>
       </c>
       <c r="D235">
-        <v>-0.0532676713238492</v>
+        <v>-0.04797402840468178</v>
       </c>
       <c r="E235">
         <v>-0.03664398307869654</v>
       </c>
       <c r="F235">
-        <v>0.1227748741709624</v>
+        <v>0.1953754212427777</v>
       </c>
       <c r="G235">
         <v>-0.04603180142559836</v>
@@ -79953,7 +79953,7 @@
         <v>0.00533397314748596</v>
       </c>
       <c r="V235">
-        <v>3245.697882610081</v>
+        <v>3057.799447677348</v>
       </c>
       <c r="W235">
         <v>0.007875726512924119</v>
@@ -79986,13 +79986,13 @@
         <v>2340.014257743588</v>
       </c>
       <c r="AH235">
-        <v>5006.829190839831</v>
+        <v>4667.936160485634</v>
       </c>
       <c r="AI235">
-        <v>5006.829190839831</v>
+        <v>4667.936160485634</v>
       </c>
       <c r="AJ235">
-        <v>2666.814933096242</v>
+        <v>2327.921902742046</v>
       </c>
       <c r="AK235">
         <v>3352.089954230858</v>
@@ -80025,7 +80025,7 @@
         <v>0</v>
       </c>
       <c r="AU235">
-        <v>1408.018529169327</v>
+        <v>2164.35538491337</v>
       </c>
       <c r="AV235">
         <v>2630.462945506801</v>
@@ -80052,13 +80052,13 @@
         <v>266.657646564889</v>
       </c>
       <c r="BD235">
-        <v>2181.306538909886</v>
+        <v>1086.076652811646</v>
       </c>
       <c r="BF235">
         <v>0</v>
       </c>
       <c r="BG235">
-        <v>1258.796403926915</v>
+        <v>163.5665178286756</v>
       </c>
       <c r="BH235">
         <v>721.6270087240569</v>
@@ -80082,7 +80082,7 @@
         <v>0.001529051956548124</v>
       </c>
       <c r="BO235">
-        <v>-0.09144070635909386</v>
+        <v>-0.08614706343992644</v>
       </c>
       <c r="BP235">
         <v>-0.03497433388608487</v>
@@ -80097,10 +80097,10 @@
         <v>-0.03817303503524466</v>
       </c>
       <c r="BT235">
-        <v>-0.09144070635909386</v>
+        <v>-0.08614706343992644</v>
       </c>
       <c r="BU235">
-        <v>-0.08991165440254574</v>
+        <v>-0.08461801148337832</v>
       </c>
       <c r="BV235">
         <v>-6.645640832076197</v>
@@ -80109,7 +80109,7 @@
         <v>30.14338018407352</v>
       </c>
       <c r="BX235">
-        <v>1.925833511515975</v>
+        <v>8.942815054949733</v>
       </c>
       <c r="BY235">
         <v>-0.7599250542616574</v>
@@ -80124,7 +80124,7 @@
         <v>29.23162637474184</v>
       </c>
       <c r="CC235">
-        <v>3.044011520652248</v>
+        <v>11.08329577664563</v>
       </c>
       <c r="CD235">
         <v>-2.755973964161058</v>
@@ -80139,7 +80139,7 @@
         <v>0.9117538093317989</v>
       </c>
       <c r="CH235">
-        <v>-1.118178009136273</v>
+        <v>-2.140480721696832</v>
       </c>
       <c r="CI235">
         <v>1.99604890990031</v>
@@ -80157,13 +80157,13 @@
         <v>0.840785828056729</v>
       </c>
       <c r="CN235">
-        <v>2.347370345994978</v>
+        <v>7.76628302553919</v>
       </c>
       <c r="CO235">
-        <v>3.276853765819578</v>
+        <v>9.689539304357686</v>
       </c>
       <c r="CP235">
-        <v>-0.9294834198245496</v>
+        <v>-1.923256278818567</v>
       </c>
       <c r="CQ235">
         <v>0.7975859096250588</v>
@@ -80193,25 +80193,25 @@
         <v>-0.001698797840873512</v>
       </c>
       <c r="CZ235">
-        <v>9.163929876676594</v>
+        <v>14.58284255622081</v>
       </c>
       <c r="DA235">
-        <v>-2.227910817645849</v>
+        <v>-3.221683676639866</v>
       </c>
       <c r="DB235">
-        <v>11.39184069432232</v>
+        <v>17.80452623286043</v>
       </c>
       <c r="DC235">
-        <v>-0.02984870835783769</v>
+        <v>-0.04316290208907088</v>
       </c>
       <c r="DD235">
-        <v>0.1526235825287985</v>
+        <v>0.2385383233318453</v>
       </c>
       <c r="DE235">
         <v>0.3160281573980894</v>
       </c>
       <c r="DF235">
-        <v>0.03144918203659371</v>
+        <v>0.104049729108409</v>
       </c>
       <c r="DG235">
         <v>-0.1893564188594454</v>
@@ -80231,19 +80231,19 @@
         <v>47026</v>
       </c>
       <c r="B236">
-        <v>0.1313922460552249</v>
+        <v>0.2265775790995693</v>
       </c>
       <c r="C236">
-        <v>-0.05325482728262017</v>
+        <v>0.01311878593916858</v>
       </c>
       <c r="D236">
-        <v>-0.057867515176295</v>
+        <v>-0.05239837697603862</v>
       </c>
       <c r="E236">
         <v>-0.03680004494472287</v>
       </c>
       <c r="F236">
-        <v>0.2260598061762428</v>
+        <v>0.3157760010203308</v>
       </c>
       <c r="G236">
         <v>-0.04573539915368201</v>
@@ -80288,7 +80288,7 @@
         <v>0.005371518023409294</v>
       </c>
       <c r="V236">
-        <v>3278.476280679386</v>
+        <v>3088.680253943724</v>
       </c>
       <c r="W236">
         <v>0.007793086512110303</v>
@@ -80321,13 +80321,13 @@
         <v>2391.424370276078</v>
       </c>
       <c r="AH236">
-        <v>5080.932636364229</v>
+        <v>4744.918131347928</v>
       </c>
       <c r="AI236">
-        <v>5080.932636364229</v>
+        <v>4744.918131347928</v>
       </c>
       <c r="AJ236">
-        <v>2689.50826608815</v>
+        <v>2353.493761071849</v>
       </c>
       <c r="AK236">
         <v>3386.184667965422</v>
@@ -80360,7 +80360,7 @@
         <v>0</v>
       </c>
       <c r="AU236">
-        <v>1420.301433850348</v>
+        <v>2190.577573660407</v>
       </c>
       <c r="AV236">
         <v>2657.441385290044</v>
@@ -80387,13 +80387,13 @@
         <v>270.0160941824455</v>
       </c>
       <c r="BD236">
-        <v>2203.335617594827</v>
+        <v>1097.044972768465</v>
       </c>
       <c r="BF236">
         <v>0</v>
       </c>
       <c r="BG236">
-        <v>1269.206832237803</v>
+        <v>162.9161874114417</v>
       </c>
       <c r="BH236">
         <v>728.7432826753774</v>
@@ -80417,7 +80417,7 @@
         <v>-0.000195404019074734</v>
       </c>
       <c r="BO236">
-        <v>-0.09447215610194314</v>
+        <v>-0.08900301790168676</v>
       </c>
       <c r="BP236">
         <v>-0.03347567201003677</v>
@@ -80432,10 +80432,10 @@
         <v>-0.03660464092564814</v>
       </c>
       <c r="BT236">
-        <v>-0.09447215610194314</v>
+        <v>-0.08900301790168676</v>
       </c>
       <c r="BU236">
-        <v>-0.09466756012101787</v>
+        <v>-0.08919842192076149</v>
       </c>
       <c r="BV236">
         <v>-6.680379095949775</v>
@@ -80444,7 +80444,7 @@
         <v>29.61924353112727</v>
       </c>
       <c r="BX236">
-        <v>-2.140795546272329</v>
+        <v>3.893596729393266</v>
       </c>
       <c r="BY236">
         <v>-1.774455431114802</v>
@@ -80459,7 +80459,7 @@
         <v>28.74398669981383</v>
       </c>
       <c r="CC236">
-        <v>-0.8289587271140135</v>
+        <v>6.067104431218013</v>
       </c>
       <c r="CD236">
         <v>-3.238254084589244</v>
@@ -80474,7 +80474,7 @@
         <v>0.8752568313130382</v>
       </c>
       <c r="CH236">
-        <v>-1.311836819157861</v>
+        <v>-2.173507701824803</v>
       </c>
       <c r="CI236">
         <v>1.463798653474441</v>
@@ -80492,13 +80492,13 @@
         <v>0.8361332500816658</v>
       </c>
       <c r="CN236">
-        <v>3.250137780941066</v>
+        <v>10.01385528578425</v>
       </c>
       <c r="CO236">
-        <v>4.286201460772697</v>
+        <v>11.98209644052469</v>
       </c>
       <c r="CP236">
-        <v>-1.036063679831375</v>
+        <v>-1.968241154740638</v>
       </c>
       <c r="CQ236">
         <v>1.052302233076281</v>
@@ -80528,25 +80528,25 @@
         <v>-0.001704820105176794</v>
       </c>
       <c r="CZ236">
-        <v>17.04268299422273</v>
+        <v>23.80640049906591</v>
       </c>
       <c r="DA236">
-        <v>-2.084307689693229</v>
+        <v>-3.016485164602492</v>
       </c>
       <c r="DB236">
-        <v>19.12699068391592</v>
+        <v>26.8228856636679</v>
       </c>
       <c r="DC236">
-        <v>-0.0276469492804289</v>
+        <v>-0.04001166083266993</v>
       </c>
       <c r="DD236">
-        <v>0.2537067554566712</v>
+        <v>0.3557876618529941</v>
       </c>
       <c r="DE236">
         <v>0.3628689526842068</v>
       </c>
       <c r="DF236">
-        <v>0.0431109067190116</v>
+        <v>0.1328271015630995</v>
       </c>
       <c r="DG236">
         <v>-0.1481427403047098</v>
@@ -80566,19 +80566,19 @@
         <v>47118</v>
       </c>
       <c r="B237">
-        <v>-0.1441835445564921</v>
+        <v>-0.1232732898647901</v>
       </c>
       <c r="C237">
-        <v>-0.02507912547256329</v>
+        <v>0.037658585448802</v>
       </c>
       <c r="D237">
-        <v>-0.04681508292724771</v>
+        <v>-0.04105292735169145</v>
       </c>
       <c r="E237">
         <v>-0.07054615887856519</v>
       </c>
       <c r="F237">
-        <v>-0.02682230275067924</v>
+        <v>-0.0116742036345335</v>
       </c>
       <c r="G237">
         <v>-0.04546565437154258</v>
@@ -80623,7 +80623,7 @@
         <v>0.005260470448521737</v>
       </c>
       <c r="V237">
-        <v>3311.360757706844</v>
+        <v>3119.660998094456</v>
       </c>
       <c r="W237">
         <v>0.007825526846757747</v>
@@ -80656,13 +80656,13 @@
         <v>2393.737807468973</v>
       </c>
       <c r="AH237">
-        <v>5073.684396119127</v>
+        <v>4718.717291103354</v>
       </c>
       <c r="AI237">
-        <v>5073.684396119127</v>
+        <v>4718.717291103354</v>
       </c>
       <c r="AJ237">
-        <v>2679.946588650154</v>
+        <v>2324.979483634381</v>
       </c>
       <c r="AK237">
         <v>3420.279381699986</v>
@@ -80695,7 +80695,7 @@
         <v>0</v>
       </c>
       <c r="AU237">
-        <v>1400.941012183296</v>
+        <v>2163.361106057697</v>
       </c>
       <c r="AV237">
         <v>2684.419825073288</v>
@@ -80722,13 +80722,13 @@
         <v>273.5719604069974</v>
       </c>
       <c r="BD237">
-        <v>2225.435987796548</v>
+        <v>1108.048788906375</v>
       </c>
       <c r="BF237">
         <v>0</v>
       </c>
       <c r="BG237">
-        <v>1279.005576466858</v>
+        <v>161.6183775766845</v>
       </c>
       <c r="BH237">
         <v>735.8595566266979</v>
@@ -80752,7 +80752,7 @@
         <v>-0.01782759663436594</v>
       </c>
       <c r="BO237">
-        <v>-0.09953364517144697</v>
+        <v>-0.09377148959589071</v>
       </c>
       <c r="BP237">
         <v>-0.04852913306785453</v>
@@ -80767,10 +80767,10 @@
         <v>-0.05271856224419926</v>
       </c>
       <c r="BT237">
-        <v>-0.09953364517144697</v>
+        <v>-0.09377148959589071</v>
       </c>
       <c r="BU237">
-        <v>-0.1173612418058129</v>
+        <v>-0.1115990862302566</v>
       </c>
       <c r="BV237">
         <v>-6.715843780517162</v>
@@ -80779,7 +80779,7 @@
         <v>-20.00362557887274</v>
       </c>
       <c r="BX237">
-        <v>-34.66049534146578</v>
+        <v>-50.47736715572773</v>
       </c>
       <c r="BY237">
         <v>0.8887331456917309</v>
@@ -80794,7 +80794,7 @@
         <v>-21.03966880665484</v>
       </c>
       <c r="CC237">
-        <v>-32.61484720860062</v>
+        <v>-47.65920366639057</v>
       </c>
       <c r="CD237">
         <v>-0.2768699185971855</v>
@@ -80809,7 +80809,7 @@
         <v>1.036043227782159</v>
       </c>
       <c r="CH237">
-        <v>-2.045648132865608</v>
+        <v>-2.818163489336115</v>
       </c>
       <c r="CI237">
         <v>1.165603064290281</v>
@@ -80827,13 +80827,13 @@
         <v>0.8491621687806842</v>
       </c>
       <c r="CN237">
-        <v>-6.626263080391436</v>
+        <v>-5.472983670829513</v>
       </c>
       <c r="CO237">
-        <v>-5.398176553343894</v>
+        <v>-3.386502439440835</v>
       </c>
       <c r="CP237">
-        <v>-1.228086527047441</v>
+        <v>-2.086481231388607</v>
       </c>
       <c r="CQ237">
         <v>0.9997793031728748</v>
@@ -80863,25 +80863,25 @@
         <v>-0.001711477980651623</v>
       </c>
       <c r="CZ237">
-        <v>-2.042078629286472</v>
+        <v>-0.8887992197245482</v>
       </c>
       <c r="DA237">
-        <v>-2.033807287718721</v>
+        <v>-2.892201992059887</v>
       </c>
       <c r="DB237">
-        <v>-0.008271341567911206</v>
+        <v>2.003402772335147</v>
       </c>
       <c r="DC237">
-        <v>-0.02671366029954992</v>
+        <v>-0.03798850658079397</v>
       </c>
       <c r="DD237">
-        <v>-0.0001086424511314296</v>
+        <v>0.02631430294625797</v>
       </c>
       <c r="DE237">
         <v>0.208200951425121</v>
       </c>
       <c r="DF237">
-        <v>-0.08703466747017923</v>
+        <v>-0.07188656835403349</v>
       </c>
       <c r="DG237">
         <v>-0.1156548376236098</v>
@@ -80901,19 +80901,19 @@
         <v>47208</v>
       </c>
       <c r="B238">
-        <v>-0.3438606991240897</v>
+        <v>-0.3846861531926303</v>
       </c>
       <c r="C238">
-        <v>-0.08094719446423602</v>
+        <v>-0.0426561135496132</v>
       </c>
       <c r="D238">
-        <v>-0.06175784310373033</v>
+        <v>-0.05583481397406959</v>
       </c>
       <c r="E238">
         <v>-0.04167245117708458</v>
       </c>
       <c r="F238">
-        <v>-0.2404304048432748</v>
+        <v>-0.2871788880414762</v>
       </c>
       <c r="G238">
         <v>-0.04519822388214104</v>
@@ -80958,7 +80958,7 @@
         <v>0.005354199170647167</v>
       </c>
       <c r="V238">
-        <v>3344.245234734301</v>
+        <v>3150.641742245189</v>
       </c>
       <c r="W238">
         <v>0.007778657809615952</v>
@@ -80991,13 +80991,13 @@
         <v>2396.051244661869</v>
       </c>
       <c r="AH238">
-        <v>5075.512611555196</v>
+        <v>4704.022495255692</v>
       </c>
       <c r="AI238">
-        <v>5075.512611555196</v>
+        <v>4704.022495255692</v>
       </c>
       <c r="AJ238">
-        <v>2679.461366893327</v>
+        <v>2307.971250593823</v>
       </c>
       <c r="AK238">
         <v>3456.2297854303</v>
@@ -81030,7 +81030,7 @@
         <v>0</v>
       </c>
       <c r="AU238">
-        <v>1390.657046197415</v>
+        <v>2147.650682851897</v>
       </c>
       <c r="AV238">
         <v>2713.332155664933</v>
@@ -81057,13 +81057,13 @@
         <v>277.1278266315493</v>
       </c>
       <c r="BD238">
-        <v>2247.536357998269</v>
+        <v>1119.052605044284</v>
       </c>
       <c r="BF238">
         <v>0</v>
       </c>
       <c r="BG238">
-        <v>1288.804320695912</v>
+        <v>160.320567741927</v>
       </c>
       <c r="BH238">
         <v>742.8976297653666</v>
@@ -81087,7 +81087,7 @@
         <v>-0.00111777043431576</v>
       </c>
       <c r="BO238">
-        <v>-0.1023125238464992</v>
+        <v>-0.09638949471683841</v>
       </c>
       <c r="BP238">
         <v>-0.0373782647525507</v>
@@ -81102,10 +81102,10 @@
         <v>-0.04055468074276882</v>
       </c>
       <c r="BT238">
-        <v>-0.1023125238464992</v>
+        <v>-0.09638949471683841</v>
       </c>
       <c r="BU238">
-        <v>-0.1034302942808149</v>
+        <v>-0.09750726515115418</v>
       </c>
       <c r="BV238">
         <v>-6.742712415992855</v>
@@ -81114,7 +81114,7 @@
         <v>-20.046029200661</v>
       </c>
       <c r="BX238">
-        <v>-25.51811194992979</v>
+        <v>-38.72544052578269</v>
       </c>
       <c r="BY238">
         <v>1.801635073463331</v>
@@ -81129,7 +81129,7 @@
         <v>-21.04650985380567</v>
       </c>
       <c r="CC238">
-        <v>-23.3698993673604</v>
+        <v>-35.9179830300609</v>
       </c>
       <c r="CD238">
         <v>1.193836356335851</v>
@@ -81144,7 +81144,7 @@
         <v>1.000480653144052</v>
       </c>
       <c r="CH238">
-        <v>-2.148212582569158</v>
+        <v>-2.807457495721621</v>
       </c>
       <c r="CI238">
         <v>0.6077987171270252</v>
@@ -81162,13 +81162,13 @@
         <v>0.8602952673534858</v>
       </c>
       <c r="CN238">
-        <v>-13.58855309838418</v>
+        <v>-17.18243907686267</v>
       </c>
       <c r="CO238">
-        <v>-12.09818110104513</v>
+        <v>-14.94602695993226</v>
       </c>
       <c r="CP238">
-        <v>-1.490371997339003</v>
+        <v>-2.236412116930359</v>
       </c>
       <c r="CQ238">
         <v>0.9495077097604319</v>
@@ -81198,25 +81198,25 @@
         <v>-0.001718025512485898</v>
       </c>
       <c r="CZ238">
-        <v>-18.48358281706554</v>
+        <v>-22.07746879554403</v>
       </c>
       <c r="DA238">
-        <v>-2.020531336391975</v>
+        <v>-2.766571455983331</v>
       </c>
       <c r="DB238">
-        <v>-16.46305148067388</v>
+        <v>-19.31089733956102</v>
       </c>
       <c r="DC238">
-        <v>-0.02628262994329857</v>
+        <v>-0.03598695673740179</v>
       </c>
       <c r="DD238">
-        <v>-0.2141477748999804</v>
+        <v>-0.2511919313040786</v>
       </c>
       <c r="DE238">
         <v>0.05769494791535242</v>
       </c>
       <c r="DF238">
-        <v>-0.1767569282976022</v>
+        <v>-0.2235054114958036</v>
       </c>
       <c r="DG238">
         <v>-0.0885211893086629</v>
@@ -81236,19 +81236,19 @@
         <v>47299</v>
       </c>
       <c r="B239">
-        <v>-0.5316430215917912</v>
+        <v>-0.6223825479344072</v>
       </c>
       <c r="C239">
-        <v>-0.222073754804288</v>
+        <v>-0.2259411029730649</v>
       </c>
       <c r="D239">
-        <v>-0.05454333477872533</v>
+        <v>-0.04848284161678198</v>
       </c>
       <c r="E239">
         <v>-0.07104319511060919</v>
       </c>
       <c r="F239">
-        <v>-0.4060564917024567</v>
+        <v>-0.502856511207016</v>
       </c>
       <c r="G239">
         <v>-0.04493960448463221</v>
@@ -81293,7 +81293,7 @@
         <v>0.00533435188942688</v>
       </c>
       <c r="V239">
-        <v>3377.341869678065</v>
+        <v>3181.822362164637</v>
       </c>
       <c r="W239">
         <v>0.007796718513509715</v>
@@ -81326,13 +81326,13 @@
         <v>2398.364681854764</v>
       </c>
       <c r="AH239">
-        <v>5087.66473658631</v>
+        <v>4702.30535925705</v>
       </c>
       <c r="AI239">
-        <v>5087.66473658631</v>
+        <v>4702.30535925705</v>
       </c>
       <c r="AJ239">
-        <v>2689.300054731546</v>
+        <v>2303.940677402287</v>
       </c>
       <c r="AK239">
         <v>3492.240731725247</v>
@@ -81365,7 +81365,7 @@
         <v>0</v>
       </c>
       <c r="AU239">
-        <v>1390.554406773021</v>
+        <v>2144.846927132937</v>
       </c>
       <c r="AV239">
         <v>2742.244486256579</v>
@@ -81392,13 +81392,13 @@
         <v>280.6836928561012</v>
       </c>
       <c r="BD239">
-        <v>2269.77931123355</v>
+        <v>1130.127413544373</v>
       </c>
       <c r="BF239">
         <v>0</v>
       </c>
       <c r="BG239">
-        <v>1298.745647958526</v>
+        <v>159.0937502693497</v>
       </c>
       <c r="BH239">
         <v>749.996245468669</v>
@@ -81422,7 +81422,7 @@
         <v>-0.02089949601211501</v>
       </c>
       <c r="BO239">
-        <v>-0.1046870338772195</v>
+        <v>-0.09862654071527617</v>
       </c>
       <c r="BP239">
         <v>-0.0459352568968159</v>
@@ -81437,10 +81437,10 @@
         <v>-0.05014369909849419</v>
       </c>
       <c r="BT239">
-        <v>-0.1046870338772195</v>
+        <v>-0.09862654071527617</v>
       </c>
       <c r="BU239">
-        <v>-0.1255865298893345</v>
+        <v>-0.1195260367273912</v>
       </c>
       <c r="BV239">
         <v>-6.764726478291777</v>
@@ -81449,7 +81449,7 @@
         <v>-20.05787053973199</v>
       </c>
       <c r="BX239">
-        <v>-15.17874654679326</v>
+        <v>-25.57950091172643</v>
       </c>
       <c r="BY239">
         <v>1.374799878560225</v>
@@ -81464,7 +81464,7 @@
         <v>-21.02626627313248</v>
       </c>
       <c r="CC239">
-        <v>-13.08684283003527</v>
+        <v>-22.85581196579824</v>
       </c>
       <c r="CD239">
         <v>0.7750175148348717</v>
@@ -81479,7 +81479,7 @@
         <v>0.9683957334007687</v>
       </c>
       <c r="CH239">
-        <v>-2.091903716757542</v>
+        <v>-2.723688945929382</v>
       </c>
       <c r="CI239">
         <v>0.5997823637244437</v>
@@ -81497,13 +81497,13 @@
         <v>0.873039700269004</v>
       </c>
       <c r="CN239">
-        <v>-17.43708361150376</v>
+        <v>-24.94996016936481</v>
       </c>
       <c r="CO239">
-        <v>-15.72762332994982</v>
+        <v>-22.58232620198213</v>
       </c>
       <c r="CP239">
-        <v>-1.709460281553788</v>
+        <v>-2.367633967382683</v>
       </c>
       <c r="CQ239">
         <v>0.9008594226692443</v>
@@ -81533,25 +81533,25 @@
         <v>-0.001724533057967767</v>
       </c>
       <c r="CZ239">
-        <v>-31.51499672512977</v>
+        <v>-39.02787328299081</v>
       </c>
       <c r="DA239">
-        <v>-1.977794532642221</v>
+        <v>-2.635968218471116</v>
       </c>
       <c r="DB239">
-        <v>-29.53720219248751</v>
+        <v>-36.39190506451983</v>
       </c>
       <c r="DC239">
-        <v>-0.02548298882076731</v>
+        <v>-0.03396325934497296</v>
       </c>
       <c r="DD239">
-        <v>-0.3805735028816889</v>
+        <v>-0.4688932518620447</v>
       </c>
       <c r="DE239">
         <v>-0.08838624008129885</v>
       </c>
       <c r="DF239">
-        <v>-0.2246689428072744</v>
+        <v>-0.3214689623118338</v>
       </c>
       <c r="DG239">
         <v>-0.05966887090701219</v>
@@ -81571,19 +81571,19 @@
         <v>47391</v>
       </c>
       <c r="B240">
-        <v>-0.6418052696105959</v>
+        <v>-0.7702716412667178</v>
       </c>
       <c r="C240">
-        <v>-0.4153731337207432</v>
+        <v>-0.4751534080646366</v>
       </c>
       <c r="D240">
-        <v>-0.07302635876641086</v>
+        <v>-0.06656174414540586</v>
       </c>
       <c r="E240">
         <v>-0.04102958002245679</v>
       </c>
       <c r="F240">
-        <v>-0.5277493308217283</v>
+        <v>-0.6626803170988551</v>
       </c>
       <c r="G240">
         <v>-0.0446888158485477</v>
@@ -81628,7 +81628,7 @@
         <v>0.005351358434948494</v>
       </c>
       <c r="V240">
-        <v>3410.014188789217</v>
+        <v>3212.603230546655</v>
       </c>
       <c r="W240">
         <v>0.007769019117373155</v>
@@ -81661,13 +81661,13 @@
         <v>2400.678119047659</v>
       </c>
       <c r="AH240">
-        <v>5109.163201487376</v>
+        <v>4712.655909226422</v>
       </c>
       <c r="AI240">
-        <v>5109.163201487376</v>
+        <v>4712.655909226422</v>
       </c>
       <c r="AJ240">
-        <v>2708.485082439717</v>
+        <v>2311.977790178763</v>
       </c>
       <c r="AK240">
         <v>3528.29708494367</v>
@@ -81700,7 +81700,7 @@
         <v>0</v>
       </c>
       <c r="AU240">
-        <v>1400.083273285695</v>
+        <v>2154.252842106352</v>
       </c>
       <c r="AV240">
         <v>2771.156816848224</v>
@@ -81727,13 +81727,13 @@
         <v>284.2395590806532</v>
       </c>
       <c r="BD240">
-        <v>2291.737098401712</v>
+        <v>1141.060237320102</v>
       </c>
       <c r="BF240">
         <v>0</v>
       </c>
       <c r="BG240">
-        <v>1308.401809154021</v>
+        <v>157.724948072412</v>
       </c>
       <c r="BH240">
         <v>757.1402680954467</v>
@@ -81757,7 +81757,7 @@
         <v>-0.002388239189377335</v>
       </c>
       <c r="BO240">
-        <v>-0.1116676995994903</v>
+        <v>-0.1052030849784853</v>
       </c>
       <c r="BP240">
         <v>-0.03541127294708966</v>
@@ -81772,10 +81772,10 @@
         <v>-0.03864134083307946</v>
       </c>
       <c r="BT240">
-        <v>-0.1116676995994903</v>
+        <v>-0.1052030849784853</v>
       </c>
       <c r="BU240">
-        <v>-0.1140559387888677</v>
+        <v>-0.1075913241678627</v>
       </c>
       <c r="BV240">
         <v>-6.793718505575725</v>
@@ -81784,7 +81784,7 @@
         <v>-19.99563366439088</v>
       </c>
       <c r="BX240">
-        <v>-5.830261222415629</v>
+        <v>-13.39364636203891</v>
       </c>
       <c r="BY240">
         <v>1.130434204820631</v>
@@ -81799,7 +81799,7 @@
         <v>-20.9406407315405</v>
       </c>
       <c r="CC240">
-        <v>-3.405770586642802</v>
+        <v>-10.54498842232624</v>
       </c>
       <c r="CD240">
         <v>0.5109055344828448</v>
@@ -81814,7 +81814,7 @@
         <v>0.9450070671493904</v>
       </c>
       <c r="CH240">
-        <v>-2.424490635773964</v>
+        <v>-2.84865793971224</v>
       </c>
       <c r="CI240">
         <v>0.6195286703364218</v>
@@ -81832,13 +81832,13 @@
         <v>0.8887335033321833</v>
       </c>
       <c r="CN240">
-        <v>-18.26721338863601</v>
+        <v>-28.83958986493705</v>
       </c>
       <c r="CO240">
-        <v>-16.3074059983438</v>
+        <v>-26.32004709402959</v>
       </c>
       <c r="CP240">
-        <v>-1.959807390292411</v>
+        <v>-2.519542770907356</v>
       </c>
       <c r="CQ240">
         <v>0.8530131108803896</v>
@@ -81868,25 +81868,25 @@
         <v>-0.001731295664956223</v>
       </c>
       <c r="CZ240">
-        <v>-41.35124751184815</v>
+        <v>-51.9236239881492</v>
       </c>
       <c r="DA240">
-        <v>-1.995496598273375</v>
+        <v>-2.555231978888319</v>
       </c>
       <c r="DB240">
-        <v>-39.35575091357489</v>
+        <v>-49.36839200926068</v>
       </c>
       <c r="DC240">
-        <v>-0.02546772002692455</v>
+        <v>-0.03261139743283939</v>
       </c>
       <c r="DD240">
-        <v>-0.5022816107948052</v>
+        <v>-0.6300689196660132</v>
       </c>
       <c r="DE240">
         <v>-0.2300229859111069</v>
       </c>
       <c r="DF240">
-        <v>-0.2331370931207849</v>
+        <v>-0.3680680793979117</v>
       </c>
       <c r="DG240">
         <v>-0.03078709899348088</v>
@@ -81906,19 +81906,19 @@
         <v>47483</v>
       </c>
       <c r="B241">
-        <v>-0.2924070746176592</v>
+        <v>-0.3313267991198693</v>
       </c>
       <c r="C241">
-        <v>-0.452429016236035</v>
+        <v>-0.5271667853784064</v>
       </c>
       <c r="D241">
-        <v>-0.06528006035488707</v>
+        <v>-0.05873691752142227</v>
       </c>
       <c r="E241">
         <v>-0.05178643757428301</v>
       </c>
       <c r="F241">
-        <v>-0.1753405766884892</v>
+        <v>-0.220803444024164</v>
       </c>
       <c r="G241">
         <v>-0.04444811225040287</v>
@@ -81963,7 +81963,7 @@
         <v>0.005387634651406126</v>
       </c>
       <c r="V241">
-        <v>3442.686507900369</v>
+        <v>3243.384098928674</v>
       </c>
       <c r="W241">
         <v>0.007727534437687478</v>
@@ -81996,13 +81996,13 @@
         <v>2453.545001465923</v>
       </c>
       <c r="AH241">
-        <v>5215.298857011147</v>
+        <v>4830.299361529345</v>
       </c>
       <c r="AI241">
-        <v>5215.298857011147</v>
+        <v>4830.299361529345</v>
       </c>
       <c r="AJ241">
-        <v>2761.753855545223</v>
+        <v>2376.754360063422</v>
       </c>
       <c r="AK241">
         <v>3564.401367692429</v>
@@ -82035,7 +82035,7 @@
         <v>0</v>
       </c>
       <c r="AU241">
-        <v>1444.823546463197</v>
+        <v>2221.525875455438</v>
       </c>
       <c r="AV241">
         <v>2800.069147439869</v>
@@ -82062,13 +82062,13 @@
         <v>288.121383241393</v>
       </c>
       <c r="BD241">
-        <v>2313.694885569874</v>
+        <v>1151.993061095832</v>
       </c>
       <c r="BF241">
         <v>0</v>
       </c>
       <c r="BG241">
-        <v>1316.930309082026</v>
+        <v>155.2284846079838</v>
       </c>
       <c r="BH241">
         <v>764.3322202525594</v>
@@ -82092,7 +82092,7 @@
         <v>-0.004042326930636496</v>
       </c>
       <c r="BO241">
-        <v>-0.1130241709985336</v>
+        <v>-0.1064810281650688</v>
       </c>
       <c r="BP241">
         <v>-0.04453129201233981</v>
@@ -82107,10 +82107,10 @@
         <v>-0.04774411064364651</v>
       </c>
       <c r="BT241">
-        <v>-0.1130241709985336</v>
+        <v>-0.1064810281650688</v>
       </c>
       <c r="BU241">
-        <v>-0.1170664979291701</v>
+        <v>-0.1105233550957053</v>
       </c>
       <c r="BV241">
         <v>-6.826544627817611</v>
@@ -82119,7 +82119,7 @@
         <v>30.58073302396178</v>
       </c>
       <c r="BX241">
-        <v>28.12516776309758</v>
+        <v>43.31384982259851</v>
       </c>
       <c r="BY241">
         <v>0.6796337671994479</v>
@@ -82134,7 +82134,7 @@
         <v>29.33758217272634</v>
       </c>
       <c r="CC241">
-        <v>31.74291849453084</v>
+        <v>47.27451697516744</v>
       </c>
       <c r="CD241">
         <v>0.0767521223242511</v>
@@ -82149,7 +82149,7 @@
         <v>1.243150851235498</v>
       </c>
       <c r="CH241">
-        <v>-3.617750731433716</v>
+        <v>-3.960667152569755</v>
       </c>
       <c r="CI241">
         <v>0.6028816448761063</v>
@@ -82167,13 +82167,13 @@
         <v>0.9353327186091847</v>
       </c>
       <c r="CN241">
-        <v>-4.140439190109248</v>
+        <v>-7.73656604481364</v>
       </c>
       <c r="CO241">
-        <v>-1.826908715139217</v>
+        <v>-4.959959949679035</v>
       </c>
       <c r="CP241">
-        <v>-2.313530474970236</v>
+        <v>-2.776606095134925</v>
       </c>
       <c r="CQ241">
         <v>0.7881922510017489</v>
@@ -82203,25 +82203,25 @@
         <v>-0.001738373010576301</v>
       </c>
       <c r="CZ241">
-        <v>-13.86949379794262</v>
+        <v>-17.46562065264702</v>
       </c>
       <c r="DA241">
-        <v>-2.102812314136813</v>
+        <v>-2.565887934301502</v>
       </c>
       <c r="DB241">
-        <v>-11.76668148380606</v>
+        <v>-14.89973271834588</v>
       </c>
       <c r="DC241">
-        <v>-0.02658412262191565</v>
+        <v>-0.03243840594854295</v>
       </c>
       <c r="DD241">
-        <v>-0.1487564540665767</v>
+        <v>-0.1883650380756257</v>
       </c>
       <c r="DE241">
         <v>-0.08396591832400116</v>
       </c>
       <c r="DF241">
-        <v>-0.05234415948511893</v>
+        <v>-0.09780702682079377</v>
       </c>
       <c r="DG241">
         <v>-0.00454685150745697</v>
@@ -82241,19 +82241,19 @@
         <v>47573</v>
       </c>
       <c r="B242">
-        <v>-0.03828364621533628</v>
+        <v>-0.003709895504907329</v>
       </c>
       <c r="C242">
-        <v>-0.3760347530088466</v>
+        <v>-0.4319227209564757</v>
       </c>
       <c r="D242">
-        <v>-0.05500918051784483</v>
+        <v>-0.04850694202569691</v>
       </c>
       <c r="E242">
         <v>-0.07879815728178992</v>
       </c>
       <c r="F242">
-        <v>0.09552369158429846</v>
+        <v>0.1235952038025795</v>
       </c>
       <c r="G242">
         <v>-0.04421534070458925</v>
@@ -82298,7 +82298,7 @@
         <v>0.005289830061614875</v>
       </c>
       <c r="V242">
-        <v>3475.783142844132</v>
+        <v>3274.564718848121</v>
       </c>
       <c r="W242">
         <v>0.007763194306464216</v>
@@ -82331,13 +82331,13 @@
         <v>2506.411883884187</v>
       </c>
       <c r="AH242">
-        <v>5313.52249887876</v>
+        <v>4937.693395002359</v>
       </c>
       <c r="AI242">
-        <v>5313.52249887876</v>
+        <v>4937.693395002359</v>
       </c>
       <c r="AJ242">
-        <v>2807.110614994572</v>
+        <v>2431.281511118172</v>
       </c>
       <c r="AK242">
         <v>3600.3741480876</v>
@@ -82370,7 +82370,7 @@
         <v>0</v>
       </c>
       <c r="AU242">
-        <v>1481.366639917423</v>
+        <v>2278.407505250257</v>
       </c>
       <c r="AV242">
         <v>2828.786910506434</v>
@@ -82397,13 +82397,13 @@
         <v>292.0032074021328</v>
       </c>
       <c r="BD242">
-        <v>2335.937838805154</v>
+        <v>1163.067869595921</v>
       </c>
       <c r="BF242">
         <v>0</v>
       </c>
       <c r="BG242">
-        <v>1325.743975077149</v>
+        <v>152.8740058679153</v>
       </c>
       <c r="BH242">
         <v>771.5872375811657</v>
@@ -82427,7 +82427,7 @@
         <v>-0.0214897354004627</v>
       </c>
       <c r="BO242">
-        <v>-0.112317602399172</v>
+        <v>-0.1058153639070241</v>
       </c>
       <c r="BP242">
         <v>-0.05305669661834658</v>
@@ -82442,10 +82442,10 @@
         <v>-0.05730842188132721</v>
       </c>
       <c r="BT242">
-        <v>-0.112317602399172</v>
+        <v>-0.1058153639070241</v>
       </c>
       <c r="BU242">
-        <v>-0.1338073377996347</v>
+        <v>-0.1273050993074868</v>
       </c>
       <c r="BV242">
         <v>-6.861408916501659</v>
@@ -82454,7 +82454,7 @@
         <v>30.13146362156613</v>
       </c>
       <c r="BX242">
-        <v>19.76536802114924</v>
+        <v>32.50330159585064</v>
       </c>
       <c r="BY242">
         <v>0.1698439478905129</v>
@@ -82469,7 +82469,7 @@
         <v>28.91947445809046</v>
       </c>
       <c r="CC242">
-        <v>23.15484567538192</v>
+        <v>36.29618256804952</v>
       </c>
       <c r="CD242">
         <v>-0.4671357072902538</v>
@@ -82484,7 +82484,7 @@
         <v>1.211989163475323</v>
       </c>
       <c r="CH242">
-        <v>-3.389477654232223</v>
+        <v>-3.792880972198162</v>
       </c>
       <c r="CI242">
         <v>0.636979655182131</v>
@@ -82502,13 +82502,13 @@
         <v>0.9829221334337206</v>
       </c>
       <c r="CN242">
-        <v>6.048343803383534</v>
+        <v>8.289900932553861</v>
       </c>
       <c r="CO242">
-        <v>8.641158919477807</v>
+        <v>11.28822730989581</v>
       </c>
       <c r="CP242">
-        <v>-2.592815116094425</v>
+        <v>-2.998326377342146</v>
       </c>
       <c r="CQ242">
         <v>0.7234561201877114</v>
@@ -82538,25 +82538,25 @@
         <v>-0.001745695324344512</v>
       </c>
       <c r="CZ242">
-        <v>7.627726294560261</v>
+        <v>9.869283423730588</v>
       </c>
       <c r="DA242">
-        <v>-2.184292399705125</v>
+        <v>-2.589803660952846</v>
       </c>
       <c r="DB242">
-        <v>9.81201869426496</v>
+        <v>12.45908708468296</v>
       </c>
       <c r="DC242">
-        <v>-0.0273543734347364</v>
+        <v>-0.03243268001752659</v>
       </c>
       <c r="DD242">
-        <v>0.1228780650190296</v>
+        <v>0.1560278838201002</v>
       </c>
       <c r="DE242">
         <v>0.05821050206152151</v>
       </c>
       <c r="DF242">
-        <v>0.07574473778408163</v>
+        <v>0.1038162500023627</v>
       </c>
       <c r="DG242">
         <v>-0.00327620743490561</v>
@@ -82576,19 +82576,19 @@
         <v>47664</v>
       </c>
       <c r="B243">
-        <v>0.1671093885357721</v>
+        <v>0.2574326603467768</v>
       </c>
       <c r="C243">
-        <v>-0.2013466504769558</v>
+        <v>-0.2119689188861796</v>
       </c>
       <c r="D243">
-        <v>-0.07533146531740723</v>
+        <v>-0.06831112276902784</v>
       </c>
       <c r="E243">
         <v>-0.051054103550428</v>
       </c>
       <c r="F243">
-        <v>0.2934949574036074</v>
+        <v>0.3767978866662327</v>
       </c>
       <c r="G243">
         <v>-0.04398890188679291</v>
@@ -82633,7 +82633,7 @@
         <v>0.005378877548608996</v>
       </c>
       <c r="V243">
-        <v>3508.349382997131</v>
+        <v>3305.245649345783</v>
       </c>
       <c r="W243">
         <v>0.007759251022763536</v>
@@ -82666,13 +82666,13 @@
         <v>2559.278766302452</v>
       </c>
       <c r="AH243">
-        <v>5398.918367996801</v>
+        <v>5029.100306557543</v>
       </c>
       <c r="AI243">
-        <v>5398.918367996801</v>
+        <v>5029.100306557543</v>
       </c>
       <c r="AJ243">
-        <v>2839.639601694349</v>
+        <v>2469.821540255091</v>
       </c>
       <c r="AK243">
         <v>3636.387290192526</v>
@@ -82705,7 +82705,7 @@
         <v>0</v>
       </c>
       <c r="AU243">
-        <v>1505.438418205976</v>
+        <v>2319.479494032694</v>
       </c>
       <c r="AV243">
         <v>2857.504673572998</v>
@@ -82732,13 +82732,13 @@
         <v>295.8850315628728</v>
       </c>
       <c r="BD243">
-        <v>2357.824334456536</v>
+        <v>1173.96519719056</v>
       </c>
       <c r="BF243">
         <v>0</v>
       </c>
       <c r="BG243">
-        <v>1334.201183488373</v>
+        <v>150.3420462223971</v>
       </c>
       <c r="BH243">
         <v>778.8826166195274</v>
@@ -82762,7 +82762,7 @@
         <v>-0.005118401567507266</v>
       </c>
       <c r="BO243">
-        <v>-0.121267167300328</v>
+        <v>-0.1142468247519486</v>
       </c>
       <c r="BP243">
         <v>-0.04261845917327727</v>
@@ -82777,10 +82777,10 @@
         <v>-0.04593570198292073</v>
       </c>
       <c r="BT243">
-        <v>-0.121267167300328</v>
+        <v>-0.1142468247519486</v>
       </c>
       <c r="BU243">
-        <v>-0.1263855688678352</v>
+        <v>-0.1193652263194558</v>
       </c>
       <c r="BV243">
         <v>-6.892238623739104</v>
@@ -82789,7 +82789,7 @@
         <v>29.72372185465838</v>
       </c>
       <c r="BX243">
-        <v>6.609299636234027</v>
+        <v>16.0905910581555</v>
       </c>
       <c r="BY243">
         <v>-0.1004550124007437</v>
@@ -82804,7 +82804,7 @@
         <v>28.53813335951145</v>
       </c>
       <c r="CC243">
-        <v>10.39345741016223</v>
+        <v>20.0341254279042</v>
       </c>
       <c r="CD243">
         <v>-0.7316022097029418</v>
@@ -82819,7 +82819,7 @@
         <v>1.18558849514659</v>
       </c>
       <c r="CH243">
-        <v>-3.784157773927745</v>
+        <v>-3.943534369749102</v>
       </c>
       <c r="CI243">
         <v>0.6311471973012885</v>
@@ -82837,13 +82837,13 @@
         <v>1.03179050482653</v>
       </c>
       <c r="CN243">
-        <v>10.95065419456468</v>
+        <v>17.66567162577729</v>
       </c>
       <c r="CO243">
-        <v>13.92422647352224</v>
+        <v>20.93846322347886</v>
       </c>
       <c r="CP243">
-        <v>-2.973572278957721</v>
+        <v>-3.272791597701584</v>
       </c>
       <c r="CQ243">
         <v>0.6591007132219792</v>
@@ -82873,25 +82873,25 @@
         <v>-0.001753240367554523</v>
       </c>
       <c r="CZ243">
-        <v>23.65851684188564</v>
+        <v>30.37353427309825</v>
       </c>
       <c r="DA243">
-        <v>-2.430425405351953</v>
+        <v>-2.729644724095816</v>
       </c>
       <c r="DB243">
-        <v>26.08894224723722</v>
+        <v>33.10317899719384</v>
       </c>
       <c r="DC243">
-        <v>-0.03015056292766169</v>
+        <v>-0.033862518406358</v>
       </c>
       <c r="DD243">
-        <v>0.3236455203312645</v>
+        <v>0.4106604050725878</v>
       </c>
       <c r="DE243">
         <v>0.1966150465178399</v>
       </c>
       <c r="DF243">
-        <v>0.1358479826886407</v>
+        <v>0.219150911951266</v>
       </c>
       <c r="DG243">
         <v>-0.003155622271254795</v>
@@ -82911,19 +82911,19 @@
         <v>47756</v>
       </c>
       <c r="B244">
-        <v>0.3077262168074616</v>
+        <v>0.4366669931689149</v>
       </c>
       <c r="C244">
-        <v>0.0360362211275586</v>
+        <v>0.08976573972272853</v>
       </c>
       <c r="D244">
-        <v>-0.07634206101479432</v>
+        <v>-0.06930120098861753</v>
       </c>
       <c r="E244">
         <v>-0.0481629194879832</v>
       </c>
       <c r="F244">
-        <v>0.4322311973102392</v>
+        <v>0.5541311136455156</v>
       </c>
       <c r="G244">
         <v>-0.04377124781615298</v>
@@ -82968,7 +82968,7 @@
         <v>0.005265899552212128</v>
       </c>
       <c r="V244">
-        <v>3541.127781066436</v>
+        <v>3336.126455612159</v>
       </c>
       <c r="W244">
         <v>0.007782567668160878</v>
@@ -83001,13 +83001,13 @@
         <v>2612.145648720716</v>
       </c>
       <c r="AH244">
-        <v>5474.511838962117</v>
+        <v>5107.971153372956</v>
       </c>
       <c r="AI244">
-        <v>5474.511838962117</v>
+        <v>5107.971153372956</v>
       </c>
       <c r="AJ244">
-        <v>2862.366190241401</v>
+        <v>2495.82550465224</v>
       </c>
       <c r="AK244">
         <v>3672.438271400349</v>
@@ -83040,7 +83040,7 @@
         <v>0</v>
       </c>
       <c r="AU244">
-        <v>1519.565215308243</v>
+        <v>2347.944425713181</v>
       </c>
       <c r="AV244">
         <v>2886.222436639563</v>
@@ -83067,13 +83067,13 @@
         <v>299.7668557236126</v>
       </c>
       <c r="BD244">
-        <v>2379.853413141478</v>
+        <v>1184.933517147379</v>
       </c>
       <c r="BF244">
         <v>0</v>
       </c>
       <c r="BG244">
-        <v>1342.800974933157</v>
+        <v>147.8810789390589</v>
       </c>
       <c r="BH244">
         <v>786.2158347607855</v>
@@ -83097,7 +83097,7 @@
         <v>-0.002883400807976023</v>
       </c>
       <c r="BO244">
-        <v>-0.1216215796948015</v>
+        <v>-0.1145807196686247</v>
       </c>
       <c r="BP244">
         <v>-0.04189740532904759</v>
@@ -83112,10 +83112,10 @@
         <v>-0.04527951868000718</v>
       </c>
       <c r="BT244">
-        <v>-0.1216215796948015</v>
+        <v>-0.1145807196686247</v>
       </c>
       <c r="BU244">
-        <v>-0.1245049805027775</v>
+        <v>-0.1174641204766007</v>
       </c>
       <c r="BV244">
         <v>-6.925293985721055</v>
@@ -83124,7 +83124,7 @@
         <v>29.33684007495594</v>
       </c>
       <c r="BX244">
-        <v>-3.381094971980019</v>
+        <v>3.296392956395266</v>
       </c>
       <c r="BY244">
         <v>-0.3218294281505223</v>
@@ -83139,7 +83139,7 @@
         <v>28.17538675192827</v>
       </c>
       <c r="CC244">
-        <v>0.28577665852481</v>
+        <v>7.139606972746606</v>
       </c>
       <c r="CD244">
         <v>-0.9577656134806602</v>
@@ -83154,7 +83154,7 @@
         <v>1.161453323027558</v>
       </c>
       <c r="CH244">
-        <v>-3.666871630504829</v>
+        <v>-3.843214016351851</v>
       </c>
       <c r="CI244">
         <v>0.6359361853315022</v>
@@ -83172,13 +83172,13 @@
         <v>1.080490912399118</v>
       </c>
       <c r="CN244">
-        <v>11.50171660091269</v>
+        <v>21.42093047242498</v>
       </c>
       <c r="CO244">
-        <v>14.75482460368496</v>
+        <v>24.91749718737025</v>
       </c>
       <c r="CP244">
-        <v>-3.253108002772166</v>
+        <v>-3.496566714945496</v>
       </c>
       <c r="CQ244">
         <v>0.5946123556432668</v>
@@ -83208,25 +83208,25 @@
         <v>-0.001761060369870002</v>
       </c>
       <c r="CZ244">
-        <v>35.17142436970951</v>
+        <v>45.0906382412218</v>
       </c>
       <c r="DA244">
-        <v>-2.605879209837439</v>
+        <v>-2.849337922010769</v>
       </c>
       <c r="DB244">
-        <v>37.7773035795468</v>
+        <v>47.93997616323209</v>
       </c>
       <c r="DC244">
-        <v>-0.03202435815718427</v>
+        <v>-0.03501628846834091</v>
       </c>
       <c r="DD244">
-        <v>0.4642555554674216</v>
+        <v>0.5891474021138506</v>
       </c>
       <c r="DE244">
         <v>0.3311819992695705</v>
       </c>
       <c r="DF244">
-        <v>0.1413477226647959</v>
+        <v>0.2632476390000724</v>
       </c>
       <c r="DG244">
         <v>-0.00383462972361267</v>
@@ -83246,10 +83246,10 @@
         <v>47848</v>
       </c>
       <c r="C245">
-        <v>0.1860695439838388</v>
+        <v>0.2817641877949246</v>
       </c>
       <c r="F245">
-        <v>0.3402208008883499</v>
+        <v>0.437669051895288</v>
       </c>
       <c r="G245">
         <v>-0.04354472563012302</v>
@@ -83285,7 +83285,7 @@
         <v>0.005439619606030011</v>
       </c>
       <c r="V245">
-        <v>3573.90617913574</v>
+        <v>3367.007261878534</v>
       </c>
       <c r="W245">
         <v>0.007745763876292555</v>
@@ -83321,7 +83321,7 @@
         <v>1450.819188590233</v>
       </c>
       <c r="BD245">
-        <v>2401.882491826419</v>
+        <v>1195.901837104198</v>
       </c>
       <c r="BF245">
         <v>0</v>
@@ -83348,7 +83348,7 @@
         <v>-0.008071519134435533</v>
       </c>
       <c r="BO245">
-        <v>-0.1223671029971586</v>
+        <v>-0.1152830834820938</v>
       </c>
       <c r="BQ245">
         <v>-0.003369170934101468</v>
@@ -83357,7 +83357,7 @@
         <v>-0.008071519134435533</v>
       </c>
       <c r="BT245">
-        <v>-0.1223671029971586</v>
+        <v>-0.1152830834820938</v>
       </c>
       <c r="BV245">
         <v>-6.953075570073224</v>
@@ -83366,7 +83366,7 @@
         <v>29.33684007495594</v>
       </c>
       <c r="BX245">
-        <v>-3.381094971980019</v>
+        <v>3.296392956395266</v>
       </c>
       <c r="BY245">
         <v>-0.3218294281505223</v>
@@ -83381,7 +83381,7 @@
         <v>28.17538675192827</v>
       </c>
       <c r="CC245">
-        <v>0.28577665852481</v>
+        <v>7.139606972746606</v>
       </c>
       <c r="CD245">
         <v>-0.9577656134806602</v>
@@ -83396,7 +83396,7 @@
         <v>1.161453323027558</v>
       </c>
       <c r="CH245">
-        <v>-3.666871630504829</v>
+        <v>-3.843214016351851</v>
       </c>
       <c r="CI245">
         <v>0.6439135988803173</v>
@@ -83414,13 +83414,13 @@
         <v>1.062108968552332</v>
       </c>
       <c r="CN245">
-        <v>4.412807485520228</v>
+        <v>12.41700267752925</v>
       </c>
       <c r="CO245">
-        <v>7.676967690583598</v>
+        <v>15.88714243682556</v>
       </c>
       <c r="CP245">
-        <v>-3.264160205063166</v>
+        <v>-3.470139759296468</v>
       </c>
       <c r="CQ245">
         <v>0.6660085898855793</v>
@@ -83450,25 +83450,25 @@
         <v>-0.001768441305713209</v>
       </c>
       <c r="CZ245">
-        <v>27.94502385166568</v>
+        <v>35.9492190436747</v>
       </c>
       <c r="DA245">
-        <v>-2.599645378532006</v>
+        <v>-2.805624932765308</v>
       </c>
       <c r="DB245">
-        <v>30.54369912305254</v>
+        <v>38.7538738692945</v>
       </c>
       <c r="DC245">
-        <v>-0.03164976481697075</v>
+        <v>-0.03415749317962527</v>
       </c>
       <c r="DD245">
-        <v>0.3718587549932733</v>
+        <v>0.4718147343628615</v>
       </c>
       <c r="DE245">
         <v>0.3246855972031786</v>
       </c>
       <c r="DF245">
-        <v>0.05372437342902142</v>
+        <v>0.1511726244359596</v>
       </c>
       <c r="DG245">
         <v>-0.002752863596642832</v>
